--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>755500</v>
+        <v>958200</v>
       </c>
       <c r="E8" s="3">
-        <v>778200</v>
+        <v>737000</v>
       </c>
       <c r="F8" s="3">
-        <v>656300</v>
+        <v>759100</v>
       </c>
       <c r="G8" s="3">
-        <v>807400</v>
+        <v>640200</v>
       </c>
       <c r="H8" s="3">
-        <v>607600</v>
+        <v>787600</v>
       </c>
       <c r="I8" s="3">
-        <v>602300</v>
+        <v>592700</v>
       </c>
       <c r="J8" s="3">
+        <v>587500</v>
+      </c>
+      <c r="K8" s="3">
         <v>508600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>642800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>466500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>441000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>380200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>464000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>526400</v>
+        <v>678900</v>
       </c>
       <c r="E9" s="3">
-        <v>524400</v>
+        <v>513500</v>
       </c>
       <c r="F9" s="3">
-        <v>475600</v>
+        <v>511600</v>
       </c>
       <c r="G9" s="3">
-        <v>585000</v>
+        <v>463900</v>
       </c>
       <c r="H9" s="3">
-        <v>417400</v>
+        <v>570700</v>
       </c>
       <c r="I9" s="3">
-        <v>393200</v>
+        <v>407200</v>
       </c>
       <c r="J9" s="3">
+        <v>383600</v>
+      </c>
+      <c r="K9" s="3">
         <v>360500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>441900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>297600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>274200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>274000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>295100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>229100</v>
+        <v>279400</v>
       </c>
       <c r="E10" s="3">
-        <v>253700</v>
+        <v>223500</v>
       </c>
       <c r="F10" s="3">
-        <v>180700</v>
+        <v>247500</v>
       </c>
       <c r="G10" s="3">
-        <v>222400</v>
+        <v>176300</v>
       </c>
       <c r="H10" s="3">
-        <v>190200</v>
+        <v>217000</v>
       </c>
       <c r="I10" s="3">
-        <v>209100</v>
+        <v>185500</v>
       </c>
       <c r="J10" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K10" s="3">
         <v>148100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>168900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>166800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>168900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>7800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -983,11 +1002,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1014,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>4500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>554600</v>
+        <v>712800</v>
       </c>
       <c r="E17" s="3">
-        <v>564000</v>
+        <v>541000</v>
       </c>
       <c r="F17" s="3">
-        <v>547200</v>
+        <v>550200</v>
       </c>
       <c r="G17" s="3">
-        <v>613300</v>
+        <v>533800</v>
       </c>
       <c r="H17" s="3">
-        <v>450900</v>
+        <v>598200</v>
       </c>
       <c r="I17" s="3">
-        <v>431700</v>
+        <v>439900</v>
       </c>
       <c r="J17" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K17" s="3">
         <v>408300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>465300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>326300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>304300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>284700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>322800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>201000</v>
+        <v>245400</v>
       </c>
       <c r="E18" s="3">
-        <v>214200</v>
+        <v>196000</v>
       </c>
       <c r="F18" s="3">
-        <v>109000</v>
+        <v>208900</v>
       </c>
       <c r="G18" s="3">
-        <v>194200</v>
+        <v>106400</v>
       </c>
       <c r="H18" s="3">
-        <v>156600</v>
+        <v>189400</v>
       </c>
       <c r="I18" s="3">
-        <v>170600</v>
+        <v>152800</v>
       </c>
       <c r="J18" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K18" s="3">
         <v>100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>177500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>140200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>136700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>141200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25100</v>
+        <v>124400</v>
       </c>
       <c r="E20" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="F20" s="3">
-        <v>17200</v>
+        <v>23300</v>
       </c>
       <c r="G20" s="3">
-        <v>21200</v>
+        <v>16800</v>
       </c>
       <c r="H20" s="3">
-        <v>25400</v>
+        <v>20700</v>
       </c>
       <c r="I20" s="3">
-        <v>94200</v>
+        <v>24800</v>
       </c>
       <c r="J20" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>226700</v>
+        <v>380800</v>
       </c>
       <c r="E21" s="3">
-        <v>240300</v>
+        <v>221100</v>
       </c>
       <c r="F21" s="3">
-        <v>166800</v>
+        <v>234400</v>
       </c>
       <c r="G21" s="3">
-        <v>221000</v>
+        <v>162700</v>
       </c>
       <c r="H21" s="3">
-        <v>184300</v>
+        <v>215600</v>
       </c>
       <c r="I21" s="3">
-        <v>266500</v>
+        <v>179800</v>
       </c>
       <c r="J21" s="3">
+        <v>259900</v>
+      </c>
+      <c r="K21" s="3">
         <v>130400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>143100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>178100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,116 +1329,125 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>226000</v>
+        <v>369800</v>
       </c>
       <c r="E23" s="3">
-        <v>238100</v>
+        <v>220500</v>
       </c>
       <c r="F23" s="3">
-        <v>126200</v>
+        <v>232300</v>
       </c>
       <c r="G23" s="3">
-        <v>215400</v>
+        <v>123200</v>
       </c>
       <c r="H23" s="3">
-        <v>182100</v>
+        <v>210100</v>
       </c>
       <c r="I23" s="3">
-        <v>264700</v>
+        <v>177600</v>
       </c>
       <c r="J23" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K23" s="3">
         <v>103500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>182800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>141400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>144600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38200</v>
+        <v>46400</v>
       </c>
       <c r="E24" s="3">
-        <v>41400</v>
+        <v>37300</v>
       </c>
       <c r="F24" s="3">
-        <v>27500</v>
+        <v>40400</v>
       </c>
       <c r="G24" s="3">
-        <v>31900</v>
+        <v>26900</v>
       </c>
       <c r="H24" s="3">
-        <v>28900</v>
+        <v>31200</v>
       </c>
       <c r="I24" s="3">
-        <v>50300</v>
+        <v>28200</v>
       </c>
       <c r="J24" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K24" s="3">
         <v>22100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187800</v>
+        <v>323400</v>
       </c>
       <c r="E26" s="3">
-        <v>196700</v>
+        <v>183200</v>
       </c>
       <c r="F26" s="3">
-        <v>98700</v>
+        <v>191800</v>
       </c>
       <c r="G26" s="3">
-        <v>183400</v>
+        <v>96300</v>
       </c>
       <c r="H26" s="3">
-        <v>153200</v>
+        <v>178900</v>
       </c>
       <c r="I26" s="3">
-        <v>214400</v>
+        <v>149400</v>
       </c>
       <c r="J26" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K26" s="3">
         <v>81300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>106800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>108000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187600</v>
+        <v>325600</v>
       </c>
       <c r="E27" s="3">
-        <v>195100</v>
+        <v>183000</v>
       </c>
       <c r="F27" s="3">
-        <v>97700</v>
+        <v>190300</v>
       </c>
       <c r="G27" s="3">
-        <v>183000</v>
+        <v>95300</v>
       </c>
       <c r="H27" s="3">
-        <v>152000</v>
+        <v>178500</v>
       </c>
       <c r="I27" s="3">
-        <v>213900</v>
+        <v>148300</v>
       </c>
       <c r="J27" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K27" s="3">
         <v>79900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>181400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>106400</v>
       </c>
       <c r="M27" s="3">
         <v>106400</v>
       </c>
       <c r="N27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="O27" s="3">
         <v>73200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>105700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25100</v>
+        <v>-124400</v>
       </c>
       <c r="E32" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="F32" s="3">
-        <v>-17200</v>
+        <v>-23300</v>
       </c>
       <c r="G32" s="3">
-        <v>-21200</v>
+        <v>-16800</v>
       </c>
       <c r="H32" s="3">
-        <v>-25400</v>
+        <v>-20700</v>
       </c>
       <c r="I32" s="3">
-        <v>-94200</v>
+        <v>-24800</v>
       </c>
       <c r="J32" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187600</v>
+        <v>325600</v>
       </c>
       <c r="E33" s="3">
-        <v>195100</v>
+        <v>183000</v>
       </c>
       <c r="F33" s="3">
-        <v>97700</v>
+        <v>190300</v>
       </c>
       <c r="G33" s="3">
-        <v>183000</v>
+        <v>95300</v>
       </c>
       <c r="H33" s="3">
-        <v>152000</v>
+        <v>178500</v>
       </c>
       <c r="I33" s="3">
-        <v>213900</v>
+        <v>148300</v>
       </c>
       <c r="J33" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K33" s="3">
         <v>79900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>181400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>106400</v>
       </c>
       <c r="M33" s="3">
         <v>106400</v>
       </c>
       <c r="N33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="O33" s="3">
         <v>73200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>105700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187600</v>
+        <v>325600</v>
       </c>
       <c r="E35" s="3">
-        <v>195100</v>
+        <v>183000</v>
       </c>
       <c r="F35" s="3">
-        <v>97700</v>
+        <v>190300</v>
       </c>
       <c r="G35" s="3">
-        <v>183000</v>
+        <v>95300</v>
       </c>
       <c r="H35" s="3">
-        <v>152000</v>
+        <v>178500</v>
       </c>
       <c r="I35" s="3">
-        <v>213900</v>
+        <v>148300</v>
       </c>
       <c r="J35" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K35" s="3">
         <v>79900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>181400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>106400</v>
       </c>
       <c r="M35" s="3">
         <v>106400</v>
       </c>
       <c r="N35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="O35" s="3">
         <v>73200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>105700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>725800</v>
+        <v>737600</v>
       </c>
       <c r="E41" s="3">
-        <v>1020400</v>
+        <v>708000</v>
       </c>
       <c r="F41" s="3">
-        <v>874100</v>
+        <v>995400</v>
       </c>
       <c r="G41" s="3">
-        <v>663200</v>
+        <v>852700</v>
       </c>
       <c r="H41" s="3">
-        <v>899800</v>
+        <v>647000</v>
       </c>
       <c r="I41" s="3">
-        <v>870100</v>
+        <v>877700</v>
       </c>
       <c r="J41" s="3">
+        <v>848700</v>
+      </c>
+      <c r="K41" s="3">
         <v>486000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>805100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>768800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>848000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>920400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1641600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1621900</v>
+        <v>1555400</v>
       </c>
       <c r="E42" s="3">
-        <v>1328800</v>
+        <v>1582100</v>
       </c>
       <c r="F42" s="3">
-        <v>1619500</v>
+        <v>1296200</v>
       </c>
       <c r="G42" s="3">
-        <v>1951300</v>
+        <v>1579800</v>
       </c>
       <c r="H42" s="3">
-        <v>1706700</v>
+        <v>1903400</v>
       </c>
       <c r="I42" s="3">
-        <v>1377600</v>
+        <v>1664900</v>
       </c>
       <c r="J42" s="3">
+        <v>1343800</v>
+      </c>
+      <c r="K42" s="3">
         <v>795600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>775400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>819600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>769700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>700700</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158200</v>
+        <v>176500</v>
       </c>
       <c r="E43" s="3">
-        <v>166500</v>
+        <v>154300</v>
       </c>
       <c r="F43" s="3">
-        <v>161300</v>
+        <v>162400</v>
       </c>
       <c r="G43" s="3">
-        <v>160900</v>
+        <v>157400</v>
       </c>
       <c r="H43" s="3">
-        <v>123200</v>
+        <v>157000</v>
       </c>
       <c r="I43" s="3">
-        <v>214500</v>
+        <v>120200</v>
       </c>
       <c r="J43" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K43" s="3">
         <v>69200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="J44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L44" s="3">
         <v>5100</v>
       </c>
-      <c r="F44" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>288300</v>
+        <v>337300</v>
       </c>
       <c r="E45" s="3">
-        <v>352100</v>
+        <v>281200</v>
       </c>
       <c r="F45" s="3">
-        <v>249700</v>
+        <v>343500</v>
       </c>
       <c r="G45" s="3">
-        <v>264900</v>
+        <v>243500</v>
       </c>
       <c r="H45" s="3">
-        <v>218800</v>
+        <v>258400</v>
       </c>
       <c r="I45" s="3">
-        <v>196700</v>
+        <v>213400</v>
       </c>
       <c r="J45" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K45" s="3">
         <v>168000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>168000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>226600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>241600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2799300</v>
+        <v>2813000</v>
       </c>
       <c r="E46" s="3">
-        <v>2872800</v>
+        <v>2730600</v>
       </c>
       <c r="F46" s="3">
-        <v>2909000</v>
+        <v>2802300</v>
       </c>
       <c r="G46" s="3">
-        <v>3046700</v>
+        <v>2837700</v>
       </c>
       <c r="H46" s="3">
-        <v>2953900</v>
+        <v>2971900</v>
       </c>
       <c r="I46" s="3">
-        <v>2664600</v>
+        <v>2881400</v>
       </c>
       <c r="J46" s="3">
+        <v>2599300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1523100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1837000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1795600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1818900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1877500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1917600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319700</v>
+        <v>644600</v>
       </c>
       <c r="E47" s="3">
-        <v>315700</v>
+        <v>311900</v>
       </c>
       <c r="F47" s="3">
-        <v>313600</v>
+        <v>308000</v>
       </c>
       <c r="G47" s="3">
-        <v>316700</v>
+        <v>306000</v>
       </c>
       <c r="H47" s="3">
-        <v>245300</v>
+        <v>308900</v>
       </c>
       <c r="I47" s="3">
-        <v>221200</v>
+        <v>239300</v>
       </c>
       <c r="J47" s="3">
+        <v>215800</v>
+      </c>
+      <c r="K47" s="3">
         <v>86400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>78100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1669100</v>
+        <v>1871600</v>
       </c>
       <c r="E48" s="3">
-        <v>1481900</v>
+        <v>1628200</v>
       </c>
       <c r="F48" s="3">
-        <v>1445300</v>
+        <v>1445500</v>
       </c>
       <c r="G48" s="3">
-        <v>1296400</v>
+        <v>1409800</v>
       </c>
       <c r="H48" s="3">
-        <v>1145200</v>
+        <v>1264600</v>
       </c>
       <c r="I48" s="3">
-        <v>1041000</v>
+        <v>1117100</v>
       </c>
       <c r="J48" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="K48" s="3">
         <v>983700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>960700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>866600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>765200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>668800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>591300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>947100</v>
+        <v>951500</v>
       </c>
       <c r="E49" s="3">
-        <v>927200</v>
+        <v>923800</v>
       </c>
       <c r="F49" s="3">
-        <v>927600</v>
+        <v>904400</v>
       </c>
       <c r="G49" s="3">
-        <v>898900</v>
+        <v>904900</v>
       </c>
       <c r="H49" s="3">
-        <v>895200</v>
+        <v>876800</v>
       </c>
       <c r="I49" s="3">
-        <v>883400</v>
+        <v>873300</v>
       </c>
       <c r="J49" s="3">
+        <v>861700</v>
+      </c>
+      <c r="K49" s="3">
         <v>880200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>876300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>841400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>835000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>815900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>794000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>360100</v>
+        <v>142200</v>
       </c>
       <c r="E52" s="3">
-        <v>217900</v>
+        <v>351200</v>
       </c>
       <c r="F52" s="3">
-        <v>162800</v>
+        <v>212600</v>
       </c>
       <c r="G52" s="3">
-        <v>135000</v>
+        <v>158800</v>
       </c>
       <c r="H52" s="3">
-        <v>111400</v>
+        <v>131700</v>
       </c>
       <c r="I52" s="3">
-        <v>110900</v>
+        <v>108700</v>
       </c>
       <c r="J52" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K52" s="3">
         <v>87800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>45800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6095300</v>
+        <v>6422800</v>
       </c>
       <c r="E54" s="3">
-        <v>5815500</v>
+        <v>5945700</v>
       </c>
       <c r="F54" s="3">
-        <v>5758400</v>
+        <v>5672800</v>
       </c>
       <c r="G54" s="3">
-        <v>5693700</v>
+        <v>5617100</v>
       </c>
       <c r="H54" s="3">
-        <v>5351000</v>
+        <v>5554000</v>
       </c>
       <c r="I54" s="3">
-        <v>4921100</v>
+        <v>5219700</v>
       </c>
       <c r="J54" s="3">
+        <v>4800400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3561300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3833100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3632000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3531800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3467300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3403600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,63 +2748,67 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153800</v>
+        <v>206500</v>
       </c>
       <c r="E57" s="3">
-        <v>170100</v>
+        <v>150000</v>
       </c>
       <c r="F57" s="3">
-        <v>148100</v>
+        <v>165900</v>
       </c>
       <c r="G57" s="3">
-        <v>188200</v>
+        <v>144500</v>
       </c>
       <c r="H57" s="3">
-        <v>120100</v>
+        <v>183600</v>
       </c>
       <c r="I57" s="3">
-        <v>134000</v>
+        <v>117200</v>
       </c>
       <c r="J57" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K57" s="3">
         <v>133200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>132000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>73000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>98200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>92600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2690,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>37100</v>
@@ -2699,104 +2832,113 @@
         <v>37100</v>
       </c>
       <c r="N58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="O58" s="3">
         <v>101800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>65400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>632300</v>
+        <v>728600</v>
       </c>
       <c r="E59" s="3">
-        <v>591800</v>
+        <v>616800</v>
       </c>
       <c r="F59" s="3">
-        <v>670800</v>
+        <v>577300</v>
       </c>
       <c r="G59" s="3">
-        <v>549500</v>
+        <v>654300</v>
       </c>
       <c r="H59" s="3">
-        <v>443000</v>
+        <v>536000</v>
       </c>
       <c r="I59" s="3">
-        <v>430200</v>
+        <v>432100</v>
       </c>
       <c r="J59" s="3">
+        <v>419700</v>
+      </c>
+      <c r="K59" s="3">
         <v>424600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>446300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>419000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>349800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>311200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>354300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>786100</v>
+        <v>935100</v>
       </c>
       <c r="E60" s="3">
-        <v>761800</v>
+        <v>766800</v>
       </c>
       <c r="F60" s="3">
-        <v>818900</v>
+        <v>743200</v>
       </c>
       <c r="G60" s="3">
-        <v>737700</v>
+        <v>798800</v>
       </c>
       <c r="H60" s="3">
-        <v>563100</v>
+        <v>719600</v>
       </c>
       <c r="I60" s="3">
-        <v>564200</v>
+        <v>549300</v>
       </c>
       <c r="J60" s="3">
+        <v>550400</v>
+      </c>
+      <c r="K60" s="3">
         <v>557800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>615300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>541000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>459900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>511200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>512300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>88200</v>
+        <v>112800</v>
       </c>
       <c r="E62" s="3">
-        <v>90600</v>
+        <v>86000</v>
       </c>
       <c r="F62" s="3">
-        <v>114200</v>
+        <v>88400</v>
       </c>
       <c r="G62" s="3">
-        <v>39000</v>
+        <v>111400</v>
       </c>
       <c r="H62" s="3">
-        <v>34400</v>
+        <v>38000</v>
       </c>
       <c r="I62" s="3">
-        <v>34300</v>
+        <v>33600</v>
       </c>
       <c r="J62" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K62" s="3">
         <v>34000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>888200</v>
+        <v>1062000</v>
       </c>
       <c r="E66" s="3">
-        <v>863500</v>
+        <v>866400</v>
       </c>
       <c r="F66" s="3">
-        <v>942900</v>
+        <v>842300</v>
       </c>
       <c r="G66" s="3">
-        <v>784200</v>
+        <v>919700</v>
       </c>
       <c r="H66" s="3">
-        <v>602800</v>
+        <v>765000</v>
       </c>
       <c r="I66" s="3">
-        <v>599600</v>
+        <v>588000</v>
       </c>
       <c r="J66" s="3">
+        <v>584900</v>
+      </c>
+      <c r="K66" s="3">
         <v>592700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>651900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>571800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>491000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>535400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>532100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,10 +3374,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2066100</v>
+        <v>2341000</v>
       </c>
       <c r="E72" s="3">
-        <v>1878500</v>
+        <v>2015400</v>
       </c>
       <c r="F72" s="3">
-        <v>1683500</v>
+        <v>1832400</v>
       </c>
       <c r="G72" s="3">
-        <v>1585800</v>
+        <v>1642200</v>
       </c>
       <c r="H72" s="3">
-        <v>1402800</v>
+        <v>1546900</v>
       </c>
       <c r="I72" s="3">
-        <v>1250700</v>
+        <v>1368400</v>
       </c>
       <c r="J72" s="3">
+        <v>1220100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1036800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>989800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>808400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>702000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>583600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>510400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5207100</v>
+        <v>5360800</v>
       </c>
       <c r="E76" s="3">
-        <v>4952000</v>
+        <v>5079300</v>
       </c>
       <c r="F76" s="3">
-        <v>4815500</v>
+        <v>4830500</v>
       </c>
       <c r="G76" s="3">
-        <v>4909500</v>
+        <v>4697400</v>
       </c>
       <c r="H76" s="3">
-        <v>4748200</v>
+        <v>4789000</v>
       </c>
       <c r="I76" s="3">
-        <v>4321500</v>
+        <v>4631700</v>
       </c>
       <c r="J76" s="3">
+        <v>4215500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2968500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3181200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3060200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3040800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2931800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2871500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187600</v>
+        <v>325600</v>
       </c>
       <c r="E81" s="3">
-        <v>195100</v>
+        <v>183000</v>
       </c>
       <c r="F81" s="3">
-        <v>97700</v>
+        <v>190300</v>
       </c>
       <c r="G81" s="3">
-        <v>183000</v>
+        <v>95300</v>
       </c>
       <c r="H81" s="3">
-        <v>152000</v>
+        <v>178500</v>
       </c>
       <c r="I81" s="3">
-        <v>213900</v>
+        <v>148300</v>
       </c>
       <c r="J81" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K81" s="3">
         <v>79900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>181400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>106400</v>
       </c>
       <c r="M81" s="3">
         <v>106400</v>
       </c>
       <c r="N81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="O81" s="3">
         <v>73200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>105700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>203400</v>
+        <v>316400</v>
       </c>
       <c r="E89" s="3">
-        <v>285900</v>
+        <v>198400</v>
       </c>
       <c r="F89" s="3">
-        <v>90900</v>
+        <v>278900</v>
       </c>
       <c r="G89" s="3">
-        <v>258600</v>
+        <v>88600</v>
       </c>
       <c r="H89" s="3">
-        <v>130800</v>
+        <v>252300</v>
       </c>
       <c r="I89" s="3">
-        <v>211700</v>
+        <v>127600</v>
       </c>
       <c r="J89" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K89" s="3">
         <v>30700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>203600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>152000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>134100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>166300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-576100</v>
+        <v>-285900</v>
       </c>
       <c r="E94" s="3">
-        <v>215000</v>
+        <v>-562000</v>
       </c>
       <c r="F94" s="3">
-        <v>128500</v>
+        <v>209800</v>
       </c>
       <c r="G94" s="3">
-        <v>-477800</v>
+        <v>125300</v>
       </c>
       <c r="H94" s="3">
-        <v>-329400</v>
+        <v>-466100</v>
       </c>
       <c r="I94" s="3">
-        <v>-810600</v>
+        <v>-321300</v>
       </c>
       <c r="J94" s="3">
+        <v>-790700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-229200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-107200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-167600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-168800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-771600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-158200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73400</v>
+        <v>1800</v>
       </c>
       <c r="E100" s="3">
-        <v>-357700</v>
+        <v>71600</v>
       </c>
       <c r="F100" s="3">
+        <v>-348900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H100" s="3">
-        <v>198000</v>
+        <v>-21400</v>
       </c>
       <c r="I100" s="3">
-        <v>949900</v>
+        <v>193200</v>
       </c>
       <c r="J100" s="3">
+        <v>926600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-115500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1358900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-6500</v>
-      </c>
       <c r="G101" s="3">
-        <v>4700</v>
+        <v>-6300</v>
       </c>
       <c r="H101" s="3">
-        <v>14500</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
-        <v>33200</v>
+        <v>14200</v>
       </c>
       <c r="J101" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>40700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-294600</v>
+        <v>30500</v>
       </c>
       <c r="E102" s="3">
-        <v>146400</v>
+        <v>-287400</v>
       </c>
       <c r="F102" s="3">
-        <v>210800</v>
+        <v>142800</v>
       </c>
       <c r="G102" s="3">
-        <v>-236500</v>
+        <v>205700</v>
       </c>
       <c r="H102" s="3">
-        <v>14000</v>
+        <v>-230700</v>
       </c>
       <c r="I102" s="3">
-        <v>384200</v>
+        <v>13700</v>
       </c>
       <c r="J102" s="3">
+        <v>374800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-326900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-92900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-150000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-705100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1407600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>958200</v>
+        <v>929800</v>
       </c>
       <c r="E8" s="3">
-        <v>737000</v>
+        <v>568700</v>
       </c>
       <c r="F8" s="3">
-        <v>759100</v>
+        <v>994300</v>
       </c>
       <c r="G8" s="3">
-        <v>640200</v>
+        <v>764800</v>
       </c>
       <c r="H8" s="3">
-        <v>787600</v>
+        <v>787700</v>
       </c>
       <c r="I8" s="3">
+        <v>664300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>817300</v>
+      </c>
+      <c r="K8" s="3">
         <v>592700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>587500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>508600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>642800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>466500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>441000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>380200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>464000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>678900</v>
+        <v>672900</v>
       </c>
       <c r="E9" s="3">
-        <v>513500</v>
+        <v>449800</v>
       </c>
       <c r="F9" s="3">
-        <v>511600</v>
+        <v>704400</v>
       </c>
       <c r="G9" s="3">
-        <v>463900</v>
+        <v>532800</v>
       </c>
       <c r="H9" s="3">
-        <v>570700</v>
+        <v>530800</v>
       </c>
       <c r="I9" s="3">
+        <v>481400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>592200</v>
+      </c>
+      <c r="K9" s="3">
         <v>407200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>383600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>360500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>441900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>297600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>274200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>274000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>295100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>279400</v>
+        <v>256900</v>
       </c>
       <c r="E10" s="3">
-        <v>223500</v>
+        <v>118900</v>
       </c>
       <c r="F10" s="3">
-        <v>247500</v>
+        <v>289900</v>
       </c>
       <c r="G10" s="3">
-        <v>176300</v>
+        <v>231900</v>
       </c>
       <c r="H10" s="3">
-        <v>217000</v>
+        <v>256800</v>
       </c>
       <c r="I10" s="3">
+        <v>182900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K10" s="3">
         <v>185500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>204000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>148100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>168900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>166800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>106300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>168900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,43 +1022,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7800</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>8100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>4500</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>4500</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>712800</v>
+        <v>690700</v>
       </c>
       <c r="E17" s="3">
-        <v>541000</v>
+        <v>514700</v>
       </c>
       <c r="F17" s="3">
-        <v>550200</v>
+        <v>739600</v>
       </c>
       <c r="G17" s="3">
-        <v>533800</v>
+        <v>561300</v>
       </c>
       <c r="H17" s="3">
-        <v>598200</v>
+        <v>570900</v>
       </c>
       <c r="I17" s="3">
+        <v>553900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>620800</v>
+      </c>
+      <c r="K17" s="3">
         <v>439900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>421100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>408300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>465300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>326300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>304300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>284700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>322800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>245400</v>
+        <v>239100</v>
       </c>
       <c r="E18" s="3">
-        <v>196000</v>
+        <v>54000</v>
       </c>
       <c r="F18" s="3">
-        <v>208900</v>
+        <v>254700</v>
       </c>
       <c r="G18" s="3">
-        <v>106400</v>
+        <v>203400</v>
       </c>
       <c r="H18" s="3">
-        <v>189400</v>
+        <v>216800</v>
       </c>
       <c r="I18" s="3">
+        <v>110400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K18" s="3">
         <v>152800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>166400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>177500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>140200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>136700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>95500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>141200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,107 +1277,121 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>124400</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
-        <v>24500</v>
+        <v>20700</v>
       </c>
       <c r="F20" s="3">
-        <v>23300</v>
+        <v>129100</v>
       </c>
       <c r="G20" s="3">
-        <v>16800</v>
+        <v>25400</v>
       </c>
       <c r="H20" s="3">
-        <v>20700</v>
+        <v>24200</v>
       </c>
       <c r="I20" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K20" s="3">
         <v>24800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>91900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>380800</v>
+        <v>258700</v>
       </c>
       <c r="E21" s="3">
-        <v>221100</v>
+        <v>134000</v>
       </c>
       <c r="F21" s="3">
-        <v>234400</v>
+        <v>395100</v>
       </c>
       <c r="G21" s="3">
-        <v>162700</v>
+        <v>229500</v>
       </c>
       <c r="H21" s="3">
-        <v>215600</v>
+        <v>243200</v>
       </c>
       <c r="I21" s="3">
+        <v>168800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K21" s="3">
         <v>179800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>259900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>130400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>144500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>143100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>118100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>178100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1332,122 +1412,140 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>369800</v>
+        <v>254800</v>
       </c>
       <c r="E23" s="3">
-        <v>220500</v>
+        <v>74700</v>
       </c>
       <c r="F23" s="3">
-        <v>232300</v>
+        <v>383700</v>
       </c>
       <c r="G23" s="3">
-        <v>123200</v>
+        <v>228800</v>
       </c>
       <c r="H23" s="3">
-        <v>210100</v>
+        <v>241000</v>
       </c>
       <c r="I23" s="3">
+        <v>127800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K23" s="3">
         <v>177600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>258300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>103500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>182800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>142500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>141400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>98400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>144600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46400</v>
+        <v>43300</v>
       </c>
       <c r="E24" s="3">
-        <v>37300</v>
+        <v>18800</v>
       </c>
       <c r="F24" s="3">
-        <v>40400</v>
+        <v>48100</v>
       </c>
       <c r="G24" s="3">
-        <v>26900</v>
+        <v>38700</v>
       </c>
       <c r="H24" s="3">
-        <v>31200</v>
+        <v>41900</v>
       </c>
       <c r="I24" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K24" s="3">
         <v>28200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>49100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>34600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>24200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>36600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>323400</v>
+        <v>211500</v>
       </c>
       <c r="E26" s="3">
-        <v>183200</v>
+        <v>55900</v>
       </c>
       <c r="F26" s="3">
-        <v>191800</v>
+        <v>335600</v>
       </c>
       <c r="G26" s="3">
-        <v>96300</v>
+        <v>190100</v>
       </c>
       <c r="H26" s="3">
-        <v>178900</v>
+        <v>199100</v>
       </c>
       <c r="I26" s="3">
+        <v>99900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K26" s="3">
         <v>149400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>209100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>81300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>181500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>107200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>106800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>74200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>108000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>325600</v>
+        <v>210300</v>
       </c>
       <c r="E27" s="3">
-        <v>183000</v>
+        <v>54400</v>
       </c>
       <c r="F27" s="3">
-        <v>190300</v>
+        <v>337900</v>
       </c>
       <c r="G27" s="3">
-        <v>95300</v>
+        <v>189900</v>
       </c>
       <c r="H27" s="3">
-        <v>178500</v>
+        <v>197400</v>
       </c>
       <c r="I27" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K27" s="3">
         <v>148300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>208700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>79900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>181400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>106400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>106400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>73200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>105700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-124400</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
-        <v>-24500</v>
+        <v>-20700</v>
       </c>
       <c r="F32" s="3">
-        <v>-23300</v>
+        <v>-129100</v>
       </c>
       <c r="G32" s="3">
-        <v>-16800</v>
+        <v>-25400</v>
       </c>
       <c r="H32" s="3">
-        <v>-20700</v>
+        <v>-24200</v>
       </c>
       <c r="I32" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-91900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>325600</v>
+        <v>210300</v>
       </c>
       <c r="E33" s="3">
-        <v>183000</v>
+        <v>54400</v>
       </c>
       <c r="F33" s="3">
-        <v>190300</v>
+        <v>337900</v>
       </c>
       <c r="G33" s="3">
-        <v>95300</v>
+        <v>189900</v>
       </c>
       <c r="H33" s="3">
-        <v>178500</v>
+        <v>197400</v>
       </c>
       <c r="I33" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K33" s="3">
         <v>148300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>208700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>79900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>181400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>106400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>106400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>73200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>105700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>325600</v>
+        <v>210300</v>
       </c>
       <c r="E35" s="3">
-        <v>183000</v>
+        <v>54400</v>
       </c>
       <c r="F35" s="3">
-        <v>190300</v>
+        <v>337900</v>
       </c>
       <c r="G35" s="3">
-        <v>95300</v>
+        <v>189900</v>
       </c>
       <c r="H35" s="3">
-        <v>178500</v>
+        <v>197400</v>
       </c>
       <c r="I35" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K35" s="3">
         <v>148300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>208700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>79900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>181400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>106400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>106400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>73200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>105700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>737600</v>
+        <v>764200</v>
       </c>
       <c r="E41" s="3">
-        <v>708000</v>
+        <v>729100</v>
       </c>
       <c r="F41" s="3">
-        <v>995400</v>
+        <v>765400</v>
       </c>
       <c r="G41" s="3">
-        <v>852700</v>
+        <v>734700</v>
       </c>
       <c r="H41" s="3">
-        <v>647000</v>
+        <v>1032800</v>
       </c>
       <c r="I41" s="3">
+        <v>884800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>671300</v>
+      </c>
+      <c r="K41" s="3">
         <v>877700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>848700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>486000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>805100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>768800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>848000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>920400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1641600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1555400</v>
+        <v>1225400</v>
       </c>
       <c r="E42" s="3">
-        <v>1582100</v>
+        <v>1469300</v>
       </c>
       <c r="F42" s="3">
-        <v>1296200</v>
+        <v>1614000</v>
       </c>
       <c r="G42" s="3">
-        <v>1579800</v>
+        <v>1641700</v>
       </c>
       <c r="H42" s="3">
-        <v>1903400</v>
+        <v>1345000</v>
       </c>
       <c r="I42" s="3">
+        <v>1639300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1975100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1664900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1343800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>795600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>775400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>819600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>769700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>700700</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176500</v>
+        <v>171600</v>
       </c>
       <c r="E43" s="3">
-        <v>154300</v>
+        <v>193900</v>
       </c>
       <c r="F43" s="3">
-        <v>162400</v>
+        <v>183100</v>
       </c>
       <c r="G43" s="3">
-        <v>157400</v>
+        <v>160100</v>
       </c>
       <c r="H43" s="3">
-        <v>157000</v>
+        <v>168500</v>
       </c>
       <c r="I43" s="3">
+        <v>163300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K43" s="3">
         <v>120200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>209200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>69200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>53700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>31000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>28800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>25200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>29600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6100</v>
+        <v>9300</v>
       </c>
       <c r="E44" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R44" s="3">
         <v>4900</v>
       </c>
-      <c r="G44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>337300</v>
+        <v>417100</v>
       </c>
       <c r="E45" s="3">
-        <v>281200</v>
+        <v>348400</v>
       </c>
       <c r="F45" s="3">
-        <v>343500</v>
+        <v>350000</v>
       </c>
       <c r="G45" s="3">
-        <v>243500</v>
+        <v>291800</v>
       </c>
       <c r="H45" s="3">
-        <v>258400</v>
+        <v>356400</v>
       </c>
       <c r="I45" s="3">
+        <v>252700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K45" s="3">
         <v>213400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>191900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>168000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>197700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>172000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>168000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>226600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>241600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2813000</v>
+        <v>2587600</v>
       </c>
       <c r="E46" s="3">
-        <v>2730600</v>
+        <v>2748800</v>
       </c>
       <c r="F46" s="3">
-        <v>2802300</v>
+        <v>2918900</v>
       </c>
       <c r="G46" s="3">
-        <v>2837700</v>
+        <v>2833400</v>
       </c>
       <c r="H46" s="3">
-        <v>2971900</v>
+        <v>2907800</v>
       </c>
       <c r="I46" s="3">
+        <v>2944500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3083800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2881400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2599300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1523100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1837000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1795600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1818900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1877500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1917600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>644600</v>
+        <v>864200</v>
       </c>
       <c r="E47" s="3">
-        <v>311900</v>
+        <v>710200</v>
       </c>
       <c r="F47" s="3">
-        <v>308000</v>
+        <v>668800</v>
       </c>
       <c r="G47" s="3">
-        <v>306000</v>
+        <v>323600</v>
       </c>
       <c r="H47" s="3">
-        <v>308900</v>
+        <v>319600</v>
       </c>
       <c r="I47" s="3">
+        <v>317500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K47" s="3">
         <v>239300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>215800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>86400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>90600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>82600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>78200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>76400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>78100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1871600</v>
+        <v>2241700</v>
       </c>
       <c r="E48" s="3">
-        <v>1628200</v>
+        <v>2059500</v>
       </c>
       <c r="F48" s="3">
-        <v>1445500</v>
+        <v>1942100</v>
       </c>
       <c r="G48" s="3">
-        <v>1409800</v>
+        <v>1689500</v>
       </c>
       <c r="H48" s="3">
-        <v>1264600</v>
+        <v>1500000</v>
       </c>
       <c r="I48" s="3">
+        <v>1462900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1312300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1117100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1015500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>983700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>960700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>866600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>765200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>668800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>591300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>951500</v>
+        <v>1178600</v>
       </c>
       <c r="E49" s="3">
-        <v>923800</v>
+        <v>1062500</v>
       </c>
       <c r="F49" s="3">
-        <v>904400</v>
+        <v>987300</v>
       </c>
       <c r="G49" s="3">
-        <v>904900</v>
+        <v>958600</v>
       </c>
       <c r="H49" s="3">
-        <v>876800</v>
+        <v>938500</v>
       </c>
       <c r="I49" s="3">
+        <v>939000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>909900</v>
+      </c>
+      <c r="K49" s="3">
         <v>873300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>861700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>880200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>876300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>841400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>835000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>815900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>794000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142200</v>
+        <v>168400</v>
       </c>
       <c r="E52" s="3">
-        <v>351200</v>
+        <v>165300</v>
       </c>
       <c r="F52" s="3">
-        <v>212600</v>
+        <v>147500</v>
       </c>
       <c r="G52" s="3">
-        <v>158800</v>
+        <v>364500</v>
       </c>
       <c r="H52" s="3">
-        <v>131700</v>
+        <v>220600</v>
       </c>
       <c r="I52" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K52" s="3">
         <v>108700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>108200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>87800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>68500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>45800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>34600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>28700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>22500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6422800</v>
+        <v>7040700</v>
       </c>
       <c r="E54" s="3">
-        <v>5945700</v>
+        <v>6746300</v>
       </c>
       <c r="F54" s="3">
-        <v>5672800</v>
+        <v>6664700</v>
       </c>
       <c r="G54" s="3">
-        <v>5617100</v>
+        <v>6169600</v>
       </c>
       <c r="H54" s="3">
-        <v>5554000</v>
+        <v>5886400</v>
       </c>
       <c r="I54" s="3">
+        <v>5828600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5763100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5219700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4800400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3561300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3833100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3632000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3531800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3467300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3403600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,75 +3009,83 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>206500</v>
+        <v>160600</v>
       </c>
       <c r="E57" s="3">
-        <v>150000</v>
+        <v>170900</v>
       </c>
       <c r="F57" s="3">
-        <v>165900</v>
+        <v>214300</v>
       </c>
       <c r="G57" s="3">
-        <v>144500</v>
+        <v>155700</v>
       </c>
       <c r="H57" s="3">
-        <v>183600</v>
+        <v>172100</v>
       </c>
       <c r="I57" s="3">
+        <v>149900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>190500</v>
+      </c>
+      <c r="K57" s="3">
         <v>117200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>130700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>133200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>132000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>84900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>73000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>98200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>92600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>317500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>43600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2826,119 +3094,137 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>37100</v>
       </c>
       <c r="O58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>101800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>65400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>728600</v>
+        <v>796700</v>
       </c>
       <c r="E59" s="3">
-        <v>616800</v>
+        <v>969000</v>
       </c>
       <c r="F59" s="3">
-        <v>577300</v>
+        <v>756000</v>
       </c>
       <c r="G59" s="3">
-        <v>654300</v>
+        <v>640000</v>
       </c>
       <c r="H59" s="3">
-        <v>536000</v>
+        <v>599000</v>
       </c>
       <c r="I59" s="3">
+        <v>679000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>556200</v>
+      </c>
+      <c r="K59" s="3">
         <v>432100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>419700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>424600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>446300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>419000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>349800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>311200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>354300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>935100</v>
+        <v>1274800</v>
       </c>
       <c r="E60" s="3">
-        <v>766800</v>
+        <v>1183500</v>
       </c>
       <c r="F60" s="3">
-        <v>743200</v>
+        <v>970300</v>
       </c>
       <c r="G60" s="3">
-        <v>798800</v>
+        <v>795700</v>
       </c>
       <c r="H60" s="3">
-        <v>719600</v>
+        <v>771100</v>
       </c>
       <c r="I60" s="3">
+        <v>828900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>746700</v>
+      </c>
+      <c r="K60" s="3">
         <v>549300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>550400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>557800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>615300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>541000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>459900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>511200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>512300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>112800</v>
+        <v>102700</v>
       </c>
       <c r="E62" s="3">
-        <v>86000</v>
+        <v>108200</v>
       </c>
       <c r="F62" s="3">
-        <v>88400</v>
+        <v>117100</v>
       </c>
       <c r="G62" s="3">
-        <v>111400</v>
+        <v>89200</v>
       </c>
       <c r="H62" s="3">
-        <v>38000</v>
+        <v>91700</v>
       </c>
       <c r="I62" s="3">
+        <v>115600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>33400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>34000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>35700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>30000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>30300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>23500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>19000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1062000</v>
+        <v>1394000</v>
       </c>
       <c r="E66" s="3">
-        <v>866400</v>
+        <v>1306500</v>
       </c>
       <c r="F66" s="3">
-        <v>842300</v>
+        <v>1102000</v>
       </c>
       <c r="G66" s="3">
-        <v>919700</v>
+        <v>899000</v>
       </c>
       <c r="H66" s="3">
-        <v>765000</v>
+        <v>874000</v>
       </c>
       <c r="I66" s="3">
+        <v>954400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>793800</v>
+      </c>
+      <c r="K66" s="3">
         <v>588000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>584900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>592700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>651900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>571800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>491000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>535400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>532100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,10 +3713,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2341000</v>
+        <v>2694000</v>
       </c>
       <c r="E72" s="3">
-        <v>2015400</v>
+        <v>2483600</v>
       </c>
       <c r="F72" s="3">
-        <v>1832400</v>
+        <v>2429200</v>
       </c>
       <c r="G72" s="3">
-        <v>1642200</v>
+        <v>2091300</v>
       </c>
       <c r="H72" s="3">
-        <v>1546900</v>
+        <v>1901400</v>
       </c>
       <c r="I72" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1605100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1368400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1220100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1036800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>989800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>808400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>702000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>583600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>510400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5360800</v>
+        <v>5646700</v>
       </c>
       <c r="E76" s="3">
-        <v>5079300</v>
+        <v>5439800</v>
       </c>
       <c r="F76" s="3">
-        <v>4830500</v>
+        <v>5562700</v>
       </c>
       <c r="G76" s="3">
-        <v>4697400</v>
+        <v>5270600</v>
       </c>
       <c r="H76" s="3">
-        <v>4789000</v>
+        <v>5012400</v>
       </c>
       <c r="I76" s="3">
+        <v>4874200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4969400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4631700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4215500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2968500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3181200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3060200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3040800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2931800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2871500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>325600</v>
+        <v>210300</v>
       </c>
       <c r="E81" s="3">
-        <v>183000</v>
+        <v>54400</v>
       </c>
       <c r="F81" s="3">
-        <v>190300</v>
+        <v>337900</v>
       </c>
       <c r="G81" s="3">
-        <v>95300</v>
+        <v>189900</v>
       </c>
       <c r="H81" s="3">
-        <v>178500</v>
+        <v>197400</v>
       </c>
       <c r="I81" s="3">
+        <v>98900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K81" s="3">
         <v>148300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>208700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>79900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>181400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>106400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>106400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>73200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>105700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>316400</v>
+        <v>181900</v>
       </c>
       <c r="E89" s="3">
-        <v>198400</v>
+        <v>25800</v>
       </c>
       <c r="F89" s="3">
-        <v>278900</v>
+        <v>328300</v>
       </c>
       <c r="G89" s="3">
-        <v>88600</v>
+        <v>205900</v>
       </c>
       <c r="H89" s="3">
-        <v>252300</v>
+        <v>289400</v>
       </c>
       <c r="I89" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K89" s="3">
         <v>127600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>206600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>30700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>203600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>152000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>134100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>48200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>166300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-285900</v>
+        <v>-159400</v>
       </c>
       <c r="E94" s="3">
-        <v>-562000</v>
+        <v>-103800</v>
       </c>
       <c r="F94" s="3">
-        <v>209800</v>
+        <v>-296700</v>
       </c>
       <c r="G94" s="3">
-        <v>125300</v>
+        <v>-583200</v>
       </c>
       <c r="H94" s="3">
-        <v>-466100</v>
+        <v>217700</v>
       </c>
       <c r="I94" s="3">
+        <v>130000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-483600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-321300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-790700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-229200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-107200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-167600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-168800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-771600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-158200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1800</v>
+        <v>9500</v>
       </c>
       <c r="E100" s="3">
-        <v>71600</v>
+        <v>43200</v>
       </c>
       <c r="F100" s="3">
-        <v>-348900</v>
+        <v>1900</v>
       </c>
       <c r="G100" s="3">
+        <v>74300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-362100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="K100" s="3">
         <v>193200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>926600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-115500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-59900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-104800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>36400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1358900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>4600</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>3100</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
-        <v>-6300</v>
+        <v>4800</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>14200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>32400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-12800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-16600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-17500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-18100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>40700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30500</v>
+        <v>32200</v>
       </c>
       <c r="E102" s="3">
-        <v>-287400</v>
+        <v>-32200</v>
       </c>
       <c r="F102" s="3">
-        <v>142800</v>
+        <v>31600</v>
       </c>
       <c r="G102" s="3">
-        <v>205700</v>
+        <v>-298200</v>
       </c>
       <c r="H102" s="3">
-        <v>-230700</v>
+        <v>148200</v>
       </c>
       <c r="I102" s="3">
+        <v>213400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-239400</v>
+      </c>
+      <c r="K102" s="3">
         <v>13700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>374800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-326900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>49800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-92900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-150000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-705100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1407600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>929800</v>
+        <v>1009900</v>
       </c>
       <c r="E8" s="3">
-        <v>568700</v>
+        <v>973900</v>
       </c>
       <c r="F8" s="3">
-        <v>994300</v>
+        <v>595700</v>
       </c>
       <c r="G8" s="3">
-        <v>764800</v>
+        <v>1041500</v>
       </c>
       <c r="H8" s="3">
-        <v>787700</v>
+        <v>801000</v>
       </c>
       <c r="I8" s="3">
-        <v>664300</v>
+        <v>825000</v>
       </c>
       <c r="J8" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K8" s="3">
         <v>817300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>592700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>587500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>508600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>642800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>466500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>441000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>380200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>464000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>672900</v>
+        <v>798300</v>
       </c>
       <c r="E9" s="3">
-        <v>449800</v>
+        <v>704800</v>
       </c>
       <c r="F9" s="3">
-        <v>704400</v>
+        <v>471200</v>
       </c>
       <c r="G9" s="3">
-        <v>532800</v>
+        <v>737800</v>
       </c>
       <c r="H9" s="3">
-        <v>530800</v>
+        <v>558100</v>
       </c>
       <c r="I9" s="3">
-        <v>481400</v>
+        <v>556000</v>
       </c>
       <c r="J9" s="3">
+        <v>504200</v>
+      </c>
+      <c r="K9" s="3">
         <v>592200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>407200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>383600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>441900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>297600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>274200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>274000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>295100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>256900</v>
+        <v>211600</v>
       </c>
       <c r="E10" s="3">
-        <v>118900</v>
+        <v>269100</v>
       </c>
       <c r="F10" s="3">
-        <v>289900</v>
+        <v>124500</v>
       </c>
       <c r="G10" s="3">
-        <v>231900</v>
+        <v>303600</v>
       </c>
       <c r="H10" s="3">
-        <v>256800</v>
+        <v>242900</v>
       </c>
       <c r="I10" s="3">
-        <v>182900</v>
+        <v>269000</v>
       </c>
       <c r="J10" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K10" s="3">
         <v>225100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>168900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>166800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>168900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,34 +1045,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>4500</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>690700</v>
+        <v>832100</v>
       </c>
       <c r="E17" s="3">
-        <v>514700</v>
+        <v>723500</v>
       </c>
       <c r="F17" s="3">
-        <v>739600</v>
+        <v>539100</v>
       </c>
       <c r="G17" s="3">
-        <v>561300</v>
+        <v>775100</v>
       </c>
       <c r="H17" s="3">
-        <v>570900</v>
+        <v>588000</v>
       </c>
       <c r="I17" s="3">
-        <v>553900</v>
+        <v>598000</v>
       </c>
       <c r="J17" s="3">
+        <v>580300</v>
+      </c>
+      <c r="K17" s="3">
         <v>620800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>439900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>421100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>408300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>465300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>326300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>304300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>284700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>322800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>239100</v>
+        <v>177800</v>
       </c>
       <c r="E18" s="3">
-        <v>54000</v>
+        <v>250500</v>
       </c>
       <c r="F18" s="3">
-        <v>254700</v>
+        <v>56600</v>
       </c>
       <c r="G18" s="3">
-        <v>203400</v>
+        <v>266400</v>
       </c>
       <c r="H18" s="3">
-        <v>216800</v>
+        <v>213100</v>
       </c>
       <c r="I18" s="3">
-        <v>110400</v>
+        <v>227100</v>
       </c>
       <c r="J18" s="3">
+        <v>115500</v>
+      </c>
+      <c r="K18" s="3">
         <v>196500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>166400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>177500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>140200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>136700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>141200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,122 +1312,129 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17000</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>20700</v>
+        <v>17800</v>
       </c>
       <c r="F20" s="3">
-        <v>129100</v>
+        <v>21700</v>
       </c>
       <c r="G20" s="3">
+        <v>135500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I20" s="3">
         <v>25400</v>
       </c>
-      <c r="H20" s="3">
-        <v>24200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>17400</v>
-      </c>
       <c r="J20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K20" s="3">
         <v>21500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>91900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>258700</v>
+        <v>190800</v>
       </c>
       <c r="E21" s="3">
-        <v>134000</v>
+        <v>271000</v>
       </c>
       <c r="F21" s="3">
-        <v>395100</v>
+        <v>140400</v>
       </c>
       <c r="G21" s="3">
-        <v>229500</v>
+        <v>413900</v>
       </c>
       <c r="H21" s="3">
-        <v>243200</v>
+        <v>240400</v>
       </c>
       <c r="I21" s="3">
-        <v>168800</v>
+        <v>254800</v>
       </c>
       <c r="J21" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K21" s="3">
         <v>223700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>179800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>259900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>130400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>143100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>118100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>178100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1418,134 +1458,143 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>254800</v>
+        <v>180700</v>
       </c>
       <c r="E23" s="3">
-        <v>74700</v>
+        <v>266900</v>
       </c>
       <c r="F23" s="3">
-        <v>383700</v>
+        <v>78300</v>
       </c>
       <c r="G23" s="3">
-        <v>228800</v>
+        <v>401900</v>
       </c>
       <c r="H23" s="3">
-        <v>241000</v>
+        <v>239600</v>
       </c>
       <c r="I23" s="3">
-        <v>127800</v>
+        <v>252400</v>
       </c>
       <c r="J23" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K23" s="3">
         <v>218000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>258300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>103500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>182800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>142500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>141400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>144600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43300</v>
+        <v>-4200</v>
       </c>
       <c r="E24" s="3">
-        <v>18800</v>
+        <v>45400</v>
       </c>
       <c r="F24" s="3">
-        <v>48100</v>
+        <v>19700</v>
       </c>
       <c r="G24" s="3">
-        <v>38700</v>
+        <v>50400</v>
       </c>
       <c r="H24" s="3">
-        <v>41900</v>
+        <v>40500</v>
       </c>
       <c r="I24" s="3">
-        <v>27900</v>
+        <v>43900</v>
       </c>
       <c r="J24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>211500</v>
+        <v>184900</v>
       </c>
       <c r="E26" s="3">
-        <v>55900</v>
+        <v>221500</v>
       </c>
       <c r="F26" s="3">
-        <v>335600</v>
+        <v>58500</v>
       </c>
       <c r="G26" s="3">
-        <v>190100</v>
+        <v>351500</v>
       </c>
       <c r="H26" s="3">
         <v>199100</v>
       </c>
       <c r="I26" s="3">
-        <v>99900</v>
+        <v>208500</v>
       </c>
       <c r="J26" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K26" s="3">
         <v>185700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>209100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>106800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>210300</v>
+        <v>182700</v>
       </c>
       <c r="E27" s="3">
-        <v>54400</v>
+        <v>220300</v>
       </c>
       <c r="F27" s="3">
-        <v>337900</v>
+        <v>57000</v>
       </c>
       <c r="G27" s="3">
-        <v>189900</v>
+        <v>353900</v>
       </c>
       <c r="H27" s="3">
-        <v>197400</v>
+        <v>198900</v>
       </c>
       <c r="I27" s="3">
-        <v>98900</v>
+        <v>206800</v>
       </c>
       <c r="J27" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K27" s="3">
         <v>185200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>148300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>208700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>181400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>106400</v>
       </c>
       <c r="P27" s="3">
         <v>106400</v>
       </c>
       <c r="Q27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="R27" s="3">
         <v>73200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>105700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17000</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-20700</v>
+        <v>-17800</v>
       </c>
       <c r="F32" s="3">
-        <v>-129100</v>
+        <v>-21700</v>
       </c>
       <c r="G32" s="3">
+        <v>-135500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-25400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-17400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-91900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>210300</v>
+        <v>182700</v>
       </c>
       <c r="E33" s="3">
-        <v>54400</v>
+        <v>220300</v>
       </c>
       <c r="F33" s="3">
-        <v>337900</v>
+        <v>57000</v>
       </c>
       <c r="G33" s="3">
-        <v>189900</v>
+        <v>353900</v>
       </c>
       <c r="H33" s="3">
-        <v>197400</v>
+        <v>198900</v>
       </c>
       <c r="I33" s="3">
-        <v>98900</v>
+        <v>206800</v>
       </c>
       <c r="J33" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K33" s="3">
         <v>185200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>148300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>208700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>181400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>106400</v>
       </c>
       <c r="P33" s="3">
         <v>106400</v>
       </c>
       <c r="Q33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="R33" s="3">
         <v>73200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>210300</v>
+        <v>182700</v>
       </c>
       <c r="E35" s="3">
-        <v>54400</v>
+        <v>220300</v>
       </c>
       <c r="F35" s="3">
-        <v>337900</v>
+        <v>57000</v>
       </c>
       <c r="G35" s="3">
-        <v>189900</v>
+        <v>353900</v>
       </c>
       <c r="H35" s="3">
-        <v>197400</v>
+        <v>198900</v>
       </c>
       <c r="I35" s="3">
-        <v>98900</v>
+        <v>206800</v>
       </c>
       <c r="J35" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K35" s="3">
         <v>185200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>148300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>208700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>181400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>106400</v>
       </c>
       <c r="P35" s="3">
         <v>106400</v>
       </c>
       <c r="Q35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="R35" s="3">
         <v>73200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>764200</v>
+        <v>2496100</v>
       </c>
       <c r="E41" s="3">
-        <v>729100</v>
+        <v>800400</v>
       </c>
       <c r="F41" s="3">
-        <v>765400</v>
+        <v>763700</v>
       </c>
       <c r="G41" s="3">
-        <v>734700</v>
+        <v>801700</v>
       </c>
       <c r="H41" s="3">
-        <v>1032800</v>
+        <v>769500</v>
       </c>
       <c r="I41" s="3">
-        <v>884800</v>
+        <v>1081800</v>
       </c>
       <c r="J41" s="3">
+        <v>926800</v>
+      </c>
+      <c r="K41" s="3">
         <v>671300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>877700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>848700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>486000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>805100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>768800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>848000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>920400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1641600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1225400</v>
+        <v>730900</v>
       </c>
       <c r="E42" s="3">
-        <v>1469300</v>
+        <v>1283600</v>
       </c>
       <c r="F42" s="3">
-        <v>1614000</v>
+        <v>1539000</v>
       </c>
       <c r="G42" s="3">
-        <v>1641700</v>
+        <v>1690500</v>
       </c>
       <c r="H42" s="3">
-        <v>1345000</v>
+        <v>1719600</v>
       </c>
       <c r="I42" s="3">
-        <v>1639300</v>
+        <v>1408800</v>
       </c>
       <c r="J42" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1975100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1664900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1343800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>795600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>775400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>819600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>769700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700700</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171600</v>
+        <v>261100</v>
       </c>
       <c r="E43" s="3">
-        <v>193900</v>
+        <v>179800</v>
       </c>
       <c r="F43" s="3">
-        <v>183100</v>
+        <v>203100</v>
       </c>
       <c r="G43" s="3">
-        <v>160100</v>
+        <v>191800</v>
       </c>
       <c r="H43" s="3">
-        <v>168500</v>
+        <v>167700</v>
       </c>
       <c r="I43" s="3">
-        <v>163300</v>
+        <v>176500</v>
       </c>
       <c r="J43" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K43" s="3">
         <v>162900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>209200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>31000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9300</v>
+        <v>7600</v>
       </c>
       <c r="E44" s="3">
-        <v>8200</v>
+        <v>9800</v>
       </c>
       <c r="F44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="L44" s="3">
         <v>5200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="M44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O44" s="3">
         <v>5100</v>
       </c>
-      <c r="I44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>417100</v>
+        <v>448000</v>
       </c>
       <c r="E45" s="3">
-        <v>348400</v>
+        <v>436900</v>
       </c>
       <c r="F45" s="3">
-        <v>350000</v>
+        <v>364900</v>
       </c>
       <c r="G45" s="3">
-        <v>291800</v>
+        <v>366600</v>
       </c>
       <c r="H45" s="3">
-        <v>356400</v>
+        <v>305600</v>
       </c>
       <c r="I45" s="3">
-        <v>252700</v>
+        <v>373300</v>
       </c>
       <c r="J45" s="3">
+        <v>264700</v>
+      </c>
+      <c r="K45" s="3">
         <v>268100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>213400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>191900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>168000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>172000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>168000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>226600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>241600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2587600</v>
+        <v>3943600</v>
       </c>
       <c r="E46" s="3">
-        <v>2748800</v>
+        <v>2710400</v>
       </c>
       <c r="F46" s="3">
-        <v>2918900</v>
+        <v>2879200</v>
       </c>
       <c r="G46" s="3">
-        <v>2833400</v>
+        <v>3057300</v>
       </c>
       <c r="H46" s="3">
-        <v>2907800</v>
+        <v>2967900</v>
       </c>
       <c r="I46" s="3">
-        <v>2944500</v>
+        <v>3045800</v>
       </c>
       <c r="J46" s="3">
+        <v>3084200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3083800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2881400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2599300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1523100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1837000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1795600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1818900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1877500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1917600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>864200</v>
+        <v>927900</v>
       </c>
       <c r="E47" s="3">
-        <v>710200</v>
+        <v>905200</v>
       </c>
       <c r="F47" s="3">
-        <v>668800</v>
+        <v>743900</v>
       </c>
       <c r="G47" s="3">
-        <v>323600</v>
+        <v>700600</v>
       </c>
       <c r="H47" s="3">
-        <v>319600</v>
+        <v>339000</v>
       </c>
       <c r="I47" s="3">
-        <v>317500</v>
+        <v>334700</v>
       </c>
       <c r="J47" s="3">
+        <v>332500</v>
+      </c>
+      <c r="K47" s="3">
         <v>320600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>239300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>215800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>78200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>76400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>78100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2241700</v>
+        <v>2634900</v>
       </c>
       <c r="E48" s="3">
-        <v>2059500</v>
+        <v>2348100</v>
       </c>
       <c r="F48" s="3">
-        <v>1942100</v>
+        <v>2157200</v>
       </c>
       <c r="G48" s="3">
-        <v>1689500</v>
+        <v>2034200</v>
       </c>
       <c r="H48" s="3">
-        <v>1500000</v>
+        <v>1769600</v>
       </c>
       <c r="I48" s="3">
-        <v>1462900</v>
+        <v>1571100</v>
       </c>
       <c r="J48" s="3">
+        <v>1532300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1312300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1117100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1015500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>983700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>960700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>866600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>765200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>668800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>591300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1178600</v>
+        <v>1276300</v>
       </c>
       <c r="E49" s="3">
-        <v>1062500</v>
+        <v>1234500</v>
       </c>
       <c r="F49" s="3">
-        <v>987300</v>
+        <v>1112900</v>
       </c>
       <c r="G49" s="3">
-        <v>958600</v>
+        <v>1034200</v>
       </c>
       <c r="H49" s="3">
-        <v>938500</v>
+        <v>1004100</v>
       </c>
       <c r="I49" s="3">
-        <v>939000</v>
+        <v>983000</v>
       </c>
       <c r="J49" s="3">
+        <v>983500</v>
+      </c>
+      <c r="K49" s="3">
         <v>909900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>873300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>861700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>880200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>876300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>841400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>835000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>815900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>794000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168400</v>
+        <v>177600</v>
       </c>
       <c r="E52" s="3">
-        <v>165300</v>
+        <v>176400</v>
       </c>
       <c r="F52" s="3">
-        <v>147500</v>
+        <v>173100</v>
       </c>
       <c r="G52" s="3">
-        <v>364500</v>
+        <v>154500</v>
       </c>
       <c r="H52" s="3">
-        <v>220600</v>
+        <v>381800</v>
       </c>
       <c r="I52" s="3">
-        <v>164800</v>
+        <v>231100</v>
       </c>
       <c r="J52" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K52" s="3">
         <v>136600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>45800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7040700</v>
+        <v>8960300</v>
       </c>
       <c r="E54" s="3">
-        <v>6746300</v>
+        <v>7374700</v>
       </c>
       <c r="F54" s="3">
-        <v>6664700</v>
+        <v>7066400</v>
       </c>
       <c r="G54" s="3">
-        <v>6169600</v>
+        <v>6980900</v>
       </c>
       <c r="H54" s="3">
-        <v>5886400</v>
+        <v>6462300</v>
       </c>
       <c r="I54" s="3">
-        <v>5828600</v>
+        <v>6165700</v>
       </c>
       <c r="J54" s="3">
+        <v>6105100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5763100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5219700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3561300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3833100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3632000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3531800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3467300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3403600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,72 +3141,76 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160600</v>
+        <v>223400</v>
       </c>
       <c r="E57" s="3">
-        <v>170900</v>
+        <v>168200</v>
       </c>
       <c r="F57" s="3">
-        <v>214300</v>
+        <v>179000</v>
       </c>
       <c r="G57" s="3">
-        <v>155700</v>
+        <v>224400</v>
       </c>
       <c r="H57" s="3">
-        <v>172100</v>
+        <v>163100</v>
       </c>
       <c r="I57" s="3">
-        <v>149900</v>
+        <v>180300</v>
       </c>
       <c r="J57" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K57" s="3">
         <v>190500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>130700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>133200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>132000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>73000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>98200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>92600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>317500</v>
+        <v>426700</v>
       </c>
       <c r="E58" s="3">
-        <v>43600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>332600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3087,8 +3221,8 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3100,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>37100</v>
@@ -3109,122 +3243,131 @@
         <v>37100</v>
       </c>
       <c r="Q58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="R58" s="3">
         <v>101800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>65400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>796700</v>
+        <v>849400</v>
       </c>
       <c r="E59" s="3">
-        <v>969000</v>
+        <v>834500</v>
       </c>
       <c r="F59" s="3">
-        <v>756000</v>
+        <v>1015000</v>
       </c>
       <c r="G59" s="3">
-        <v>640000</v>
+        <v>791900</v>
       </c>
       <c r="H59" s="3">
-        <v>599000</v>
+        <v>670400</v>
       </c>
       <c r="I59" s="3">
-        <v>679000</v>
+        <v>627400</v>
       </c>
       <c r="J59" s="3">
+        <v>711200</v>
+      </c>
+      <c r="K59" s="3">
         <v>556200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>432100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>419700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>424600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>446300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>419000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>349800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>311200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>354300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1274800</v>
+        <v>1499500</v>
       </c>
       <c r="E60" s="3">
-        <v>1183500</v>
+        <v>1335300</v>
       </c>
       <c r="F60" s="3">
-        <v>970300</v>
+        <v>1239600</v>
       </c>
       <c r="G60" s="3">
-        <v>795700</v>
+        <v>1016300</v>
       </c>
       <c r="H60" s="3">
-        <v>771100</v>
+        <v>833400</v>
       </c>
       <c r="I60" s="3">
-        <v>828900</v>
+        <v>807700</v>
       </c>
       <c r="J60" s="3">
+        <v>868200</v>
+      </c>
+      <c r="K60" s="3">
         <v>746700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>549300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>550400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>557800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>615300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>541000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>459900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>511200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>512300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>102700</v>
+        <v>102500</v>
       </c>
       <c r="E62" s="3">
-        <v>108200</v>
+        <v>107600</v>
       </c>
       <c r="F62" s="3">
-        <v>117100</v>
+        <v>113300</v>
       </c>
       <c r="G62" s="3">
-        <v>89200</v>
+        <v>122600</v>
       </c>
       <c r="H62" s="3">
-        <v>91700</v>
+        <v>93500</v>
       </c>
       <c r="I62" s="3">
-        <v>115600</v>
+        <v>96100</v>
       </c>
       <c r="J62" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K62" s="3">
         <v>39500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1394000</v>
+        <v>1619000</v>
       </c>
       <c r="E66" s="3">
-        <v>1306500</v>
+        <v>1460100</v>
       </c>
       <c r="F66" s="3">
-        <v>1102000</v>
+        <v>1368500</v>
       </c>
       <c r="G66" s="3">
-        <v>899000</v>
+        <v>1154300</v>
       </c>
       <c r="H66" s="3">
-        <v>874000</v>
+        <v>941700</v>
       </c>
       <c r="I66" s="3">
-        <v>954400</v>
+        <v>915500</v>
       </c>
       <c r="J66" s="3">
+        <v>999600</v>
+      </c>
+      <c r="K66" s="3">
         <v>793800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>588000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>584900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>592700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>651900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>571800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>491000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>535400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>532100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,10 +3887,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2694000</v>
+        <v>3004500</v>
       </c>
       <c r="E72" s="3">
-        <v>2483600</v>
+        <v>2821800</v>
       </c>
       <c r="F72" s="3">
-        <v>2429200</v>
+        <v>2601400</v>
       </c>
       <c r="G72" s="3">
-        <v>2091300</v>
+        <v>2544400</v>
       </c>
       <c r="H72" s="3">
-        <v>1901400</v>
+        <v>2190500</v>
       </c>
       <c r="I72" s="3">
-        <v>1704000</v>
+        <v>1991600</v>
       </c>
       <c r="J72" s="3">
+        <v>1784800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1605100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1368400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1220100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1036800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>989800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>808400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>702000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>583600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>510400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5646700</v>
+        <v>7341300</v>
       </c>
       <c r="E76" s="3">
-        <v>5439800</v>
+        <v>5914600</v>
       </c>
       <c r="F76" s="3">
-        <v>5562700</v>
+        <v>5697900</v>
       </c>
       <c r="G76" s="3">
-        <v>5270600</v>
+        <v>5826600</v>
       </c>
       <c r="H76" s="3">
-        <v>5012400</v>
+        <v>5520600</v>
       </c>
       <c r="I76" s="3">
-        <v>4874200</v>
+        <v>5250200</v>
       </c>
       <c r="J76" s="3">
+        <v>5105500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4969400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4631700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4215500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2968500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3181200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3060200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3040800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2931800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2871500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>210300</v>
+        <v>182700</v>
       </c>
       <c r="E81" s="3">
-        <v>54400</v>
+        <v>220300</v>
       </c>
       <c r="F81" s="3">
-        <v>337900</v>
+        <v>57000</v>
       </c>
       <c r="G81" s="3">
-        <v>189900</v>
+        <v>353900</v>
       </c>
       <c r="H81" s="3">
-        <v>197400</v>
+        <v>198900</v>
       </c>
       <c r="I81" s="3">
-        <v>98900</v>
+        <v>206800</v>
       </c>
       <c r="J81" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K81" s="3">
         <v>185200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>148300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>208700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>181400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>106400</v>
       </c>
       <c r="P81" s="3">
         <v>106400</v>
       </c>
       <c r="Q81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="R81" s="3">
         <v>73200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>181900</v>
+        <v>225200</v>
       </c>
       <c r="E89" s="3">
-        <v>25800</v>
+        <v>190500</v>
       </c>
       <c r="F89" s="3">
-        <v>328300</v>
+        <v>27000</v>
       </c>
       <c r="G89" s="3">
-        <v>205900</v>
+        <v>343900</v>
       </c>
       <c r="H89" s="3">
-        <v>289400</v>
+        <v>215700</v>
       </c>
       <c r="I89" s="3">
-        <v>92000</v>
+        <v>303100</v>
       </c>
       <c r="J89" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K89" s="3">
         <v>261800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>127600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>203600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>152000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>134100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>166300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159400</v>
+        <v>179500</v>
       </c>
       <c r="E94" s="3">
-        <v>-103800</v>
+        <v>-167000</v>
       </c>
       <c r="F94" s="3">
-        <v>-296700</v>
+        <v>-108700</v>
       </c>
       <c r="G94" s="3">
-        <v>-583200</v>
+        <v>-310800</v>
       </c>
       <c r="H94" s="3">
-        <v>217700</v>
+        <v>-610800</v>
       </c>
       <c r="I94" s="3">
-        <v>130000</v>
+        <v>228000</v>
       </c>
       <c r="J94" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-483600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-321300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-790700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-229200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-167600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-168800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-771600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-158200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9500</v>
+        <v>1308600</v>
       </c>
       <c r="E100" s="3">
-        <v>43200</v>
+        <v>9900</v>
       </c>
       <c r="F100" s="3">
-        <v>1900</v>
+        <v>45300</v>
       </c>
       <c r="G100" s="3">
-        <v>74300</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="3">
-        <v>-362100</v>
+        <v>77800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2000</v>
+        <v>-379200</v>
       </c>
       <c r="J100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>193200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>926600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-115500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1358900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>2500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
-        <v>4800</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6600</v>
+        <v>3300</v>
       </c>
       <c r="J101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>40700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32200</v>
+        <v>1696700</v>
       </c>
       <c r="E102" s="3">
-        <v>-32200</v>
+        <v>33700</v>
       </c>
       <c r="F102" s="3">
-        <v>31600</v>
+        <v>-33800</v>
       </c>
       <c r="G102" s="3">
-        <v>-298200</v>
+        <v>33100</v>
       </c>
       <c r="H102" s="3">
-        <v>148200</v>
+        <v>-312300</v>
       </c>
       <c r="I102" s="3">
-        <v>213400</v>
+        <v>155200</v>
       </c>
       <c r="J102" s="3">
+        <v>223500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-239400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>374800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-326900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-92900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-705100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1407600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1009900</v>
+        <v>1261500</v>
       </c>
       <c r="E8" s="3">
-        <v>973900</v>
+        <v>1014300</v>
       </c>
       <c r="F8" s="3">
-        <v>595700</v>
+        <v>978200</v>
       </c>
       <c r="G8" s="3">
-        <v>1041500</v>
+        <v>598300</v>
       </c>
       <c r="H8" s="3">
-        <v>801000</v>
+        <v>1046000</v>
       </c>
       <c r="I8" s="3">
-        <v>825000</v>
+        <v>804500</v>
       </c>
       <c r="J8" s="3">
+        <v>828600</v>
+      </c>
+      <c r="K8" s="3">
         <v>695800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>817300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>592700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>587500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>508600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>642800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>466500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>441000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>380200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>464000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>798300</v>
+        <v>977600</v>
       </c>
       <c r="E9" s="3">
-        <v>704800</v>
+        <v>801800</v>
       </c>
       <c r="F9" s="3">
-        <v>471200</v>
+        <v>707900</v>
       </c>
       <c r="G9" s="3">
-        <v>737800</v>
+        <v>473200</v>
       </c>
       <c r="H9" s="3">
-        <v>558100</v>
+        <v>741100</v>
       </c>
       <c r="I9" s="3">
-        <v>556000</v>
+        <v>560500</v>
       </c>
       <c r="J9" s="3">
+        <v>558400</v>
+      </c>
+      <c r="K9" s="3">
         <v>504200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>592200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>407200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>383600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>441900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>297600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>274200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>274000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>295100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>211600</v>
+        <v>283900</v>
       </c>
       <c r="E10" s="3">
-        <v>269100</v>
+        <v>212500</v>
       </c>
       <c r="F10" s="3">
-        <v>124500</v>
+        <v>270300</v>
       </c>
       <c r="G10" s="3">
-        <v>303600</v>
+        <v>125100</v>
       </c>
       <c r="H10" s="3">
-        <v>242900</v>
+        <v>305000</v>
       </c>
       <c r="I10" s="3">
-        <v>269000</v>
+        <v>244000</v>
       </c>
       <c r="J10" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K10" s="3">
         <v>191600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>225100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>168900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>166800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>168900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1064,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1063,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,11 +1105,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>4500</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>832100</v>
+        <v>1022000</v>
       </c>
       <c r="E17" s="3">
-        <v>723500</v>
+        <v>835700</v>
       </c>
       <c r="F17" s="3">
-        <v>539100</v>
+        <v>726600</v>
       </c>
       <c r="G17" s="3">
-        <v>775100</v>
+        <v>541400</v>
       </c>
       <c r="H17" s="3">
-        <v>588000</v>
+        <v>778400</v>
       </c>
       <c r="I17" s="3">
-        <v>598000</v>
+        <v>590500</v>
       </c>
       <c r="J17" s="3">
+        <v>600600</v>
+      </c>
+      <c r="K17" s="3">
         <v>580300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>620800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>439900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>421100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>408300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>465300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>326300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>304300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>284700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>322800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>177800</v>
+        <v>239500</v>
       </c>
       <c r="E18" s="3">
-        <v>250500</v>
+        <v>178600</v>
       </c>
       <c r="F18" s="3">
-        <v>56600</v>
+        <v>251600</v>
       </c>
       <c r="G18" s="3">
-        <v>266400</v>
+        <v>56800</v>
       </c>
       <c r="H18" s="3">
-        <v>213100</v>
+        <v>267600</v>
       </c>
       <c r="I18" s="3">
-        <v>227100</v>
+        <v>214000</v>
       </c>
       <c r="J18" s="3">
+        <v>228100</v>
+      </c>
+      <c r="K18" s="3">
         <v>115500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>166400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>177500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>140200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>136700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>141200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,132 +1345,139 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
-        <v>17800</v>
-      </c>
       <c r="F20" s="3">
-        <v>21700</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
-        <v>135500</v>
+        <v>21800</v>
       </c>
       <c r="H20" s="3">
-        <v>26600</v>
+        <v>136100</v>
       </c>
       <c r="I20" s="3">
-        <v>25400</v>
+        <v>26700</v>
       </c>
       <c r="J20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K20" s="3">
         <v>18300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>91900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>190800</v>
+        <v>250300</v>
       </c>
       <c r="E21" s="3">
-        <v>271000</v>
+        <v>191700</v>
       </c>
       <c r="F21" s="3">
-        <v>140400</v>
+        <v>272100</v>
       </c>
       <c r="G21" s="3">
-        <v>413900</v>
+        <v>141000</v>
       </c>
       <c r="H21" s="3">
-        <v>240400</v>
+        <v>415700</v>
       </c>
       <c r="I21" s="3">
-        <v>254800</v>
+        <v>241400</v>
       </c>
       <c r="J21" s="3">
+        <v>255900</v>
+      </c>
+      <c r="K21" s="3">
         <v>176900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>223700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>179800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>259900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>143100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>178100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1461,140 +1500,149 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180700</v>
+        <v>241100</v>
       </c>
       <c r="E23" s="3">
-        <v>266900</v>
+        <v>181500</v>
       </c>
       <c r="F23" s="3">
-        <v>78300</v>
+        <v>268000</v>
       </c>
       <c r="G23" s="3">
-        <v>401900</v>
+        <v>78600</v>
       </c>
       <c r="H23" s="3">
-        <v>239600</v>
+        <v>403700</v>
       </c>
       <c r="I23" s="3">
-        <v>252400</v>
+        <v>240700</v>
       </c>
       <c r="J23" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K23" s="3">
         <v>133900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>218000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>177600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>258300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>182800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>141400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>144600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4200</v>
+        <v>44200</v>
       </c>
       <c r="E24" s="3">
-        <v>45400</v>
+        <v>-4300</v>
       </c>
       <c r="F24" s="3">
-        <v>19700</v>
+        <v>45600</v>
       </c>
       <c r="G24" s="3">
-        <v>50400</v>
+        <v>19800</v>
       </c>
       <c r="H24" s="3">
-        <v>40500</v>
+        <v>50600</v>
       </c>
       <c r="I24" s="3">
-        <v>43900</v>
+        <v>40700</v>
       </c>
       <c r="J24" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K24" s="3">
         <v>29200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>184900</v>
+        <v>196900</v>
       </c>
       <c r="E26" s="3">
-        <v>221500</v>
+        <v>185700</v>
       </c>
       <c r="F26" s="3">
-        <v>58500</v>
+        <v>222500</v>
       </c>
       <c r="G26" s="3">
-        <v>351500</v>
+        <v>58800</v>
       </c>
       <c r="H26" s="3">
-        <v>199100</v>
+        <v>353100</v>
       </c>
       <c r="I26" s="3">
-        <v>208500</v>
+        <v>200000</v>
       </c>
       <c r="J26" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K26" s="3">
         <v>104700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>209100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>106800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>108000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="E27" s="3">
-        <v>220300</v>
+        <v>183500</v>
       </c>
       <c r="F27" s="3">
-        <v>57000</v>
+        <v>221300</v>
       </c>
       <c r="G27" s="3">
-        <v>353900</v>
+        <v>57200</v>
       </c>
       <c r="H27" s="3">
-        <v>198900</v>
+        <v>355400</v>
       </c>
       <c r="I27" s="3">
-        <v>206800</v>
+        <v>199800</v>
       </c>
       <c r="J27" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K27" s="3">
         <v>103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>148300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>181400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>106400</v>
       </c>
       <c r="Q27" s="3">
         <v>106400</v>
       </c>
       <c r="R27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="S27" s="3">
         <v>73200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>105700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-17800</v>
-      </c>
       <c r="F32" s="3">
-        <v>-21700</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
-        <v>-135500</v>
+        <v>-21800</v>
       </c>
       <c r="H32" s="3">
-        <v>-26600</v>
+        <v>-136100</v>
       </c>
       <c r="I32" s="3">
-        <v>-25400</v>
+        <v>-26700</v>
       </c>
       <c r="J32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-91900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="E33" s="3">
-        <v>220300</v>
+        <v>183500</v>
       </c>
       <c r="F33" s="3">
-        <v>57000</v>
+        <v>221300</v>
       </c>
       <c r="G33" s="3">
-        <v>353900</v>
+        <v>57200</v>
       </c>
       <c r="H33" s="3">
-        <v>198900</v>
+        <v>355400</v>
       </c>
       <c r="I33" s="3">
-        <v>206800</v>
+        <v>199800</v>
       </c>
       <c r="J33" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K33" s="3">
         <v>103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>148300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>208700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>181400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>106400</v>
       </c>
       <c r="Q33" s="3">
         <v>106400</v>
       </c>
       <c r="R33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="S33" s="3">
         <v>73200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>105700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="E35" s="3">
-        <v>220300</v>
+        <v>183500</v>
       </c>
       <c r="F35" s="3">
-        <v>57000</v>
+        <v>221300</v>
       </c>
       <c r="G35" s="3">
-        <v>353900</v>
+        <v>57200</v>
       </c>
       <c r="H35" s="3">
-        <v>198900</v>
+        <v>355400</v>
       </c>
       <c r="I35" s="3">
-        <v>206800</v>
+        <v>199800</v>
       </c>
       <c r="J35" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K35" s="3">
         <v>103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>148300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>208700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>181400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>106400</v>
       </c>
       <c r="Q35" s="3">
         <v>106400</v>
       </c>
       <c r="R35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="S35" s="3">
         <v>73200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>105700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2496100</v>
+        <v>2171400</v>
       </c>
       <c r="E41" s="3">
-        <v>800400</v>
+        <v>2507000</v>
       </c>
       <c r="F41" s="3">
-        <v>763700</v>
+        <v>803900</v>
       </c>
       <c r="G41" s="3">
-        <v>801700</v>
+        <v>767000</v>
       </c>
       <c r="H41" s="3">
-        <v>769500</v>
+        <v>805200</v>
       </c>
       <c r="I41" s="3">
-        <v>1081800</v>
+        <v>772900</v>
       </c>
       <c r="J41" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K41" s="3">
         <v>926800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>671300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>877700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>848700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>486000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>805100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>768800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>848000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>920400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1641600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>730900</v>
+        <v>563800</v>
       </c>
       <c r="E42" s="3">
-        <v>1283600</v>
+        <v>734000</v>
       </c>
       <c r="F42" s="3">
-        <v>1539000</v>
+        <v>1289100</v>
       </c>
       <c r="G42" s="3">
-        <v>1690500</v>
+        <v>1545700</v>
       </c>
       <c r="H42" s="3">
-        <v>1719600</v>
+        <v>1697900</v>
       </c>
       <c r="I42" s="3">
-        <v>1408800</v>
+        <v>1727000</v>
       </c>
       <c r="J42" s="3">
+        <v>1414900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1717000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1975100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1664900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1343800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>795600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>775400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>819600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>769700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>700700</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>261100</v>
+        <v>200400</v>
       </c>
       <c r="E43" s="3">
-        <v>179800</v>
+        <v>262200</v>
       </c>
       <c r="F43" s="3">
-        <v>203100</v>
+        <v>180600</v>
       </c>
       <c r="G43" s="3">
-        <v>191800</v>
+        <v>204000</v>
       </c>
       <c r="H43" s="3">
-        <v>167700</v>
+        <v>192700</v>
       </c>
       <c r="I43" s="3">
-        <v>176500</v>
+        <v>168400</v>
       </c>
       <c r="J43" s="3">
+        <v>177300</v>
+      </c>
+      <c r="K43" s="3">
         <v>171100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>162900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>120200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>209200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>69200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E44" s="3">
         <v>7600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9800</v>
       </c>
-      <c r="F44" s="3">
-        <v>8500</v>
-      </c>
       <c r="G44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H44" s="3">
         <v>6700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>448000</v>
+        <v>467000</v>
       </c>
       <c r="E45" s="3">
-        <v>436900</v>
+        <v>449900</v>
       </c>
       <c r="F45" s="3">
-        <v>364900</v>
+        <v>438700</v>
       </c>
       <c r="G45" s="3">
-        <v>366600</v>
+        <v>366500</v>
       </c>
       <c r="H45" s="3">
-        <v>305600</v>
+        <v>368200</v>
       </c>
       <c r="I45" s="3">
-        <v>373300</v>
+        <v>306900</v>
       </c>
       <c r="J45" s="3">
+        <v>374900</v>
+      </c>
+      <c r="K45" s="3">
         <v>264700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>268100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>213400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>191900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>168000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>172000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>168000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>226600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>241600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3943600</v>
+        <v>3410800</v>
       </c>
       <c r="E46" s="3">
-        <v>2710400</v>
+        <v>3960700</v>
       </c>
       <c r="F46" s="3">
-        <v>2879200</v>
+        <v>2722200</v>
       </c>
       <c r="G46" s="3">
-        <v>3057300</v>
+        <v>2891700</v>
       </c>
       <c r="H46" s="3">
-        <v>2967900</v>
+        <v>3070600</v>
       </c>
       <c r="I46" s="3">
-        <v>3045800</v>
+        <v>2980700</v>
       </c>
       <c r="J46" s="3">
+        <v>3059000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3084200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3083800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2881400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2599300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1523100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1837000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1795600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1818900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1877500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1917600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>927900</v>
+        <v>1151500</v>
       </c>
       <c r="E47" s="3">
-        <v>905200</v>
+        <v>931900</v>
       </c>
       <c r="F47" s="3">
-        <v>743900</v>
+        <v>909200</v>
       </c>
       <c r="G47" s="3">
-        <v>700600</v>
+        <v>747100</v>
       </c>
       <c r="H47" s="3">
-        <v>339000</v>
+        <v>703600</v>
       </c>
       <c r="I47" s="3">
-        <v>334700</v>
+        <v>340400</v>
       </c>
       <c r="J47" s="3">
+        <v>336200</v>
+      </c>
+      <c r="K47" s="3">
         <v>332500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>320600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>239300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>215800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>78200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>76400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>78100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2634900</v>
+        <v>2970300</v>
       </c>
       <c r="E48" s="3">
-        <v>2348100</v>
+        <v>2646400</v>
       </c>
       <c r="F48" s="3">
-        <v>2157200</v>
+        <v>2358300</v>
       </c>
       <c r="G48" s="3">
-        <v>2034200</v>
+        <v>2166600</v>
       </c>
       <c r="H48" s="3">
-        <v>1769600</v>
+        <v>2043100</v>
       </c>
       <c r="I48" s="3">
-        <v>1571100</v>
+        <v>1777300</v>
       </c>
       <c r="J48" s="3">
+        <v>1577900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1532300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1312300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1117100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1015500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>983700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>960700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>866600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>765200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>668800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>591300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1276300</v>
+        <v>1320600</v>
       </c>
       <c r="E49" s="3">
-        <v>1234500</v>
+        <v>1281800</v>
       </c>
       <c r="F49" s="3">
-        <v>1112900</v>
+        <v>1239900</v>
       </c>
       <c r="G49" s="3">
-        <v>1034200</v>
+        <v>1117800</v>
       </c>
       <c r="H49" s="3">
-        <v>1004100</v>
+        <v>1038700</v>
       </c>
       <c r="I49" s="3">
-        <v>983000</v>
+        <v>1008500</v>
       </c>
       <c r="J49" s="3">
+        <v>987300</v>
+      </c>
+      <c r="K49" s="3">
         <v>983500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>909900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>873300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>861700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>880200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>876300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>841400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>835000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>815900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>794000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>177600</v>
+        <v>192200</v>
       </c>
       <c r="E52" s="3">
-        <v>176400</v>
+        <v>178300</v>
       </c>
       <c r="F52" s="3">
-        <v>173100</v>
+        <v>177200</v>
       </c>
       <c r="G52" s="3">
-        <v>154500</v>
+        <v>173800</v>
       </c>
       <c r="H52" s="3">
-        <v>381800</v>
+        <v>155200</v>
       </c>
       <c r="I52" s="3">
-        <v>231100</v>
+        <v>383400</v>
       </c>
       <c r="J52" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K52" s="3">
         <v>172600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>45800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8960300</v>
+        <v>9045300</v>
       </c>
       <c r="E54" s="3">
-        <v>7374700</v>
+        <v>8999200</v>
       </c>
       <c r="F54" s="3">
-        <v>7066400</v>
+        <v>7406700</v>
       </c>
       <c r="G54" s="3">
-        <v>6980900</v>
+        <v>7097000</v>
       </c>
       <c r="H54" s="3">
-        <v>6462300</v>
+        <v>7011200</v>
       </c>
       <c r="I54" s="3">
-        <v>6165700</v>
+        <v>6490300</v>
       </c>
       <c r="J54" s="3">
+        <v>6192400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6105100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5763100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5219700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3561300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3833100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3632000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3531800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3467300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3403600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,81 +3271,85 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>223400</v>
+        <v>249900</v>
       </c>
       <c r="E57" s="3">
-        <v>168200</v>
+        <v>224400</v>
       </c>
       <c r="F57" s="3">
-        <v>179000</v>
+        <v>168900</v>
       </c>
       <c r="G57" s="3">
-        <v>224400</v>
+        <v>179800</v>
       </c>
       <c r="H57" s="3">
-        <v>163100</v>
+        <v>225400</v>
       </c>
       <c r="I57" s="3">
-        <v>180300</v>
+        <v>163800</v>
       </c>
       <c r="J57" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K57" s="3">
         <v>157100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>190500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>130700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>133200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>132000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>73000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>98200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>92600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>426700</v>
+        <v>268800</v>
       </c>
       <c r="E58" s="3">
-        <v>332600</v>
+        <v>428500</v>
       </c>
       <c r="F58" s="3">
-        <v>45600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>334000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3224,8 +3357,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3237,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>37100</v>
@@ -3246,128 +3379,137 @@
         <v>37100</v>
       </c>
       <c r="R58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="S58" s="3">
         <v>101800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>65400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>849400</v>
+        <v>909400</v>
       </c>
       <c r="E59" s="3">
-        <v>834500</v>
+        <v>853100</v>
       </c>
       <c r="F59" s="3">
-        <v>1015000</v>
+        <v>838100</v>
       </c>
       <c r="G59" s="3">
-        <v>791900</v>
+        <v>1019400</v>
       </c>
       <c r="H59" s="3">
-        <v>670400</v>
+        <v>795300</v>
       </c>
       <c r="I59" s="3">
-        <v>627400</v>
+        <v>673300</v>
       </c>
       <c r="J59" s="3">
+        <v>630100</v>
+      </c>
+      <c r="K59" s="3">
         <v>711200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>556200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>432100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>419700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>424600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>446300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>419000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>349800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>311200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>354300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1499500</v>
+        <v>1428100</v>
       </c>
       <c r="E60" s="3">
-        <v>1335300</v>
+        <v>1506000</v>
       </c>
       <c r="F60" s="3">
-        <v>1239600</v>
+        <v>1341100</v>
       </c>
       <c r="G60" s="3">
-        <v>1016300</v>
+        <v>1245000</v>
       </c>
       <c r="H60" s="3">
-        <v>833400</v>
+        <v>1020700</v>
       </c>
       <c r="I60" s="3">
-        <v>807700</v>
+        <v>837000</v>
       </c>
       <c r="J60" s="3">
+        <v>811200</v>
+      </c>
+      <c r="K60" s="3">
         <v>868200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>746700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>549300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>550400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>557800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>615300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>541000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>459900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>511200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>512300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3564,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>102500</v>
+        <v>115700</v>
       </c>
       <c r="E62" s="3">
-        <v>107600</v>
+        <v>103000</v>
       </c>
       <c r="F62" s="3">
-        <v>113300</v>
+        <v>108100</v>
       </c>
       <c r="G62" s="3">
-        <v>122600</v>
+        <v>113800</v>
       </c>
       <c r="H62" s="3">
-        <v>93500</v>
+        <v>123200</v>
       </c>
       <c r="I62" s="3">
-        <v>96100</v>
+        <v>93900</v>
       </c>
       <c r="J62" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K62" s="3">
         <v>121000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1619000</v>
+        <v>1562300</v>
       </c>
       <c r="E66" s="3">
-        <v>1460100</v>
+        <v>1626000</v>
       </c>
       <c r="F66" s="3">
-        <v>1368500</v>
+        <v>1466500</v>
       </c>
       <c r="G66" s="3">
-        <v>1154300</v>
+        <v>1374500</v>
       </c>
       <c r="H66" s="3">
-        <v>941700</v>
+        <v>1159300</v>
       </c>
       <c r="I66" s="3">
-        <v>915500</v>
+        <v>945800</v>
       </c>
       <c r="J66" s="3">
+        <v>919500</v>
+      </c>
+      <c r="K66" s="3">
         <v>999600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>793800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>588000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>584900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>592700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>651900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>571800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>491000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>535400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>532100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,10 +4057,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3004500</v>
+        <v>3214300</v>
       </c>
       <c r="E72" s="3">
-        <v>2821800</v>
+        <v>3017500</v>
       </c>
       <c r="F72" s="3">
-        <v>2601400</v>
+        <v>2834000</v>
       </c>
       <c r="G72" s="3">
-        <v>2544400</v>
+        <v>2612700</v>
       </c>
       <c r="H72" s="3">
-        <v>2190500</v>
+        <v>2555500</v>
       </c>
       <c r="I72" s="3">
-        <v>1991600</v>
+        <v>2200000</v>
       </c>
       <c r="J72" s="3">
+        <v>2000300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1784800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1605100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1368400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1220100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1036800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>989800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>808400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>702000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>583600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>510400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7341300</v>
+        <v>7483000</v>
       </c>
       <c r="E76" s="3">
-        <v>5914600</v>
+        <v>7373200</v>
       </c>
       <c r="F76" s="3">
-        <v>5697900</v>
+        <v>5940300</v>
       </c>
       <c r="G76" s="3">
-        <v>5826600</v>
+        <v>5722600</v>
       </c>
       <c r="H76" s="3">
-        <v>5520600</v>
+        <v>5851900</v>
       </c>
       <c r="I76" s="3">
-        <v>5250200</v>
+        <v>5544600</v>
       </c>
       <c r="J76" s="3">
+        <v>5272900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5105500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4969400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4631700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4215500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2968500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3181200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3060200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3040800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2931800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2871500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="E81" s="3">
-        <v>220300</v>
+        <v>183500</v>
       </c>
       <c r="F81" s="3">
-        <v>57000</v>
+        <v>221300</v>
       </c>
       <c r="G81" s="3">
-        <v>353900</v>
+        <v>57200</v>
       </c>
       <c r="H81" s="3">
-        <v>198900</v>
+        <v>355400</v>
       </c>
       <c r="I81" s="3">
-        <v>206800</v>
+        <v>199800</v>
       </c>
       <c r="J81" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K81" s="3">
         <v>103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>148300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>208700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>181400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>106400</v>
       </c>
       <c r="Q81" s="3">
         <v>106400</v>
       </c>
       <c r="R81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="S81" s="3">
         <v>73200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>105700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>225200</v>
+        <v>311700</v>
       </c>
       <c r="E89" s="3">
-        <v>190500</v>
+        <v>226200</v>
       </c>
       <c r="F89" s="3">
-        <v>27000</v>
+        <v>191300</v>
       </c>
       <c r="G89" s="3">
-        <v>343900</v>
+        <v>27200</v>
       </c>
       <c r="H89" s="3">
-        <v>215700</v>
+        <v>345300</v>
       </c>
       <c r="I89" s="3">
-        <v>303100</v>
+        <v>216600</v>
       </c>
       <c r="J89" s="3">
+        <v>304500</v>
+      </c>
+      <c r="K89" s="3">
         <v>96300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>261800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>203600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>152000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>134100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>166300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>179500</v>
+        <v>-445600</v>
       </c>
       <c r="E94" s="3">
-        <v>-167000</v>
+        <v>180300</v>
       </c>
       <c r="F94" s="3">
-        <v>-108700</v>
+        <v>-167700</v>
       </c>
       <c r="G94" s="3">
-        <v>-310800</v>
+        <v>-109200</v>
       </c>
       <c r="H94" s="3">
-        <v>-610800</v>
+        <v>-312100</v>
       </c>
       <c r="I94" s="3">
-        <v>228000</v>
+        <v>-613500</v>
       </c>
       <c r="J94" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K94" s="3">
         <v>136200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-483600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-321300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-790700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-229200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-168800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-771600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-158200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1308600</v>
+        <v>-96000</v>
       </c>
       <c r="E100" s="3">
-        <v>9900</v>
+        <v>1314300</v>
       </c>
       <c r="F100" s="3">
-        <v>45300</v>
+        <v>10000</v>
       </c>
       <c r="G100" s="3">
+        <v>45500</v>
+      </c>
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
-        <v>77800</v>
-      </c>
       <c r="I100" s="3">
-        <v>-379200</v>
+        <v>78200</v>
       </c>
       <c r="J100" s="3">
+        <v>-380900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>193200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>926600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-115500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1358900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>14200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>32400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="P101" s="3">
         <v>-16600</v>
       </c>
-      <c r="E101" s="3">
-        <v>300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>14200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>32400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>40700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1696700</v>
+        <v>-316400</v>
       </c>
       <c r="E102" s="3">
-        <v>33700</v>
+        <v>1704100</v>
       </c>
       <c r="F102" s="3">
-        <v>-33800</v>
+        <v>33900</v>
       </c>
       <c r="G102" s="3">
-        <v>33100</v>
+        <v>-33900</v>
       </c>
       <c r="H102" s="3">
-        <v>-312300</v>
+        <v>33300</v>
       </c>
       <c r="I102" s="3">
-        <v>155200</v>
+        <v>-313700</v>
       </c>
       <c r="J102" s="3">
+        <v>155900</v>
+      </c>
+      <c r="K102" s="3">
         <v>223500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-239400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>374800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-326900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-150000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-705100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1407600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1261500</v>
+        <v>1009800</v>
       </c>
       <c r="E8" s="3">
-        <v>1014300</v>
+        <v>1288200</v>
       </c>
       <c r="F8" s="3">
-        <v>978200</v>
+        <v>1035700</v>
       </c>
       <c r="G8" s="3">
-        <v>598300</v>
+        <v>998800</v>
       </c>
       <c r="H8" s="3">
-        <v>1046000</v>
+        <v>610900</v>
       </c>
       <c r="I8" s="3">
-        <v>804500</v>
+        <v>1068100</v>
       </c>
       <c r="J8" s="3">
+        <v>821500</v>
+      </c>
+      <c r="K8" s="3">
         <v>828600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>695800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>817300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>592700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>508600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>642800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>466500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>441000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>380200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>464000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>977600</v>
+        <v>838700</v>
       </c>
       <c r="E9" s="3">
-        <v>801800</v>
+        <v>998300</v>
       </c>
       <c r="F9" s="3">
-        <v>707900</v>
+        <v>818700</v>
       </c>
       <c r="G9" s="3">
-        <v>473200</v>
+        <v>722800</v>
       </c>
       <c r="H9" s="3">
-        <v>741100</v>
+        <v>483200</v>
       </c>
       <c r="I9" s="3">
-        <v>560500</v>
+        <v>756700</v>
       </c>
       <c r="J9" s="3">
+        <v>572400</v>
+      </c>
+      <c r="K9" s="3">
         <v>558400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>504200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>592200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>407200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>383600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>441900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>297600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>274200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>274000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>295100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>283900</v>
+        <v>171100</v>
       </c>
       <c r="E10" s="3">
-        <v>212500</v>
+        <v>289900</v>
       </c>
       <c r="F10" s="3">
-        <v>270300</v>
+        <v>217000</v>
       </c>
       <c r="G10" s="3">
-        <v>125100</v>
+        <v>276000</v>
       </c>
       <c r="H10" s="3">
-        <v>305000</v>
+        <v>127700</v>
       </c>
       <c r="I10" s="3">
-        <v>244000</v>
+        <v>311400</v>
       </c>
       <c r="J10" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K10" s="3">
         <v>270200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>191600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>204000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>168900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>166800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>106300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>168900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,17 +1084,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1085,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,11 +1128,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1022000</v>
+        <v>911000</v>
       </c>
       <c r="E17" s="3">
-        <v>835700</v>
+        <v>1043600</v>
       </c>
       <c r="F17" s="3">
-        <v>726600</v>
+        <v>853300</v>
       </c>
       <c r="G17" s="3">
-        <v>541400</v>
+        <v>742000</v>
       </c>
       <c r="H17" s="3">
-        <v>778400</v>
+        <v>552900</v>
       </c>
       <c r="I17" s="3">
-        <v>590500</v>
+        <v>794900</v>
       </c>
       <c r="J17" s="3">
+        <v>603000</v>
+      </c>
+      <c r="K17" s="3">
         <v>600600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>580300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>620800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>439900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>421100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>408300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>465300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>326300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>304300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>284700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>322800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>239500</v>
+        <v>98700</v>
       </c>
       <c r="E18" s="3">
-        <v>178600</v>
+        <v>244600</v>
       </c>
       <c r="F18" s="3">
-        <v>251600</v>
+        <v>182400</v>
       </c>
       <c r="G18" s="3">
-        <v>56800</v>
+        <v>256900</v>
       </c>
       <c r="H18" s="3">
-        <v>267600</v>
+        <v>58000</v>
       </c>
       <c r="I18" s="3">
-        <v>214000</v>
+        <v>273200</v>
       </c>
       <c r="J18" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K18" s="3">
         <v>228100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>166400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>177500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>140200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>136700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>141200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,141 +1379,148 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>24800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>91900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>17900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>136100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>25500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>18300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>21500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>24800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>91900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>250300</v>
+        <v>194300</v>
       </c>
       <c r="E21" s="3">
-        <v>191700</v>
+        <v>254600</v>
       </c>
       <c r="F21" s="3">
-        <v>272100</v>
+        <v>195700</v>
       </c>
       <c r="G21" s="3">
-        <v>141000</v>
+        <v>277900</v>
       </c>
       <c r="H21" s="3">
-        <v>415700</v>
+        <v>144000</v>
       </c>
       <c r="I21" s="3">
-        <v>241400</v>
+        <v>424500</v>
       </c>
       <c r="J21" s="3">
+        <v>246500</v>
+      </c>
+      <c r="K21" s="3">
         <v>255900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>176900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>223700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>179800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>259900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>183000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>143100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>118100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>178100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1503,146 +1543,155 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>241100</v>
+        <v>110500</v>
       </c>
       <c r="E23" s="3">
-        <v>181500</v>
+        <v>246200</v>
       </c>
       <c r="F23" s="3">
-        <v>268000</v>
+        <v>185300</v>
       </c>
       <c r="G23" s="3">
-        <v>78600</v>
+        <v>273700</v>
       </c>
       <c r="H23" s="3">
-        <v>403700</v>
+        <v>80300</v>
       </c>
       <c r="I23" s="3">
-        <v>240700</v>
+        <v>412200</v>
       </c>
       <c r="J23" s="3">
+        <v>245800</v>
+      </c>
+      <c r="K23" s="3">
         <v>253500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>218000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>177600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>258300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>182800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>144600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44200</v>
+        <v>23300</v>
       </c>
       <c r="E24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
-        <v>45600</v>
-      </c>
       <c r="G24" s="3">
-        <v>19800</v>
+        <v>46500</v>
       </c>
       <c r="H24" s="3">
-        <v>50600</v>
+        <v>20200</v>
       </c>
       <c r="I24" s="3">
-        <v>40700</v>
+        <v>51700</v>
       </c>
       <c r="J24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K24" s="3">
         <v>44100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>196900</v>
+        <v>87100</v>
       </c>
       <c r="E26" s="3">
+        <v>201100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>189600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>227200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>360500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>209400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>104700</v>
+      </c>
+      <c r="M26" s="3">
         <v>185700</v>
       </c>
-      <c r="F26" s="3">
-        <v>222500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>353100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>209400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>104700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>185700</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>149400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>209100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>81300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>181500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>106800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>108000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>196800</v>
+        <v>83300</v>
       </c>
       <c r="E27" s="3">
-        <v>183500</v>
+        <v>201000</v>
       </c>
       <c r="F27" s="3">
-        <v>221300</v>
+        <v>187400</v>
       </c>
       <c r="G27" s="3">
-        <v>57200</v>
+        <v>226000</v>
       </c>
       <c r="H27" s="3">
-        <v>355400</v>
+        <v>58500</v>
       </c>
       <c r="I27" s="3">
-        <v>199800</v>
+        <v>362900</v>
       </c>
       <c r="J27" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K27" s="3">
         <v>207700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>148300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>208700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>181400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>106400</v>
       </c>
       <c r="R27" s="3">
         <v>106400</v>
       </c>
       <c r="S27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="T27" s="3">
         <v>73200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>105700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-91900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>196800</v>
+        <v>83300</v>
       </c>
       <c r="E33" s="3">
-        <v>183500</v>
+        <v>201000</v>
       </c>
       <c r="F33" s="3">
-        <v>221300</v>
+        <v>187400</v>
       </c>
       <c r="G33" s="3">
-        <v>57200</v>
+        <v>226000</v>
       </c>
       <c r="H33" s="3">
-        <v>355400</v>
+        <v>58500</v>
       </c>
       <c r="I33" s="3">
-        <v>199800</v>
+        <v>362900</v>
       </c>
       <c r="J33" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K33" s="3">
         <v>207700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>148300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>208700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>181400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>106400</v>
       </c>
       <c r="R33" s="3">
         <v>106400</v>
       </c>
       <c r="S33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="T33" s="3">
         <v>73200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>105700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>196800</v>
+        <v>83300</v>
       </c>
       <c r="E35" s="3">
-        <v>183500</v>
+        <v>201000</v>
       </c>
       <c r="F35" s="3">
-        <v>221300</v>
+        <v>187400</v>
       </c>
       <c r="G35" s="3">
-        <v>57200</v>
+        <v>226000</v>
       </c>
       <c r="H35" s="3">
-        <v>355400</v>
+        <v>58500</v>
       </c>
       <c r="I35" s="3">
-        <v>199800</v>
+        <v>362900</v>
       </c>
       <c r="J35" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K35" s="3">
         <v>207700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>148300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>208700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>181400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>106400</v>
       </c>
       <c r="R35" s="3">
         <v>106400</v>
       </c>
       <c r="S35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="T35" s="3">
         <v>73200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>105700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2171400</v>
+        <v>1727700</v>
       </c>
       <c r="E41" s="3">
-        <v>2507000</v>
+        <v>2217300</v>
       </c>
       <c r="F41" s="3">
-        <v>803900</v>
+        <v>2560000</v>
       </c>
       <c r="G41" s="3">
-        <v>767000</v>
+        <v>820900</v>
       </c>
       <c r="H41" s="3">
-        <v>805200</v>
+        <v>783200</v>
       </c>
       <c r="I41" s="3">
-        <v>772900</v>
+        <v>822200</v>
       </c>
       <c r="J41" s="3">
+        <v>789200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1086500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>926800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>671300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>877700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>848700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>486000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>805100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>768800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>848000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>920400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1641600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>563800</v>
+        <v>862500</v>
       </c>
       <c r="E42" s="3">
-        <v>734000</v>
+        <v>575700</v>
       </c>
       <c r="F42" s="3">
-        <v>1289100</v>
+        <v>749600</v>
       </c>
       <c r="G42" s="3">
-        <v>1545700</v>
+        <v>1316400</v>
       </c>
       <c r="H42" s="3">
-        <v>1697900</v>
+        <v>1578400</v>
       </c>
       <c r="I42" s="3">
-        <v>1727000</v>
+        <v>1733800</v>
       </c>
       <c r="J42" s="3">
+        <v>1763500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1414900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1717000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1975100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1664900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1343800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>795600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>775400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>819600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>769700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>700700</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200400</v>
+        <v>204100</v>
       </c>
       <c r="E43" s="3">
-        <v>262200</v>
+        <v>204600</v>
       </c>
       <c r="F43" s="3">
-        <v>180600</v>
+        <v>267800</v>
       </c>
       <c r="G43" s="3">
-        <v>204000</v>
+        <v>184400</v>
       </c>
       <c r="H43" s="3">
-        <v>192700</v>
+        <v>208300</v>
       </c>
       <c r="I43" s="3">
-        <v>168400</v>
+        <v>196700</v>
       </c>
       <c r="J43" s="3">
+        <v>172000</v>
+      </c>
+      <c r="K43" s="3">
         <v>177300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>171100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>162900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>209200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>69200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,353 +2682,371 @@
         <v>8100</v>
       </c>
       <c r="E44" s="3">
-        <v>7600</v>
+        <v>8300</v>
       </c>
       <c r="F44" s="3">
-        <v>9800</v>
+        <v>7800</v>
       </c>
       <c r="G44" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="H44" s="3">
-        <v>6700</v>
+        <v>8800</v>
       </c>
       <c r="I44" s="3">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="J44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>467000</v>
+        <v>555300</v>
       </c>
       <c r="E45" s="3">
-        <v>449900</v>
+        <v>476900</v>
       </c>
       <c r="F45" s="3">
-        <v>438700</v>
+        <v>459400</v>
       </c>
       <c r="G45" s="3">
-        <v>366500</v>
+        <v>448000</v>
       </c>
       <c r="H45" s="3">
-        <v>368200</v>
+        <v>374200</v>
       </c>
       <c r="I45" s="3">
-        <v>306900</v>
+        <v>376000</v>
       </c>
       <c r="J45" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K45" s="3">
         <v>374900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>264700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>268100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>213400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>191900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>168000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>197700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>172000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>168000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>226600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>241600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3410800</v>
+        <v>3357600</v>
       </c>
       <c r="E46" s="3">
-        <v>3960700</v>
+        <v>3482900</v>
       </c>
       <c r="F46" s="3">
-        <v>2722200</v>
+        <v>4044500</v>
       </c>
       <c r="G46" s="3">
-        <v>2891700</v>
+        <v>2779700</v>
       </c>
       <c r="H46" s="3">
-        <v>3070600</v>
+        <v>2952900</v>
       </c>
       <c r="I46" s="3">
-        <v>2980700</v>
+        <v>3135500</v>
       </c>
       <c r="J46" s="3">
+        <v>3043800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3059000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3084200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3083800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2881400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2599300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1523100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1837000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1795600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1818900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1877500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1917600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1151500</v>
+        <v>1195800</v>
       </c>
       <c r="E47" s="3">
-        <v>931900</v>
+        <v>1175800</v>
       </c>
       <c r="F47" s="3">
-        <v>909200</v>
+        <v>951600</v>
       </c>
       <c r="G47" s="3">
-        <v>747100</v>
+        <v>928400</v>
       </c>
       <c r="H47" s="3">
-        <v>703600</v>
+        <v>762900</v>
       </c>
       <c r="I47" s="3">
-        <v>340400</v>
+        <v>718500</v>
       </c>
       <c r="J47" s="3">
+        <v>347600</v>
+      </c>
+      <c r="K47" s="3">
         <v>336200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>332500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>320600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>239300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>215800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>86400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>78200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>76400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>78100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2970300</v>
+        <v>3144800</v>
       </c>
       <c r="E48" s="3">
-        <v>2646400</v>
+        <v>3033100</v>
       </c>
       <c r="F48" s="3">
-        <v>2358300</v>
+        <v>2702300</v>
       </c>
       <c r="G48" s="3">
-        <v>2166600</v>
+        <v>2408100</v>
       </c>
       <c r="H48" s="3">
-        <v>2043100</v>
+        <v>2212400</v>
       </c>
       <c r="I48" s="3">
-        <v>1777300</v>
+        <v>2086300</v>
       </c>
       <c r="J48" s="3">
+        <v>1814900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1577900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1532300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1312300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1117100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1015500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>983700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>960700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>866600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>765200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>668800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>591300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1320600</v>
+        <v>1407600</v>
       </c>
       <c r="E49" s="3">
-        <v>1281800</v>
+        <v>1348600</v>
       </c>
       <c r="F49" s="3">
-        <v>1239900</v>
+        <v>1308900</v>
       </c>
       <c r="G49" s="3">
-        <v>1117800</v>
+        <v>1266100</v>
       </c>
       <c r="H49" s="3">
-        <v>1038700</v>
+        <v>1141400</v>
       </c>
       <c r="I49" s="3">
-        <v>1008500</v>
+        <v>1060600</v>
       </c>
       <c r="J49" s="3">
+        <v>1029800</v>
+      </c>
+      <c r="K49" s="3">
         <v>987300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>983500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>909900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>873300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>861700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>880200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>876300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>841400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>835000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>815900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>794000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>192200</v>
+        <v>272200</v>
       </c>
       <c r="E52" s="3">
-        <v>178300</v>
+        <v>196200</v>
       </c>
       <c r="F52" s="3">
-        <v>177200</v>
+        <v>182100</v>
       </c>
       <c r="G52" s="3">
-        <v>173800</v>
+        <v>180900</v>
       </c>
       <c r="H52" s="3">
-        <v>155200</v>
+        <v>177500</v>
       </c>
       <c r="I52" s="3">
-        <v>383400</v>
+        <v>158500</v>
       </c>
       <c r="J52" s="3">
+        <v>391500</v>
+      </c>
+      <c r="K52" s="3">
         <v>232100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>172600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>136600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>45800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9045300</v>
+        <v>9378100</v>
       </c>
       <c r="E54" s="3">
-        <v>8999200</v>
+        <v>9236500</v>
       </c>
       <c r="F54" s="3">
-        <v>7406700</v>
+        <v>9189400</v>
       </c>
       <c r="G54" s="3">
-        <v>7097000</v>
+        <v>7563300</v>
       </c>
       <c r="H54" s="3">
-        <v>7011200</v>
+        <v>7247100</v>
       </c>
       <c r="I54" s="3">
-        <v>6490300</v>
+        <v>7159400</v>
       </c>
       <c r="J54" s="3">
+        <v>6627600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6192400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6105100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5763100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5219700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3561300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3833100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3632000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3531800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3467300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3403600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,87 +3402,91 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>249900</v>
+        <v>242000</v>
       </c>
       <c r="E57" s="3">
-        <v>224400</v>
+        <v>255200</v>
       </c>
       <c r="F57" s="3">
-        <v>168900</v>
+        <v>229100</v>
       </c>
       <c r="G57" s="3">
-        <v>179800</v>
+        <v>172500</v>
       </c>
       <c r="H57" s="3">
-        <v>225400</v>
+        <v>183600</v>
       </c>
       <c r="I57" s="3">
-        <v>163800</v>
+        <v>230200</v>
       </c>
       <c r="J57" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K57" s="3">
         <v>181100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>157100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>190500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>130700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>133200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>132000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>73000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>98200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>92600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>268800</v>
+        <v>470500</v>
       </c>
       <c r="E58" s="3">
-        <v>428500</v>
+        <v>274400</v>
       </c>
       <c r="F58" s="3">
-        <v>334000</v>
+        <v>437600</v>
       </c>
       <c r="G58" s="3">
-        <v>45800</v>
+        <v>341100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>46800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3360,8 +3494,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3373,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>37100</v>
@@ -3382,134 +3516,143 @@
         <v>37100</v>
       </c>
       <c r="S58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="T58" s="3">
         <v>101800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>65400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>909400</v>
+        <v>1050000</v>
       </c>
       <c r="E59" s="3">
-        <v>853100</v>
+        <v>928700</v>
       </c>
       <c r="F59" s="3">
-        <v>838100</v>
+        <v>871100</v>
       </c>
       <c r="G59" s="3">
-        <v>1019400</v>
+        <v>855900</v>
       </c>
       <c r="H59" s="3">
-        <v>795300</v>
+        <v>1041000</v>
       </c>
       <c r="I59" s="3">
-        <v>673300</v>
+        <v>812100</v>
       </c>
       <c r="J59" s="3">
+        <v>687500</v>
+      </c>
+      <c r="K59" s="3">
         <v>630100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>711200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>556200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>432100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>419700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>424600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>446300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>419000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>349800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>311200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>354300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1428100</v>
+        <v>1762600</v>
       </c>
       <c r="E60" s="3">
-        <v>1506000</v>
+        <v>1458300</v>
       </c>
       <c r="F60" s="3">
-        <v>1341100</v>
+        <v>1537800</v>
       </c>
       <c r="G60" s="3">
-        <v>1245000</v>
+        <v>1369400</v>
       </c>
       <c r="H60" s="3">
-        <v>1020700</v>
+        <v>1271300</v>
       </c>
       <c r="I60" s="3">
-        <v>837000</v>
+        <v>1042300</v>
       </c>
       <c r="J60" s="3">
+        <v>854700</v>
+      </c>
+      <c r="K60" s="3">
         <v>811200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>868200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>746700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>549300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>550400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>557800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>615300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>541000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>459900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>511200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>512300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115700</v>
+        <v>119700</v>
       </c>
       <c r="E62" s="3">
-        <v>103000</v>
+        <v>118200</v>
       </c>
       <c r="F62" s="3">
-        <v>108100</v>
+        <v>105100</v>
       </c>
       <c r="G62" s="3">
-        <v>113800</v>
+        <v>110400</v>
       </c>
       <c r="H62" s="3">
-        <v>123200</v>
+        <v>116200</v>
       </c>
       <c r="I62" s="3">
-        <v>93900</v>
+        <v>125800</v>
       </c>
       <c r="J62" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K62" s="3">
         <v>96500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1562300</v>
+        <v>1904000</v>
       </c>
       <c r="E66" s="3">
-        <v>1626000</v>
+        <v>1595300</v>
       </c>
       <c r="F66" s="3">
-        <v>1466500</v>
+        <v>1660400</v>
       </c>
       <c r="G66" s="3">
-        <v>1374500</v>
+        <v>1497500</v>
       </c>
       <c r="H66" s="3">
-        <v>1159300</v>
+        <v>1403500</v>
       </c>
       <c r="I66" s="3">
-        <v>945800</v>
+        <v>1183800</v>
       </c>
       <c r="J66" s="3">
+        <v>965800</v>
+      </c>
+      <c r="K66" s="3">
         <v>919500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>999600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>793800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>588000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>584900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>592700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>651900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>571800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>491000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>535400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>532100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,10 +4228,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3214300</v>
+        <v>3360700</v>
       </c>
       <c r="E72" s="3">
-        <v>3017500</v>
+        <v>3282300</v>
       </c>
       <c r="F72" s="3">
-        <v>2834000</v>
+        <v>3081300</v>
       </c>
       <c r="G72" s="3">
-        <v>2612700</v>
+        <v>2893900</v>
       </c>
       <c r="H72" s="3">
-        <v>2555500</v>
+        <v>2668000</v>
       </c>
       <c r="I72" s="3">
-        <v>2200000</v>
+        <v>2609500</v>
       </c>
       <c r="J72" s="3">
+        <v>2246600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2000300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1784800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1605100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1368400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1220100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1036800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>989800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>808400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>702000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>583600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>510400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7483000</v>
+        <v>7474100</v>
       </c>
       <c r="E76" s="3">
-        <v>7373200</v>
+        <v>7641200</v>
       </c>
       <c r="F76" s="3">
-        <v>5940300</v>
+        <v>7529100</v>
       </c>
       <c r="G76" s="3">
-        <v>5722600</v>
+        <v>6065900</v>
       </c>
       <c r="H76" s="3">
-        <v>5851900</v>
+        <v>5843600</v>
       </c>
       <c r="I76" s="3">
-        <v>5544600</v>
+        <v>5975600</v>
       </c>
       <c r="J76" s="3">
+        <v>5661800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5272900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5105500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4969400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4631700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4215500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2968500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3181200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3060200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3040800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2931800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2871500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>196800</v>
+        <v>83300</v>
       </c>
       <c r="E81" s="3">
-        <v>183500</v>
+        <v>201000</v>
       </c>
       <c r="F81" s="3">
-        <v>221300</v>
+        <v>187400</v>
       </c>
       <c r="G81" s="3">
-        <v>57200</v>
+        <v>226000</v>
       </c>
       <c r="H81" s="3">
-        <v>355400</v>
+        <v>58500</v>
       </c>
       <c r="I81" s="3">
-        <v>199800</v>
+        <v>362900</v>
       </c>
       <c r="J81" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K81" s="3">
         <v>207700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>148300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>208700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>181400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>106400</v>
       </c>
       <c r="R81" s="3">
         <v>106400</v>
       </c>
       <c r="S81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="T81" s="3">
         <v>73200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>105700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>311700</v>
+        <v>74400</v>
       </c>
       <c r="E89" s="3">
-        <v>226200</v>
+        <v>318300</v>
       </c>
       <c r="F89" s="3">
-        <v>191300</v>
+        <v>231000</v>
       </c>
       <c r="G89" s="3">
-        <v>27200</v>
+        <v>195400</v>
       </c>
       <c r="H89" s="3">
-        <v>345300</v>
+        <v>27700</v>
       </c>
       <c r="I89" s="3">
-        <v>216600</v>
+        <v>352600</v>
       </c>
       <c r="J89" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K89" s="3">
         <v>304500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>261800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>206600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>203600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>152000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>134100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>166300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-445600</v>
+        <v>-682100</v>
       </c>
       <c r="E94" s="3">
-        <v>180300</v>
+        <v>-455000</v>
       </c>
       <c r="F94" s="3">
-        <v>-167700</v>
+        <v>184100</v>
       </c>
       <c r="G94" s="3">
-        <v>-109200</v>
+        <v>-171300</v>
       </c>
       <c r="H94" s="3">
-        <v>-312100</v>
+        <v>-111500</v>
       </c>
       <c r="I94" s="3">
-        <v>-613500</v>
+        <v>-318700</v>
       </c>
       <c r="J94" s="3">
+        <v>-626500</v>
+      </c>
+      <c r="K94" s="3">
         <v>229000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>136200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-483600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-321300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-790700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-229200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-107200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-167600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-168800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-771600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-158200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96000</v>
+        <v>155100</v>
       </c>
       <c r="E100" s="3">
-        <v>1314300</v>
+        <v>-98000</v>
       </c>
       <c r="F100" s="3">
-        <v>10000</v>
+        <v>1342100</v>
       </c>
       <c r="G100" s="3">
-        <v>45500</v>
+        <v>10200</v>
       </c>
       <c r="H100" s="3">
-        <v>2000</v>
+        <v>46400</v>
       </c>
       <c r="I100" s="3">
-        <v>78200</v>
+        <v>2100</v>
       </c>
       <c r="J100" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-380900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>193200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>926600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-115500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-104800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1358900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-86500</v>
+        <v>5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-16700</v>
+        <v>-88400</v>
       </c>
       <c r="F101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>2600</v>
-      </c>
       <c r="H101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>5100</v>
-      </c>
       <c r="J101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>32400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-18100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>40700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-316400</v>
+        <v>-447400</v>
       </c>
       <c r="E102" s="3">
-        <v>1704100</v>
+        <v>-323100</v>
       </c>
       <c r="F102" s="3">
-        <v>33900</v>
+        <v>1740100</v>
       </c>
       <c r="G102" s="3">
-        <v>-33900</v>
+        <v>34600</v>
       </c>
       <c r="H102" s="3">
-        <v>33300</v>
+        <v>-34600</v>
       </c>
       <c r="I102" s="3">
-        <v>-313700</v>
+        <v>34000</v>
       </c>
       <c r="J102" s="3">
+        <v>-320300</v>
+      </c>
+      <c r="K102" s="3">
         <v>155900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>223500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-239400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>374800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-326900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-92900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-150000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-705100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1407600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1009800</v>
+        <v>1127900</v>
       </c>
       <c r="E8" s="3">
-        <v>1288200</v>
+        <v>996600</v>
       </c>
       <c r="F8" s="3">
-        <v>1035700</v>
+        <v>1271400</v>
       </c>
       <c r="G8" s="3">
-        <v>998800</v>
+        <v>1022200</v>
       </c>
       <c r="H8" s="3">
-        <v>610900</v>
+        <v>985800</v>
       </c>
       <c r="I8" s="3">
-        <v>1068100</v>
+        <v>603000</v>
       </c>
       <c r="J8" s="3">
+        <v>1054200</v>
+      </c>
+      <c r="K8" s="3">
         <v>821500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>828600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>695800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>817300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>592700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>587500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>508600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>642800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>466500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>441000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>380200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>464000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>838700</v>
+        <v>870200</v>
       </c>
       <c r="E9" s="3">
-        <v>998300</v>
+        <v>827800</v>
       </c>
       <c r="F9" s="3">
-        <v>818700</v>
+        <v>985300</v>
       </c>
       <c r="G9" s="3">
-        <v>722800</v>
+        <v>808100</v>
       </c>
       <c r="H9" s="3">
-        <v>483200</v>
+        <v>713400</v>
       </c>
       <c r="I9" s="3">
-        <v>756700</v>
+        <v>476900</v>
       </c>
       <c r="J9" s="3">
+        <v>746900</v>
+      </c>
+      <c r="K9" s="3">
         <v>572400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>558400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>504200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>592200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>407200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>383600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>360500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>441900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>297600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>274200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>274000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>295100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>171100</v>
+        <v>257700</v>
       </c>
       <c r="E10" s="3">
-        <v>289900</v>
+        <v>168800</v>
       </c>
       <c r="F10" s="3">
-        <v>217000</v>
+        <v>286100</v>
       </c>
       <c r="G10" s="3">
-        <v>276000</v>
+        <v>214200</v>
       </c>
       <c r="H10" s="3">
-        <v>127700</v>
+        <v>272400</v>
       </c>
       <c r="I10" s="3">
-        <v>311400</v>
+        <v>126100</v>
       </c>
       <c r="J10" s="3">
+        <v>307400</v>
+      </c>
+      <c r="K10" s="3">
         <v>249100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>191600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>225100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>204000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>168900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>166800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>106300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>168900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1108,22 +1128,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,11 +1151,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>4500</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>911000</v>
+        <v>903800</v>
       </c>
       <c r="E17" s="3">
-        <v>1043600</v>
+        <v>899200</v>
       </c>
       <c r="F17" s="3">
-        <v>853300</v>
+        <v>1030000</v>
       </c>
       <c r="G17" s="3">
-        <v>742000</v>
+        <v>842200</v>
       </c>
       <c r="H17" s="3">
-        <v>552900</v>
+        <v>732300</v>
       </c>
       <c r="I17" s="3">
-        <v>794900</v>
+        <v>545700</v>
       </c>
       <c r="J17" s="3">
+        <v>784600</v>
+      </c>
+      <c r="K17" s="3">
         <v>603000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>580300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>620800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>439900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>421100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>408300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>465300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>326300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>304300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>284700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>322800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>98700</v>
+        <v>224100</v>
       </c>
       <c r="E18" s="3">
-        <v>244600</v>
+        <v>97400</v>
       </c>
       <c r="F18" s="3">
-        <v>182400</v>
+        <v>241400</v>
       </c>
       <c r="G18" s="3">
-        <v>256900</v>
+        <v>180000</v>
       </c>
       <c r="H18" s="3">
-        <v>58000</v>
+        <v>253500</v>
       </c>
       <c r="I18" s="3">
-        <v>273200</v>
+        <v>57300</v>
       </c>
       <c r="J18" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K18" s="3">
         <v>218500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>166400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>177500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>140200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>136700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>141200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,150 +1413,157 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14200</v>
+        <v>16800</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>14000</v>
       </c>
       <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
-        <v>18200</v>
-      </c>
       <c r="H20" s="3">
-        <v>22300</v>
+        <v>18000</v>
       </c>
       <c r="I20" s="3">
-        <v>139000</v>
+        <v>22000</v>
       </c>
       <c r="J20" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K20" s="3">
         <v>27300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>91900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>194300</v>
+        <v>247600</v>
       </c>
       <c r="E21" s="3">
-        <v>254600</v>
+        <v>191700</v>
       </c>
       <c r="F21" s="3">
-        <v>195700</v>
+        <v>251300</v>
       </c>
       <c r="G21" s="3">
-        <v>277900</v>
+        <v>193200</v>
       </c>
       <c r="H21" s="3">
-        <v>144000</v>
+        <v>274300</v>
       </c>
       <c r="I21" s="3">
-        <v>424500</v>
+        <v>142100</v>
       </c>
       <c r="J21" s="3">
+        <v>418900</v>
+      </c>
+      <c r="K21" s="3">
         <v>246500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>176900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>223700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>179800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>259900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>183000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>144500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>143100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>118100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>178100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1546,152 +1586,161 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110500</v>
+        <v>235700</v>
       </c>
       <c r="E23" s="3">
-        <v>246200</v>
+        <v>109100</v>
       </c>
       <c r="F23" s="3">
-        <v>185300</v>
+        <v>243000</v>
       </c>
       <c r="G23" s="3">
-        <v>273700</v>
+        <v>182900</v>
       </c>
       <c r="H23" s="3">
-        <v>80300</v>
+        <v>270100</v>
       </c>
       <c r="I23" s="3">
-        <v>412200</v>
+        <v>79200</v>
       </c>
       <c r="J23" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K23" s="3">
         <v>245800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>253500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>218000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>177600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>258300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>182800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>144600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23300</v>
+        <v>39200</v>
       </c>
       <c r="E24" s="3">
-        <v>45200</v>
+        <v>23000</v>
       </c>
       <c r="F24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-4300</v>
       </c>
-      <c r="G24" s="3">
-        <v>46500</v>
-      </c>
       <c r="H24" s="3">
-        <v>20200</v>
+        <v>45900</v>
       </c>
       <c r="I24" s="3">
-        <v>51700</v>
+        <v>20000</v>
       </c>
       <c r="J24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K24" s="3">
         <v>41500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>49100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87100</v>
+        <v>196500</v>
       </c>
       <c r="E26" s="3">
-        <v>201100</v>
+        <v>86000</v>
       </c>
       <c r="F26" s="3">
-        <v>189600</v>
+        <v>198400</v>
       </c>
       <c r="G26" s="3">
-        <v>227200</v>
+        <v>187200</v>
       </c>
       <c r="H26" s="3">
-        <v>60000</v>
+        <v>224200</v>
       </c>
       <c r="I26" s="3">
-        <v>360500</v>
+        <v>59200</v>
       </c>
       <c r="J26" s="3">
+        <v>355800</v>
+      </c>
+      <c r="K26" s="3">
         <v>204200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>209400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>149400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>209100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>106800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>108000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83300</v>
+        <v>199000</v>
       </c>
       <c r="E27" s="3">
-        <v>201000</v>
+        <v>82200</v>
       </c>
       <c r="F27" s="3">
-        <v>187400</v>
+        <v>198300</v>
       </c>
       <c r="G27" s="3">
-        <v>226000</v>
+        <v>184900</v>
       </c>
       <c r="H27" s="3">
-        <v>58500</v>
+        <v>223000</v>
       </c>
       <c r="I27" s="3">
-        <v>362900</v>
+        <v>57700</v>
       </c>
       <c r="J27" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K27" s="3">
         <v>204000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>148300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>208700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>181400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>106400</v>
       </c>
       <c r="S27" s="3">
         <v>106400</v>
       </c>
       <c r="T27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="U27" s="3">
         <v>73200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>105700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14200</v>
+        <v>-16800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-14000</v>
       </c>
       <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-18200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-22300</v>
+        <v>-18000</v>
       </c>
       <c r="I32" s="3">
-        <v>-139000</v>
+        <v>-22000</v>
       </c>
       <c r="J32" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-91900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83300</v>
+        <v>199000</v>
       </c>
       <c r="E33" s="3">
-        <v>201000</v>
+        <v>82200</v>
       </c>
       <c r="F33" s="3">
-        <v>187400</v>
+        <v>198300</v>
       </c>
       <c r="G33" s="3">
-        <v>226000</v>
+        <v>184900</v>
       </c>
       <c r="H33" s="3">
-        <v>58500</v>
+        <v>223000</v>
       </c>
       <c r="I33" s="3">
-        <v>362900</v>
+        <v>57700</v>
       </c>
       <c r="J33" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K33" s="3">
         <v>204000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>148300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>208700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>181400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>106400</v>
       </c>
       <c r="S33" s="3">
         <v>106400</v>
       </c>
       <c r="T33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="U33" s="3">
         <v>73200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>105700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83300</v>
+        <v>199000</v>
       </c>
       <c r="E35" s="3">
-        <v>201000</v>
+        <v>82200</v>
       </c>
       <c r="F35" s="3">
-        <v>187400</v>
+        <v>198300</v>
       </c>
       <c r="G35" s="3">
-        <v>226000</v>
+        <v>184900</v>
       </c>
       <c r="H35" s="3">
-        <v>58500</v>
+        <v>223000</v>
       </c>
       <c r="I35" s="3">
-        <v>362900</v>
+        <v>57700</v>
       </c>
       <c r="J35" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K35" s="3">
         <v>204000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>148300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>208700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>181400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>106400</v>
       </c>
       <c r="S35" s="3">
         <v>106400</v>
       </c>
       <c r="T35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="U35" s="3">
         <v>73200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>105700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1727700</v>
+        <v>1862900</v>
       </c>
       <c r="E41" s="3">
-        <v>2217300</v>
+        <v>1705200</v>
       </c>
       <c r="F41" s="3">
-        <v>2560000</v>
+        <v>2188500</v>
       </c>
       <c r="G41" s="3">
-        <v>820900</v>
+        <v>2526600</v>
       </c>
       <c r="H41" s="3">
-        <v>783200</v>
+        <v>810200</v>
       </c>
       <c r="I41" s="3">
-        <v>822200</v>
+        <v>773000</v>
       </c>
       <c r="J41" s="3">
+        <v>811500</v>
+      </c>
+      <c r="K41" s="3">
         <v>789200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1086500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>926800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>671300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>877700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>848700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>486000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>805100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>768800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>848000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>920400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1641600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>862500</v>
+        <v>483300</v>
       </c>
       <c r="E42" s="3">
-        <v>575700</v>
+        <v>851200</v>
       </c>
       <c r="F42" s="3">
-        <v>749600</v>
+        <v>568200</v>
       </c>
       <c r="G42" s="3">
-        <v>1316400</v>
+        <v>739800</v>
       </c>
       <c r="H42" s="3">
-        <v>1578400</v>
+        <v>1299300</v>
       </c>
       <c r="I42" s="3">
-        <v>1733800</v>
+        <v>1557900</v>
       </c>
       <c r="J42" s="3">
+        <v>1711200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1763500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1414900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1717000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1975100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1664900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1343800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>795600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>775400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>819600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>769700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>700700</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>204100</v>
+        <v>281000</v>
       </c>
       <c r="E43" s="3">
-        <v>204600</v>
+        <v>201400</v>
       </c>
       <c r="F43" s="3">
-        <v>267800</v>
+        <v>201900</v>
       </c>
       <c r="G43" s="3">
-        <v>184400</v>
+        <v>264300</v>
       </c>
       <c r="H43" s="3">
-        <v>208300</v>
+        <v>182000</v>
       </c>
       <c r="I43" s="3">
-        <v>196700</v>
+        <v>205600</v>
       </c>
       <c r="J43" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K43" s="3">
         <v>172000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>177300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>171100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>162900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>209200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>69200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8100</v>
+        <v>6100</v>
       </c>
       <c r="E44" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="G44" s="3">
-        <v>10000</v>
+        <v>7700</v>
       </c>
       <c r="H44" s="3">
-        <v>8800</v>
+        <v>9900</v>
       </c>
       <c r="I44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J44" s="3">
         <v>6800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>555300</v>
+        <v>538000</v>
       </c>
       <c r="E45" s="3">
-        <v>476900</v>
+        <v>548100</v>
       </c>
       <c r="F45" s="3">
-        <v>459400</v>
+        <v>470700</v>
       </c>
       <c r="G45" s="3">
-        <v>448000</v>
+        <v>453400</v>
       </c>
       <c r="H45" s="3">
-        <v>374200</v>
+        <v>442200</v>
       </c>
       <c r="I45" s="3">
-        <v>376000</v>
+        <v>369400</v>
       </c>
       <c r="J45" s="3">
+        <v>371100</v>
+      </c>
+      <c r="K45" s="3">
         <v>313400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>374900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>264700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>268100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>213400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>191900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>168000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>197700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>172000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>168000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>226600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>241600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3357600</v>
+        <v>3171300</v>
       </c>
       <c r="E46" s="3">
-        <v>3482900</v>
+        <v>3313900</v>
       </c>
       <c r="F46" s="3">
-        <v>4044500</v>
+        <v>3437500</v>
       </c>
       <c r="G46" s="3">
-        <v>2779700</v>
+        <v>3991900</v>
       </c>
       <c r="H46" s="3">
-        <v>2952900</v>
+        <v>2743500</v>
       </c>
       <c r="I46" s="3">
-        <v>3135500</v>
+        <v>2914500</v>
       </c>
       <c r="J46" s="3">
+        <v>3094700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3043800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3059000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3084200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3083800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2881400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2599300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1523100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1837000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1795600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1818900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1877500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1917600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1195800</v>
+        <v>1154100</v>
       </c>
       <c r="E47" s="3">
-        <v>1175800</v>
+        <v>1180300</v>
       </c>
       <c r="F47" s="3">
-        <v>951600</v>
+        <v>1160500</v>
       </c>
       <c r="G47" s="3">
-        <v>928400</v>
+        <v>939200</v>
       </c>
       <c r="H47" s="3">
-        <v>762900</v>
+        <v>916300</v>
       </c>
       <c r="I47" s="3">
-        <v>718500</v>
+        <v>753000</v>
       </c>
       <c r="J47" s="3">
+        <v>709100</v>
+      </c>
+      <c r="K47" s="3">
         <v>347600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>336200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>332500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>320600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>239300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>215800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>86400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>78200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>76400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>78100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3144800</v>
+        <v>3421900</v>
       </c>
       <c r="E48" s="3">
-        <v>3033100</v>
+        <v>3103900</v>
       </c>
       <c r="F48" s="3">
-        <v>2702300</v>
+        <v>2993600</v>
       </c>
       <c r="G48" s="3">
-        <v>2408100</v>
+        <v>2667100</v>
       </c>
       <c r="H48" s="3">
-        <v>2212400</v>
+        <v>2376800</v>
       </c>
       <c r="I48" s="3">
-        <v>2086300</v>
+        <v>2183600</v>
       </c>
       <c r="J48" s="3">
+        <v>2059100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1814900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1577900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1532300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1312300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1117100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1015500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>983700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>960700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>866600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>765200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>668800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>591300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1407600</v>
+        <v>1417000</v>
       </c>
       <c r="E49" s="3">
-        <v>1348600</v>
+        <v>1389300</v>
       </c>
       <c r="F49" s="3">
-        <v>1308900</v>
+        <v>1331000</v>
       </c>
       <c r="G49" s="3">
-        <v>1266100</v>
+        <v>1291900</v>
       </c>
       <c r="H49" s="3">
-        <v>1141400</v>
+        <v>1249600</v>
       </c>
       <c r="I49" s="3">
-        <v>1060600</v>
+        <v>1126500</v>
       </c>
       <c r="J49" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1029800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>987300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>983500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>909900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>873300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>861700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>880200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>876300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>841400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>835000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>815900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>794000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>272200</v>
+        <v>269700</v>
       </c>
       <c r="E52" s="3">
-        <v>196200</v>
+        <v>268600</v>
       </c>
       <c r="F52" s="3">
-        <v>182100</v>
+        <v>193700</v>
       </c>
       <c r="G52" s="3">
-        <v>180900</v>
+        <v>179700</v>
       </c>
       <c r="H52" s="3">
-        <v>177500</v>
+        <v>178600</v>
       </c>
       <c r="I52" s="3">
-        <v>158500</v>
+        <v>175200</v>
       </c>
       <c r="J52" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K52" s="3">
         <v>391500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>172600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>108700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>68500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>45800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9378100</v>
+        <v>9434000</v>
       </c>
       <c r="E54" s="3">
-        <v>9236500</v>
+        <v>9256000</v>
       </c>
       <c r="F54" s="3">
-        <v>9189400</v>
+        <v>9116300</v>
       </c>
       <c r="G54" s="3">
-        <v>7563300</v>
+        <v>9069900</v>
       </c>
       <c r="H54" s="3">
-        <v>7247100</v>
+        <v>7464900</v>
       </c>
       <c r="I54" s="3">
-        <v>7159400</v>
+        <v>7152800</v>
       </c>
       <c r="J54" s="3">
+        <v>7066200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6627600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6192400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6105100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5763100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5219700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3561300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3833100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3632000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3531800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3467300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3403600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,93 +3533,97 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>242000</v>
+        <v>245800</v>
       </c>
       <c r="E57" s="3">
-        <v>255200</v>
+        <v>238900</v>
       </c>
       <c r="F57" s="3">
-        <v>229100</v>
+        <v>251900</v>
       </c>
       <c r="G57" s="3">
-        <v>172500</v>
+        <v>226100</v>
       </c>
       <c r="H57" s="3">
-        <v>183600</v>
+        <v>170300</v>
       </c>
       <c r="I57" s="3">
-        <v>230200</v>
+        <v>181200</v>
       </c>
       <c r="J57" s="3">
+        <v>227200</v>
+      </c>
+      <c r="K57" s="3">
         <v>167200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>181100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>157100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>190500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>130700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>133200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>132000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>73000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>98200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>92600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>470500</v>
+        <v>576300</v>
       </c>
       <c r="E58" s="3">
-        <v>274400</v>
+        <v>464400</v>
       </c>
       <c r="F58" s="3">
-        <v>437600</v>
+        <v>270900</v>
       </c>
       <c r="G58" s="3">
-        <v>341100</v>
+        <v>431900</v>
       </c>
       <c r="H58" s="3">
-        <v>46800</v>
+        <v>336600</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>46200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3497,8 +3631,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3510,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>37100</v>
@@ -3519,140 +3653,149 @@
         <v>37100</v>
       </c>
       <c r="T58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="U58" s="3">
         <v>101800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>65400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1050000</v>
+        <v>916900</v>
       </c>
       <c r="E59" s="3">
-        <v>928700</v>
+        <v>1036400</v>
       </c>
       <c r="F59" s="3">
-        <v>871100</v>
+        <v>916600</v>
       </c>
       <c r="G59" s="3">
-        <v>855900</v>
+        <v>859800</v>
       </c>
       <c r="H59" s="3">
-        <v>1041000</v>
+        <v>844700</v>
       </c>
       <c r="I59" s="3">
-        <v>812100</v>
+        <v>1027400</v>
       </c>
       <c r="J59" s="3">
+        <v>801600</v>
+      </c>
+      <c r="K59" s="3">
         <v>687500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>630100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>711200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>556200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>432100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>419700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>424600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>446300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>419000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>349800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>311200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>354300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1762600</v>
+        <v>1739000</v>
       </c>
       <c r="E60" s="3">
-        <v>1458300</v>
+        <v>1739600</v>
       </c>
       <c r="F60" s="3">
-        <v>1537800</v>
+        <v>1439300</v>
       </c>
       <c r="G60" s="3">
-        <v>1369400</v>
+        <v>1517800</v>
       </c>
       <c r="H60" s="3">
-        <v>1271300</v>
+        <v>1351600</v>
       </c>
       <c r="I60" s="3">
-        <v>1042300</v>
+        <v>1254800</v>
       </c>
       <c r="J60" s="3">
+        <v>1028700</v>
+      </c>
+      <c r="K60" s="3">
         <v>854700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>811200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>868200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>746700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>549300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>550400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>557800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>615300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>541000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>459900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>511200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>512300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>119700</v>
+        <v>124100</v>
       </c>
       <c r="E62" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="F62" s="3">
-        <v>105100</v>
+        <v>116600</v>
       </c>
       <c r="G62" s="3">
-        <v>110400</v>
+        <v>103800</v>
       </c>
       <c r="H62" s="3">
-        <v>116200</v>
+        <v>108900</v>
       </c>
       <c r="I62" s="3">
-        <v>125800</v>
+        <v>114700</v>
       </c>
       <c r="J62" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K62" s="3">
         <v>95900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1904000</v>
+        <v>1880000</v>
       </c>
       <c r="E66" s="3">
-        <v>1595300</v>
+        <v>1879200</v>
       </c>
       <c r="F66" s="3">
-        <v>1660400</v>
+        <v>1574600</v>
       </c>
       <c r="G66" s="3">
-        <v>1497500</v>
+        <v>1638800</v>
       </c>
       <c r="H66" s="3">
-        <v>1403500</v>
+        <v>1478000</v>
       </c>
       <c r="I66" s="3">
-        <v>1183800</v>
+        <v>1385300</v>
       </c>
       <c r="J66" s="3">
+        <v>1168400</v>
+      </c>
+      <c r="K66" s="3">
         <v>965800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>919500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>999600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>793800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>588000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>584900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>592700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>651900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>571800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>491000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>535400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>532100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,10 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3360700</v>
+        <v>3412300</v>
       </c>
       <c r="E72" s="3">
-        <v>3282300</v>
+        <v>3317000</v>
       </c>
       <c r="F72" s="3">
-        <v>3081300</v>
+        <v>3239500</v>
       </c>
       <c r="G72" s="3">
-        <v>2893900</v>
+        <v>3041200</v>
       </c>
       <c r="H72" s="3">
-        <v>2668000</v>
+        <v>2856300</v>
       </c>
       <c r="I72" s="3">
-        <v>2609500</v>
+        <v>2633200</v>
       </c>
       <c r="J72" s="3">
+        <v>2575600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2246600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2000300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1784800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1605100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1368400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1220100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1036800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>989800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>808400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>702000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>583600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>510400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7474100</v>
+        <v>7554100</v>
       </c>
       <c r="E76" s="3">
-        <v>7641200</v>
+        <v>7376900</v>
       </c>
       <c r="F76" s="3">
-        <v>7529100</v>
+        <v>7541800</v>
       </c>
       <c r="G76" s="3">
-        <v>6065900</v>
+        <v>7431100</v>
       </c>
       <c r="H76" s="3">
-        <v>5843600</v>
+        <v>5986900</v>
       </c>
       <c r="I76" s="3">
-        <v>5975600</v>
+        <v>5767500</v>
       </c>
       <c r="J76" s="3">
+        <v>5897800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5661800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5272900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5105500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4969400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4631700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4215500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2968500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3181200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3060200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3040800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2931800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2871500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83300</v>
+        <v>199000</v>
       </c>
       <c r="E81" s="3">
-        <v>201000</v>
+        <v>82200</v>
       </c>
       <c r="F81" s="3">
-        <v>187400</v>
+        <v>198300</v>
       </c>
       <c r="G81" s="3">
-        <v>226000</v>
+        <v>184900</v>
       </c>
       <c r="H81" s="3">
-        <v>58500</v>
+        <v>223000</v>
       </c>
       <c r="I81" s="3">
-        <v>362900</v>
+        <v>57700</v>
       </c>
       <c r="J81" s="3">
+        <v>358200</v>
+      </c>
+      <c r="K81" s="3">
         <v>204000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>148300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>208700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>181400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>106400</v>
       </c>
       <c r="S81" s="3">
         <v>106400</v>
       </c>
       <c r="T81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="U81" s="3">
         <v>73200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>105700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>74400</v>
+        <v>297600</v>
       </c>
       <c r="E89" s="3">
-        <v>318300</v>
+        <v>73400</v>
       </c>
       <c r="F89" s="3">
-        <v>231000</v>
+        <v>314200</v>
       </c>
       <c r="G89" s="3">
-        <v>195400</v>
+        <v>228000</v>
       </c>
       <c r="H89" s="3">
-        <v>27700</v>
+        <v>192800</v>
       </c>
       <c r="I89" s="3">
-        <v>352600</v>
+        <v>27400</v>
       </c>
       <c r="J89" s="3">
+        <v>348100</v>
+      </c>
+      <c r="K89" s="3">
         <v>221200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>304500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>96300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>261800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>206600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>203600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>152000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>134100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>48200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>166300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-682100</v>
+        <v>-28400</v>
       </c>
       <c r="E94" s="3">
-        <v>-455000</v>
+        <v>-673200</v>
       </c>
       <c r="F94" s="3">
-        <v>184100</v>
+        <v>-449100</v>
       </c>
       <c r="G94" s="3">
-        <v>-171300</v>
+        <v>181700</v>
       </c>
       <c r="H94" s="3">
-        <v>-111500</v>
+        <v>-169000</v>
       </c>
       <c r="I94" s="3">
-        <v>-318700</v>
+        <v>-110000</v>
       </c>
       <c r="J94" s="3">
+        <v>-314600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-626500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>229000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>136200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-483600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-321300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-790700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-229200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-107200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-167600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-168800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-771600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-158200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>155100</v>
+        <v>-145300</v>
       </c>
       <c r="E100" s="3">
-        <v>-98000</v>
+        <v>153100</v>
       </c>
       <c r="F100" s="3">
-        <v>1342100</v>
+        <v>-96700</v>
       </c>
       <c r="G100" s="3">
-        <v>10200</v>
+        <v>1324600</v>
       </c>
       <c r="H100" s="3">
-        <v>46400</v>
+        <v>10100</v>
       </c>
       <c r="I100" s="3">
-        <v>2100</v>
+        <v>45800</v>
       </c>
       <c r="J100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K100" s="3">
         <v>79800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-380900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>193200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>926600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-115500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1358900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-88400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-18100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>40700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-447400</v>
+        <v>103300</v>
       </c>
       <c r="E102" s="3">
-        <v>-323100</v>
+        <v>-441600</v>
       </c>
       <c r="F102" s="3">
-        <v>1740100</v>
+        <v>-318900</v>
       </c>
       <c r="G102" s="3">
-        <v>34600</v>
+        <v>1717500</v>
       </c>
       <c r="H102" s="3">
-        <v>-34600</v>
+        <v>34200</v>
       </c>
       <c r="I102" s="3">
-        <v>34000</v>
+        <v>-34200</v>
       </c>
       <c r="J102" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-320300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>223500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-239400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>374800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-326900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-92900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-150000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-705100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1407600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1127900</v>
+        <v>1157100</v>
       </c>
       <c r="E8" s="3">
-        <v>996600</v>
+        <v>1146800</v>
       </c>
       <c r="F8" s="3">
-        <v>1271400</v>
+        <v>1013300</v>
       </c>
       <c r="G8" s="3">
-        <v>1022200</v>
+        <v>1292700</v>
       </c>
       <c r="H8" s="3">
-        <v>985800</v>
+        <v>1039400</v>
       </c>
       <c r="I8" s="3">
-        <v>603000</v>
+        <v>1002400</v>
       </c>
       <c r="J8" s="3">
+        <v>613100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1054200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>821500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>828600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>695800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>817300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>592700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>587500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>508600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>642800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>466500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>441000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>380200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>464000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>870200</v>
+        <v>911600</v>
       </c>
       <c r="E9" s="3">
-        <v>827800</v>
+        <v>884800</v>
       </c>
       <c r="F9" s="3">
-        <v>985300</v>
+        <v>841700</v>
       </c>
       <c r="G9" s="3">
-        <v>808100</v>
+        <v>1001800</v>
       </c>
       <c r="H9" s="3">
-        <v>713400</v>
+        <v>821600</v>
       </c>
       <c r="I9" s="3">
-        <v>476900</v>
+        <v>725400</v>
       </c>
       <c r="J9" s="3">
+        <v>484900</v>
+      </c>
+      <c r="K9" s="3">
         <v>746900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>572400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>558400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>504200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>592200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>407200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>383600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>441900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>297600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>274200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>274000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>295100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>257700</v>
+        <v>245500</v>
       </c>
       <c r="E10" s="3">
-        <v>168800</v>
+        <v>262000</v>
       </c>
       <c r="F10" s="3">
-        <v>286100</v>
+        <v>171700</v>
       </c>
       <c r="G10" s="3">
-        <v>214200</v>
+        <v>290900</v>
       </c>
       <c r="H10" s="3">
-        <v>272400</v>
+        <v>217800</v>
       </c>
       <c r="I10" s="3">
-        <v>126100</v>
+        <v>277000</v>
       </c>
       <c r="J10" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K10" s="3">
         <v>307400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>270200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>191600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>225100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>185500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>168900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>166800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>106300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>168900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,12 +1138,12 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1131,22 +1151,22 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>4500</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>903800</v>
+        <v>944100</v>
       </c>
       <c r="E17" s="3">
-        <v>899200</v>
+        <v>918900</v>
       </c>
       <c r="F17" s="3">
-        <v>1030000</v>
+        <v>914300</v>
       </c>
       <c r="G17" s="3">
-        <v>842200</v>
+        <v>1047300</v>
       </c>
       <c r="H17" s="3">
-        <v>732300</v>
+        <v>856300</v>
       </c>
       <c r="I17" s="3">
-        <v>545700</v>
+        <v>744600</v>
       </c>
       <c r="J17" s="3">
+        <v>554800</v>
+      </c>
+      <c r="K17" s="3">
         <v>784600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>603000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>580300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>620800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>439900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>421100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>408300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>465300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>326300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>304300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>284700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>322800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>224100</v>
+        <v>213000</v>
       </c>
       <c r="E18" s="3">
-        <v>97400</v>
+        <v>227900</v>
       </c>
       <c r="F18" s="3">
-        <v>241400</v>
+        <v>99100</v>
       </c>
       <c r="G18" s="3">
-        <v>180000</v>
+        <v>245400</v>
       </c>
       <c r="H18" s="3">
-        <v>253500</v>
+        <v>183000</v>
       </c>
       <c r="I18" s="3">
-        <v>57300</v>
+        <v>257800</v>
       </c>
       <c r="J18" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K18" s="3">
         <v>269700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>166400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>177500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>140200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>136700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>141200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,159 +1447,166 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16800</v>
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>14000</v>
+        <v>17100</v>
       </c>
       <c r="F20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>137200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>27300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>24800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>91900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>22000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>137200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>27300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>25500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>18300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>21500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>24800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>91900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="V20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>247600</v>
+        <v>222700</v>
       </c>
       <c r="E21" s="3">
-        <v>191700</v>
+        <v>251800</v>
       </c>
       <c r="F21" s="3">
-        <v>251300</v>
+        <v>194900</v>
       </c>
       <c r="G21" s="3">
-        <v>193200</v>
+        <v>255500</v>
       </c>
       <c r="H21" s="3">
-        <v>274300</v>
+        <v>196400</v>
       </c>
       <c r="I21" s="3">
-        <v>142100</v>
+        <v>278900</v>
       </c>
       <c r="J21" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K21" s="3">
         <v>418900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>246500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>255900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>176900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>223700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>179800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>259900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>130400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>183000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>144500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>143100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>178100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5200</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1589,158 +1629,167 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235700</v>
+        <v>218700</v>
       </c>
       <c r="E23" s="3">
-        <v>109100</v>
+        <v>239700</v>
       </c>
       <c r="F23" s="3">
-        <v>243000</v>
+        <v>110900</v>
       </c>
       <c r="G23" s="3">
-        <v>182900</v>
+        <v>247100</v>
       </c>
       <c r="H23" s="3">
-        <v>270100</v>
+        <v>185900</v>
       </c>
       <c r="I23" s="3">
-        <v>79200</v>
+        <v>274700</v>
       </c>
       <c r="J23" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K23" s="3">
         <v>406900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>245800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>253500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>133900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>218000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>177600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>258300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>182800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>144600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39200</v>
+        <v>35900</v>
       </c>
       <c r="E24" s="3">
-        <v>23000</v>
+        <v>39900</v>
       </c>
       <c r="F24" s="3">
-        <v>44600</v>
+        <v>23400</v>
       </c>
       <c r="G24" s="3">
-        <v>-4300</v>
+        <v>45300</v>
       </c>
       <c r="H24" s="3">
-        <v>45900</v>
+        <v>-4400</v>
       </c>
       <c r="I24" s="3">
-        <v>20000</v>
+        <v>46700</v>
       </c>
       <c r="J24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K24" s="3">
         <v>51000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>196500</v>
+        <v>182800</v>
       </c>
       <c r="E26" s="3">
-        <v>86000</v>
+        <v>199800</v>
       </c>
       <c r="F26" s="3">
-        <v>198400</v>
+        <v>87500</v>
       </c>
       <c r="G26" s="3">
-        <v>187200</v>
+        <v>201800</v>
       </c>
       <c r="H26" s="3">
-        <v>224200</v>
+        <v>190300</v>
       </c>
       <c r="I26" s="3">
-        <v>59200</v>
+        <v>228000</v>
       </c>
       <c r="J26" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K26" s="3">
         <v>355800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>204200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>209400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>149400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>209100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>181500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>106800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>108000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199000</v>
+        <v>182700</v>
       </c>
       <c r="E27" s="3">
-        <v>82200</v>
+        <v>202300</v>
       </c>
       <c r="F27" s="3">
-        <v>198300</v>
+        <v>83500</v>
       </c>
       <c r="G27" s="3">
-        <v>184900</v>
+        <v>201700</v>
       </c>
       <c r="H27" s="3">
-        <v>223000</v>
+        <v>188000</v>
       </c>
       <c r="I27" s="3">
-        <v>57700</v>
+        <v>226800</v>
       </c>
       <c r="J27" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K27" s="3">
         <v>358200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>204000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>185200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>148300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>208700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>181400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>106400</v>
       </c>
       <c r="T27" s="3">
         <v>106400</v>
       </c>
       <c r="U27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="V27" s="3">
         <v>73200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>105700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16800</v>
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>-14000</v>
+        <v>-17100</v>
       </c>
       <c r="F32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-137200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-91900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>199000</v>
+        <v>182700</v>
       </c>
       <c r="E33" s="3">
-        <v>82200</v>
+        <v>202300</v>
       </c>
       <c r="F33" s="3">
-        <v>198300</v>
+        <v>83500</v>
       </c>
       <c r="G33" s="3">
-        <v>184900</v>
+        <v>201700</v>
       </c>
       <c r="H33" s="3">
-        <v>223000</v>
+        <v>188000</v>
       </c>
       <c r="I33" s="3">
-        <v>57700</v>
+        <v>226800</v>
       </c>
       <c r="J33" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K33" s="3">
         <v>358200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>204000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>185200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>148300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>208700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>79900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>181400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>106400</v>
       </c>
       <c r="T33" s="3">
         <v>106400</v>
       </c>
       <c r="U33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="V33" s="3">
         <v>73200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>105700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>199000</v>
+        <v>182700</v>
       </c>
       <c r="E35" s="3">
-        <v>82200</v>
+        <v>202300</v>
       </c>
       <c r="F35" s="3">
-        <v>198300</v>
+        <v>83500</v>
       </c>
       <c r="G35" s="3">
-        <v>184900</v>
+        <v>201700</v>
       </c>
       <c r="H35" s="3">
-        <v>223000</v>
+        <v>188000</v>
       </c>
       <c r="I35" s="3">
-        <v>57700</v>
+        <v>226800</v>
       </c>
       <c r="J35" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K35" s="3">
         <v>358200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>204000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>185200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>148300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>208700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>79900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>181400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>106400</v>
       </c>
       <c r="T35" s="3">
         <v>106400</v>
       </c>
       <c r="U35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="V35" s="3">
         <v>73200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>105700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1862900</v>
+        <v>1621600</v>
       </c>
       <c r="E41" s="3">
-        <v>1705200</v>
+        <v>1894100</v>
       </c>
       <c r="F41" s="3">
-        <v>2188500</v>
+        <v>1733800</v>
       </c>
       <c r="G41" s="3">
-        <v>2526600</v>
+        <v>2225200</v>
       </c>
       <c r="H41" s="3">
-        <v>810200</v>
+        <v>2569000</v>
       </c>
       <c r="I41" s="3">
-        <v>773000</v>
+        <v>823800</v>
       </c>
       <c r="J41" s="3">
+        <v>786000</v>
+      </c>
+      <c r="K41" s="3">
         <v>811500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>789200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1086500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>926800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>671300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>877700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>848700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>486000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>805100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>768800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>848000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>920400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1641600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>483300</v>
+        <v>370200</v>
       </c>
       <c r="E42" s="3">
-        <v>851200</v>
+        <v>491400</v>
       </c>
       <c r="F42" s="3">
-        <v>568200</v>
+        <v>865500</v>
       </c>
       <c r="G42" s="3">
-        <v>739800</v>
+        <v>577800</v>
       </c>
       <c r="H42" s="3">
-        <v>1299300</v>
+        <v>752200</v>
       </c>
       <c r="I42" s="3">
-        <v>1557900</v>
+        <v>1321000</v>
       </c>
       <c r="J42" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1711200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1763500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1414900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1717000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1975100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1664900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1343800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>795600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>775400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>819600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>769700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>700700</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>281000</v>
+        <v>287000</v>
       </c>
       <c r="E43" s="3">
-        <v>201400</v>
+        <v>285700</v>
       </c>
       <c r="F43" s="3">
-        <v>201900</v>
+        <v>204800</v>
       </c>
       <c r="G43" s="3">
-        <v>264300</v>
+        <v>205300</v>
       </c>
       <c r="H43" s="3">
-        <v>182000</v>
+        <v>268700</v>
       </c>
       <c r="I43" s="3">
-        <v>205600</v>
+        <v>185000</v>
       </c>
       <c r="J43" s="3">
+        <v>209000</v>
+      </c>
+      <c r="K43" s="3">
         <v>194200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>172000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>177300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>171100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>162900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>120200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>209200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="E44" s="3">
-        <v>8000</v>
+        <v>6200</v>
       </c>
       <c r="F44" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G44" s="3">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="H44" s="3">
-        <v>9900</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="J44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>538000</v>
+        <v>608300</v>
       </c>
       <c r="E45" s="3">
-        <v>548100</v>
+        <v>547000</v>
       </c>
       <c r="F45" s="3">
-        <v>470700</v>
+        <v>557300</v>
       </c>
       <c r="G45" s="3">
-        <v>453400</v>
+        <v>478600</v>
       </c>
       <c r="H45" s="3">
-        <v>442200</v>
+        <v>461000</v>
       </c>
       <c r="I45" s="3">
-        <v>369400</v>
+        <v>449600</v>
       </c>
       <c r="J45" s="3">
+        <v>375600</v>
+      </c>
+      <c r="K45" s="3">
         <v>371100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>313400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>374900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>264700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>268100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>213400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>191900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>168000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>197700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>172000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>168000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>226600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>241600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3171300</v>
+        <v>2894900</v>
       </c>
       <c r="E46" s="3">
-        <v>3313900</v>
+        <v>3224400</v>
       </c>
       <c r="F46" s="3">
-        <v>3437500</v>
+        <v>3369500</v>
       </c>
       <c r="G46" s="3">
-        <v>3991900</v>
+        <v>3495100</v>
       </c>
       <c r="H46" s="3">
-        <v>2743500</v>
+        <v>4058700</v>
       </c>
       <c r="I46" s="3">
-        <v>2914500</v>
+        <v>2789500</v>
       </c>
       <c r="J46" s="3">
+        <v>2963300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3094700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3043800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3059000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3084200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3083800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2881400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2599300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1523100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1837000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1795600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1818900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1877500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1917600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1154100</v>
+        <v>1097500</v>
       </c>
       <c r="E47" s="3">
-        <v>1180300</v>
+        <v>1173500</v>
       </c>
       <c r="F47" s="3">
-        <v>1160500</v>
+        <v>1200000</v>
       </c>
       <c r="G47" s="3">
-        <v>939200</v>
+        <v>1180000</v>
       </c>
       <c r="H47" s="3">
-        <v>916300</v>
+        <v>955000</v>
       </c>
       <c r="I47" s="3">
-        <v>753000</v>
+        <v>931700</v>
       </c>
       <c r="J47" s="3">
+        <v>765600</v>
+      </c>
+      <c r="K47" s="3">
         <v>709100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>347600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>336200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>332500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>320600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>239300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>215800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>86400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>90600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>78200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>76400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>78100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3421900</v>
+        <v>3783300</v>
       </c>
       <c r="E48" s="3">
-        <v>3103900</v>
+        <v>3479300</v>
       </c>
       <c r="F48" s="3">
-        <v>2993600</v>
+        <v>3155900</v>
       </c>
       <c r="G48" s="3">
-        <v>2667100</v>
+        <v>3043700</v>
       </c>
       <c r="H48" s="3">
-        <v>2376800</v>
+        <v>2711800</v>
       </c>
       <c r="I48" s="3">
-        <v>2183600</v>
+        <v>2416600</v>
       </c>
       <c r="J48" s="3">
+        <v>2220200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2059100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1814900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1577900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1532300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1312300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1117100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1015500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>983700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>960700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>866600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>765200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>668800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>591300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1417000</v>
+        <v>1468100</v>
       </c>
       <c r="E49" s="3">
-        <v>1389300</v>
+        <v>1440700</v>
       </c>
       <c r="F49" s="3">
-        <v>1331000</v>
+        <v>1412600</v>
       </c>
       <c r="G49" s="3">
-        <v>1291900</v>
+        <v>1353300</v>
       </c>
       <c r="H49" s="3">
-        <v>1249600</v>
+        <v>1313600</v>
       </c>
       <c r="I49" s="3">
-        <v>1126500</v>
+        <v>1270600</v>
       </c>
       <c r="J49" s="3">
+        <v>1145400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1046800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1029800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>987300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>983500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>909900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>873300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>861700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>880200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>876300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>841400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>835000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>815900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>794000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269700</v>
+        <v>253600</v>
       </c>
       <c r="E52" s="3">
-        <v>268600</v>
+        <v>274200</v>
       </c>
       <c r="F52" s="3">
-        <v>193700</v>
+        <v>273100</v>
       </c>
       <c r="G52" s="3">
-        <v>179700</v>
+        <v>196900</v>
       </c>
       <c r="H52" s="3">
-        <v>178600</v>
+        <v>182800</v>
       </c>
       <c r="I52" s="3">
-        <v>175200</v>
+        <v>181600</v>
       </c>
       <c r="J52" s="3">
+        <v>178100</v>
+      </c>
+      <c r="K52" s="3">
         <v>156400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>391500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>232100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>172600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>108700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>68500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>45800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9434000</v>
+        <v>9497300</v>
       </c>
       <c r="E54" s="3">
-        <v>9256000</v>
+        <v>9592100</v>
       </c>
       <c r="F54" s="3">
-        <v>9116300</v>
+        <v>9411100</v>
       </c>
       <c r="G54" s="3">
-        <v>9069900</v>
+        <v>9269100</v>
       </c>
       <c r="H54" s="3">
-        <v>7464900</v>
+        <v>9221800</v>
       </c>
       <c r="I54" s="3">
-        <v>7152800</v>
+        <v>7590000</v>
       </c>
       <c r="J54" s="3">
+        <v>7272600</v>
+      </c>
+      <c r="K54" s="3">
         <v>7066200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6627600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6192400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6105100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5763100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5219700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3561300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3833100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3632000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3531800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3467300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3403600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,99 +3664,103 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>245800</v>
+        <v>254700</v>
       </c>
       <c r="E57" s="3">
-        <v>238900</v>
+        <v>249900</v>
       </c>
       <c r="F57" s="3">
-        <v>251900</v>
+        <v>242900</v>
       </c>
       <c r="G57" s="3">
-        <v>226100</v>
+        <v>256100</v>
       </c>
       <c r="H57" s="3">
-        <v>170300</v>
+        <v>229900</v>
       </c>
       <c r="I57" s="3">
-        <v>181200</v>
+        <v>173100</v>
       </c>
       <c r="J57" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K57" s="3">
         <v>227200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>167200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>181100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>190500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>130700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>133200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>132000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>84900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>73000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>98200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>92600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>576300</v>
+        <v>747600</v>
       </c>
       <c r="E58" s="3">
-        <v>464400</v>
+        <v>585900</v>
       </c>
       <c r="F58" s="3">
-        <v>270900</v>
+        <v>472100</v>
       </c>
       <c r="G58" s="3">
-        <v>431900</v>
+        <v>275400</v>
       </c>
       <c r="H58" s="3">
-        <v>336600</v>
+        <v>439100</v>
       </c>
       <c r="I58" s="3">
-        <v>46200</v>
+        <v>342300</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+        <v>47000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3634,8 +3768,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3647,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>37100</v>
@@ -3656,146 +3790,155 @@
         <v>37100</v>
       </c>
       <c r="U58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="V58" s="3">
         <v>101800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>65400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>916900</v>
+        <v>993900</v>
       </c>
       <c r="E59" s="3">
-        <v>1036400</v>
+        <v>932200</v>
       </c>
       <c r="F59" s="3">
-        <v>916600</v>
+        <v>1053700</v>
       </c>
       <c r="G59" s="3">
-        <v>859800</v>
+        <v>931900</v>
       </c>
       <c r="H59" s="3">
-        <v>844700</v>
+        <v>874200</v>
       </c>
       <c r="I59" s="3">
-        <v>1027400</v>
+        <v>858900</v>
       </c>
       <c r="J59" s="3">
+        <v>1044600</v>
+      </c>
+      <c r="K59" s="3">
         <v>801600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>687500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>630100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>711200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>556200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>432100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>419700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>424600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>446300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>419000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>349800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>311200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>354300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1739000</v>
+        <v>1996300</v>
       </c>
       <c r="E60" s="3">
-        <v>1739600</v>
+        <v>1768100</v>
       </c>
       <c r="F60" s="3">
-        <v>1439300</v>
+        <v>1768800</v>
       </c>
       <c r="G60" s="3">
-        <v>1517800</v>
+        <v>1463500</v>
       </c>
       <c r="H60" s="3">
-        <v>1351600</v>
+        <v>1543300</v>
       </c>
       <c r="I60" s="3">
-        <v>1254800</v>
+        <v>1374200</v>
       </c>
       <c r="J60" s="3">
+        <v>1275800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1028700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>854700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>811200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>868200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>746700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>549300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>550400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>557800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>615300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>541000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>459900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>511200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>512300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>126200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>120100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>118600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>105500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>110700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K62" s="3">
         <v>124100</v>
       </c>
-      <c r="E62" s="3">
-        <v>118100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>116600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>103800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>108900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>114700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>124100</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>95900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1880000</v>
+        <v>2151500</v>
       </c>
       <c r="E66" s="3">
-        <v>1879200</v>
+        <v>1911500</v>
       </c>
       <c r="F66" s="3">
-        <v>1574600</v>
+        <v>1910700</v>
       </c>
       <c r="G66" s="3">
-        <v>1638800</v>
+        <v>1601000</v>
       </c>
       <c r="H66" s="3">
-        <v>1478000</v>
+        <v>1666200</v>
       </c>
       <c r="I66" s="3">
-        <v>1385300</v>
+        <v>1502800</v>
       </c>
       <c r="J66" s="3">
+        <v>1408500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1168400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>965800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>919500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>999600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>793800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>588000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>584900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>592700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>651900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>571800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>491000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>535400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>532100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,10 +4570,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3412300</v>
+        <v>3280600</v>
       </c>
       <c r="E72" s="3">
-        <v>3317000</v>
+        <v>3469400</v>
       </c>
       <c r="F72" s="3">
-        <v>3239500</v>
+        <v>3372600</v>
       </c>
       <c r="G72" s="3">
-        <v>3041200</v>
+        <v>3293800</v>
       </c>
       <c r="H72" s="3">
-        <v>2856300</v>
+        <v>3092200</v>
       </c>
       <c r="I72" s="3">
-        <v>2633200</v>
+        <v>2904100</v>
       </c>
       <c r="J72" s="3">
+        <v>2677400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2575600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2246600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2000300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1784800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1605100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1368400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1220100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1036800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>989800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>808400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>702000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>583600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>510400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7554100</v>
+        <v>7345800</v>
       </c>
       <c r="E76" s="3">
-        <v>7376900</v>
+        <v>7680600</v>
       </c>
       <c r="F76" s="3">
-        <v>7541800</v>
+        <v>7500500</v>
       </c>
       <c r="G76" s="3">
-        <v>7431100</v>
+        <v>7668100</v>
       </c>
       <c r="H76" s="3">
-        <v>5986900</v>
+        <v>7555600</v>
       </c>
       <c r="I76" s="3">
-        <v>5767500</v>
+        <v>6087200</v>
       </c>
       <c r="J76" s="3">
+        <v>5864200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5897800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5661800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5272900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5105500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4969400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4631700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4215500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2968500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3181200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3060200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3040800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2931800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2871500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>199000</v>
+        <v>182700</v>
       </c>
       <c r="E81" s="3">
-        <v>82200</v>
+        <v>202300</v>
       </c>
       <c r="F81" s="3">
-        <v>198300</v>
+        <v>83500</v>
       </c>
       <c r="G81" s="3">
-        <v>184900</v>
+        <v>201700</v>
       </c>
       <c r="H81" s="3">
-        <v>223000</v>
+        <v>188000</v>
       </c>
       <c r="I81" s="3">
-        <v>57700</v>
+        <v>226800</v>
       </c>
       <c r="J81" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K81" s="3">
         <v>358200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>204000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>185200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>148300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>208700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>79900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>181400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>106400</v>
       </c>
       <c r="T81" s="3">
         <v>106400</v>
       </c>
       <c r="U81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="V81" s="3">
         <v>73200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>105700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>297600</v>
+        <v>279800</v>
       </c>
       <c r="E89" s="3">
-        <v>73400</v>
+        <v>302500</v>
       </c>
       <c r="F89" s="3">
-        <v>314200</v>
+        <v>74700</v>
       </c>
       <c r="G89" s="3">
-        <v>228000</v>
+        <v>319400</v>
       </c>
       <c r="H89" s="3">
-        <v>192800</v>
+        <v>231800</v>
       </c>
       <c r="I89" s="3">
-        <v>27400</v>
+        <v>196100</v>
       </c>
       <c r="J89" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K89" s="3">
         <v>348100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>221200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>304500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>261800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>203600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>152000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>134100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>48200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>166300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28400</v>
+        <v>-217000</v>
       </c>
       <c r="E94" s="3">
-        <v>-673200</v>
+        <v>-28900</v>
       </c>
       <c r="F94" s="3">
-        <v>-449100</v>
+        <v>-684500</v>
       </c>
       <c r="G94" s="3">
-        <v>181700</v>
+        <v>-456600</v>
       </c>
       <c r="H94" s="3">
-        <v>-169000</v>
+        <v>184700</v>
       </c>
       <c r="I94" s="3">
-        <v>-110000</v>
+        <v>-171900</v>
       </c>
       <c r="J94" s="3">
+        <v>-111900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-314600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-626500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>229000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>136200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-483600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-321300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-790700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-229200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-167600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-168800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-771600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-158200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-145300</v>
+        <v>-339300</v>
       </c>
       <c r="E100" s="3">
-        <v>153100</v>
+        <v>-147700</v>
       </c>
       <c r="F100" s="3">
-        <v>-96700</v>
+        <v>155600</v>
       </c>
       <c r="G100" s="3">
-        <v>1324600</v>
+        <v>-98300</v>
       </c>
       <c r="H100" s="3">
-        <v>10100</v>
+        <v>1346800</v>
       </c>
       <c r="I100" s="3">
-        <v>45800</v>
+        <v>10200</v>
       </c>
       <c r="J100" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>79800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-380900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>193200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>926600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-115500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-104800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1358900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20600</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>-21000</v>
       </c>
       <c r="F101" s="3">
-        <v>-87200</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>-16800</v>
+        <v>-88700</v>
       </c>
       <c r="H101" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-18100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>40700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103300</v>
+        <v>-276700</v>
       </c>
       <c r="E102" s="3">
-        <v>-441600</v>
+        <v>105000</v>
       </c>
       <c r="F102" s="3">
-        <v>-318900</v>
+        <v>-449000</v>
       </c>
       <c r="G102" s="3">
-        <v>1717500</v>
+        <v>-324200</v>
       </c>
       <c r="H102" s="3">
-        <v>34200</v>
+        <v>1746200</v>
       </c>
       <c r="I102" s="3">
-        <v>-34200</v>
+        <v>34700</v>
       </c>
       <c r="J102" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K102" s="3">
         <v>33500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-320300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>223500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-239400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>374800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-326900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-92900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-150000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-705100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1407600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1157100</v>
+        <v>1166000</v>
       </c>
       <c r="E8" s="3">
-        <v>1146800</v>
+        <v>1155600</v>
       </c>
       <c r="F8" s="3">
-        <v>1013300</v>
+        <v>1021100</v>
       </c>
       <c r="G8" s="3">
-        <v>1292700</v>
+        <v>1302600</v>
       </c>
       <c r="H8" s="3">
-        <v>1039400</v>
+        <v>1047300</v>
       </c>
       <c r="I8" s="3">
-        <v>1002400</v>
+        <v>1010000</v>
       </c>
       <c r="J8" s="3">
-        <v>613100</v>
+        <v>617800</v>
       </c>
       <c r="K8" s="3">
         <v>1054200</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>911600</v>
+        <v>918500</v>
       </c>
       <c r="E9" s="3">
-        <v>884800</v>
+        <v>891600</v>
       </c>
       <c r="F9" s="3">
-        <v>841700</v>
+        <v>848100</v>
       </c>
       <c r="G9" s="3">
-        <v>1001800</v>
+        <v>1009500</v>
       </c>
       <c r="H9" s="3">
-        <v>821600</v>
+        <v>827900</v>
       </c>
       <c r="I9" s="3">
-        <v>725400</v>
+        <v>730900</v>
       </c>
       <c r="J9" s="3">
-        <v>484900</v>
+        <v>488600</v>
       </c>
       <c r="K9" s="3">
         <v>746900</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>245500</v>
+        <v>247400</v>
       </c>
       <c r="E10" s="3">
-        <v>262000</v>
+        <v>264000</v>
       </c>
       <c r="F10" s="3">
-        <v>171700</v>
+        <v>173000</v>
       </c>
       <c r="G10" s="3">
-        <v>290900</v>
+        <v>293200</v>
       </c>
       <c r="H10" s="3">
-        <v>217800</v>
+        <v>219400</v>
       </c>
       <c r="I10" s="3">
-        <v>277000</v>
+        <v>279100</v>
       </c>
       <c r="J10" s="3">
-        <v>128200</v>
+        <v>129200</v>
       </c>
       <c r="K10" s="3">
         <v>307400</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>944100</v>
+        <v>951300</v>
       </c>
       <c r="E17" s="3">
-        <v>918900</v>
+        <v>926000</v>
       </c>
       <c r="F17" s="3">
-        <v>914300</v>
+        <v>921300</v>
       </c>
       <c r="G17" s="3">
-        <v>1047300</v>
+        <v>1055300</v>
       </c>
       <c r="H17" s="3">
-        <v>856300</v>
+        <v>862900</v>
       </c>
       <c r="I17" s="3">
-        <v>744600</v>
+        <v>750300</v>
       </c>
       <c r="J17" s="3">
-        <v>554800</v>
+        <v>559100</v>
       </c>
       <c r="K17" s="3">
         <v>784600</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>213000</v>
+        <v>214600</v>
       </c>
       <c r="E18" s="3">
-        <v>227900</v>
+        <v>229700</v>
       </c>
       <c r="F18" s="3">
-        <v>99100</v>
+        <v>99800</v>
       </c>
       <c r="G18" s="3">
-        <v>245400</v>
+        <v>247300</v>
       </c>
       <c r="H18" s="3">
-        <v>183000</v>
+        <v>184400</v>
       </c>
       <c r="I18" s="3">
-        <v>257800</v>
+        <v>259800</v>
       </c>
       <c r="J18" s="3">
-        <v>58200</v>
+        <v>58700</v>
       </c>
       <c r="K18" s="3">
         <v>269700</v>
@@ -1454,13 +1454,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="E20" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="G20" s="3">
         <v>3600</v>
@@ -1469,10 +1469,10 @@
         <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J20" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="K20" s="3">
         <v>137200</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>222700</v>
+        <v>224400</v>
       </c>
       <c r="E21" s="3">
-        <v>251800</v>
+        <v>253700</v>
       </c>
       <c r="F21" s="3">
-        <v>194900</v>
+        <v>196400</v>
       </c>
       <c r="G21" s="3">
-        <v>255500</v>
+        <v>257500</v>
       </c>
       <c r="H21" s="3">
-        <v>196400</v>
+        <v>197900</v>
       </c>
       <c r="I21" s="3">
-        <v>278900</v>
+        <v>281000</v>
       </c>
       <c r="J21" s="3">
-        <v>144500</v>
+        <v>145600</v>
       </c>
       <c r="K21" s="3">
         <v>418900</v>
@@ -1596,13 +1596,13 @@
         <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="3">
         <v>1900</v>
       </c>
       <c r="H22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>218700</v>
+        <v>220400</v>
       </c>
       <c r="E23" s="3">
-        <v>239700</v>
+        <v>241500</v>
       </c>
       <c r="F23" s="3">
-        <v>110900</v>
+        <v>111700</v>
       </c>
       <c r="G23" s="3">
-        <v>247100</v>
+        <v>249000</v>
       </c>
       <c r="H23" s="3">
-        <v>185900</v>
+        <v>187400</v>
       </c>
       <c r="I23" s="3">
-        <v>274700</v>
+        <v>276800</v>
       </c>
       <c r="J23" s="3">
-        <v>80500</v>
+        <v>81200</v>
       </c>
       <c r="K23" s="3">
         <v>406900</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35900</v>
+        <v>36200</v>
       </c>
       <c r="E24" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="F24" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="G24" s="3">
-        <v>45300</v>
+        <v>45700</v>
       </c>
       <c r="H24" s="3">
         <v>-4400</v>
       </c>
       <c r="I24" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="J24" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="K24" s="3">
         <v>51000</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>182800</v>
+        <v>184200</v>
       </c>
       <c r="E26" s="3">
-        <v>199800</v>
+        <v>201300</v>
       </c>
       <c r="F26" s="3">
-        <v>87500</v>
+        <v>88100</v>
       </c>
       <c r="G26" s="3">
-        <v>201800</v>
+        <v>203300</v>
       </c>
       <c r="H26" s="3">
-        <v>190300</v>
+        <v>191800</v>
       </c>
       <c r="I26" s="3">
-        <v>228000</v>
+        <v>229700</v>
       </c>
       <c r="J26" s="3">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="K26" s="3">
         <v>355800</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>182700</v>
+        <v>184100</v>
       </c>
       <c r="E27" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F27" s="3">
-        <v>83500</v>
+        <v>84200</v>
       </c>
       <c r="G27" s="3">
-        <v>201700</v>
+        <v>203200</v>
       </c>
       <c r="H27" s="3">
-        <v>188000</v>
+        <v>189500</v>
       </c>
       <c r="I27" s="3">
-        <v>226800</v>
+        <v>228500</v>
       </c>
       <c r="J27" s="3">
-        <v>58700</v>
+        <v>59100</v>
       </c>
       <c r="K27" s="3">
         <v>358200</v>
@@ -2270,13 +2270,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="E32" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="G32" s="3">
         <v>-3600</v>
@@ -2285,10 +2285,10 @@
         <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="J32" s="3">
-        <v>-22300</v>
+        <v>-22500</v>
       </c>
       <c r="K32" s="3">
         <v>-137200</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>182700</v>
+        <v>184100</v>
       </c>
       <c r="E33" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F33" s="3">
-        <v>83500</v>
+        <v>84200</v>
       </c>
       <c r="G33" s="3">
-        <v>201700</v>
+        <v>203200</v>
       </c>
       <c r="H33" s="3">
-        <v>188000</v>
+        <v>189500</v>
       </c>
       <c r="I33" s="3">
-        <v>226800</v>
+        <v>228500</v>
       </c>
       <c r="J33" s="3">
-        <v>58700</v>
+        <v>59100</v>
       </c>
       <c r="K33" s="3">
         <v>358200</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>182700</v>
+        <v>184100</v>
       </c>
       <c r="E35" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F35" s="3">
-        <v>83500</v>
+        <v>84200</v>
       </c>
       <c r="G35" s="3">
-        <v>201700</v>
+        <v>203200</v>
       </c>
       <c r="H35" s="3">
-        <v>188000</v>
+        <v>189500</v>
       </c>
       <c r="I35" s="3">
-        <v>226800</v>
+        <v>228500</v>
       </c>
       <c r="J35" s="3">
-        <v>58700</v>
+        <v>59100</v>
       </c>
       <c r="K35" s="3">
         <v>358200</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1621600</v>
+        <v>1634000</v>
       </c>
       <c r="E41" s="3">
-        <v>1894100</v>
+        <v>1908700</v>
       </c>
       <c r="F41" s="3">
-        <v>1733800</v>
+        <v>1747100</v>
       </c>
       <c r="G41" s="3">
-        <v>2225200</v>
+        <v>2242200</v>
       </c>
       <c r="H41" s="3">
-        <v>2569000</v>
+        <v>2588700</v>
       </c>
       <c r="I41" s="3">
-        <v>823800</v>
+        <v>830100</v>
       </c>
       <c r="J41" s="3">
-        <v>786000</v>
+        <v>792000</v>
       </c>
       <c r="K41" s="3">
         <v>811500</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>370200</v>
+        <v>373000</v>
       </c>
       <c r="E42" s="3">
-        <v>491400</v>
+        <v>495200</v>
       </c>
       <c r="F42" s="3">
-        <v>865500</v>
+        <v>872100</v>
       </c>
       <c r="G42" s="3">
-        <v>577800</v>
+        <v>582200</v>
       </c>
       <c r="H42" s="3">
-        <v>752200</v>
+        <v>758000</v>
       </c>
       <c r="I42" s="3">
-        <v>1321000</v>
+        <v>1331200</v>
       </c>
       <c r="J42" s="3">
-        <v>1584000</v>
+        <v>1596100</v>
       </c>
       <c r="K42" s="3">
         <v>1711200</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>287000</v>
+        <v>289200</v>
       </c>
       <c r="E43" s="3">
-        <v>285700</v>
+        <v>287800</v>
       </c>
       <c r="F43" s="3">
-        <v>204800</v>
+        <v>206400</v>
       </c>
       <c r="G43" s="3">
-        <v>205300</v>
+        <v>206900</v>
       </c>
       <c r="H43" s="3">
-        <v>268700</v>
+        <v>270800</v>
       </c>
       <c r="I43" s="3">
-        <v>185000</v>
+        <v>186400</v>
       </c>
       <c r="J43" s="3">
-        <v>209000</v>
+        <v>210600</v>
       </c>
       <c r="K43" s="3">
         <v>194200</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
         <v>6200</v>
       </c>
       <c r="F44" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G44" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H44" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I44" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J44" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="K44" s="3">
         <v>6800</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>608300</v>
+        <v>613000</v>
       </c>
       <c r="E45" s="3">
-        <v>547000</v>
+        <v>551200</v>
       </c>
       <c r="F45" s="3">
-        <v>557300</v>
+        <v>561500</v>
       </c>
       <c r="G45" s="3">
-        <v>478600</v>
+        <v>482300</v>
       </c>
       <c r="H45" s="3">
-        <v>461000</v>
+        <v>464600</v>
       </c>
       <c r="I45" s="3">
-        <v>449600</v>
+        <v>453100</v>
       </c>
       <c r="J45" s="3">
-        <v>375600</v>
+        <v>378400</v>
       </c>
       <c r="K45" s="3">
         <v>371100</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2894900</v>
+        <v>2917100</v>
       </c>
       <c r="E46" s="3">
-        <v>3224400</v>
+        <v>3249100</v>
       </c>
       <c r="F46" s="3">
-        <v>3369500</v>
+        <v>3395300</v>
       </c>
       <c r="G46" s="3">
-        <v>3495100</v>
+        <v>3521900</v>
       </c>
       <c r="H46" s="3">
-        <v>4058700</v>
+        <v>4089900</v>
       </c>
       <c r="I46" s="3">
-        <v>2789500</v>
+        <v>2810900</v>
       </c>
       <c r="J46" s="3">
-        <v>2963300</v>
+        <v>2986000</v>
       </c>
       <c r="K46" s="3">
         <v>3094700</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1097500</v>
+        <v>1105900</v>
       </c>
       <c r="E47" s="3">
-        <v>1173500</v>
+        <v>1182500</v>
       </c>
       <c r="F47" s="3">
-        <v>1200000</v>
+        <v>1209200</v>
       </c>
       <c r="G47" s="3">
-        <v>1180000</v>
+        <v>1189000</v>
       </c>
       <c r="H47" s="3">
-        <v>955000</v>
+        <v>962300</v>
       </c>
       <c r="I47" s="3">
-        <v>931700</v>
+        <v>938800</v>
       </c>
       <c r="J47" s="3">
-        <v>765600</v>
+        <v>771500</v>
       </c>
       <c r="K47" s="3">
         <v>709100</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3783300</v>
+        <v>3812300</v>
       </c>
       <c r="E48" s="3">
-        <v>3479300</v>
+        <v>3505900</v>
       </c>
       <c r="F48" s="3">
-        <v>3155900</v>
+        <v>3180100</v>
       </c>
       <c r="G48" s="3">
-        <v>3043700</v>
+        <v>3067100</v>
       </c>
       <c r="H48" s="3">
-        <v>2711800</v>
+        <v>2732600</v>
       </c>
       <c r="I48" s="3">
-        <v>2416600</v>
+        <v>2435200</v>
       </c>
       <c r="J48" s="3">
-        <v>2220200</v>
+        <v>2237200</v>
       </c>
       <c r="K48" s="3">
         <v>2059100</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1468100</v>
+        <v>1479400</v>
       </c>
       <c r="E49" s="3">
-        <v>1440700</v>
+        <v>1451800</v>
       </c>
       <c r="F49" s="3">
-        <v>1412600</v>
+        <v>1423400</v>
       </c>
       <c r="G49" s="3">
-        <v>1353300</v>
+        <v>1363700</v>
       </c>
       <c r="H49" s="3">
-        <v>1313600</v>
+        <v>1323600</v>
       </c>
       <c r="I49" s="3">
-        <v>1270600</v>
+        <v>1280300</v>
       </c>
       <c r="J49" s="3">
-        <v>1145400</v>
+        <v>1154200</v>
       </c>
       <c r="K49" s="3">
         <v>1046800</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>253600</v>
+        <v>255500</v>
       </c>
       <c r="E52" s="3">
-        <v>274200</v>
+        <v>276300</v>
       </c>
       <c r="F52" s="3">
-        <v>273100</v>
+        <v>275200</v>
       </c>
       <c r="G52" s="3">
-        <v>196900</v>
+        <v>198400</v>
       </c>
       <c r="H52" s="3">
-        <v>182800</v>
+        <v>184200</v>
       </c>
       <c r="I52" s="3">
-        <v>181600</v>
+        <v>183000</v>
       </c>
       <c r="J52" s="3">
-        <v>178100</v>
+        <v>179500</v>
       </c>
       <c r="K52" s="3">
         <v>156400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9497300</v>
+        <v>9570100</v>
       </c>
       <c r="E54" s="3">
-        <v>9592100</v>
+        <v>9665600</v>
       </c>
       <c r="F54" s="3">
-        <v>9411100</v>
+        <v>9483300</v>
       </c>
       <c r="G54" s="3">
-        <v>9269100</v>
+        <v>9340100</v>
       </c>
       <c r="H54" s="3">
-        <v>9221800</v>
+        <v>9292500</v>
       </c>
       <c r="I54" s="3">
-        <v>7590000</v>
+        <v>7648200</v>
       </c>
       <c r="J54" s="3">
-        <v>7272600</v>
+        <v>7328400</v>
       </c>
       <c r="K54" s="3">
         <v>7066200</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>254700</v>
+        <v>256700</v>
       </c>
       <c r="E57" s="3">
-        <v>249900</v>
+        <v>251900</v>
       </c>
       <c r="F57" s="3">
-        <v>242900</v>
+        <v>244700</v>
       </c>
       <c r="G57" s="3">
-        <v>256100</v>
+        <v>258100</v>
       </c>
       <c r="H57" s="3">
-        <v>229900</v>
+        <v>231700</v>
       </c>
       <c r="I57" s="3">
-        <v>173100</v>
+        <v>174400</v>
       </c>
       <c r="J57" s="3">
-        <v>184200</v>
+        <v>185600</v>
       </c>
       <c r="K57" s="3">
         <v>227200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>747600</v>
+        <v>753400</v>
       </c>
       <c r="E58" s="3">
-        <v>585900</v>
+        <v>590400</v>
       </c>
       <c r="F58" s="3">
-        <v>472100</v>
+        <v>475800</v>
       </c>
       <c r="G58" s="3">
-        <v>275400</v>
+        <v>277500</v>
       </c>
       <c r="H58" s="3">
-        <v>439100</v>
+        <v>442500</v>
       </c>
       <c r="I58" s="3">
-        <v>342300</v>
+        <v>344900</v>
       </c>
       <c r="J58" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>993900</v>
+        <v>1001500</v>
       </c>
       <c r="E59" s="3">
-        <v>932200</v>
+        <v>939400</v>
       </c>
       <c r="F59" s="3">
-        <v>1053700</v>
+        <v>1061800</v>
       </c>
       <c r="G59" s="3">
-        <v>931900</v>
+        <v>939100</v>
       </c>
       <c r="H59" s="3">
-        <v>874200</v>
+        <v>880900</v>
       </c>
       <c r="I59" s="3">
-        <v>858900</v>
+        <v>865500</v>
       </c>
       <c r="J59" s="3">
-        <v>1044600</v>
+        <v>1052600</v>
       </c>
       <c r="K59" s="3">
         <v>801600</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1996300</v>
+        <v>2011600</v>
       </c>
       <c r="E60" s="3">
-        <v>1768100</v>
+        <v>1781700</v>
       </c>
       <c r="F60" s="3">
-        <v>1768800</v>
+        <v>1782300</v>
       </c>
       <c r="G60" s="3">
-        <v>1463500</v>
+        <v>1474700</v>
       </c>
       <c r="H60" s="3">
-        <v>1543300</v>
+        <v>1555100</v>
       </c>
       <c r="I60" s="3">
-        <v>1374200</v>
+        <v>1384800</v>
       </c>
       <c r="J60" s="3">
-        <v>1275800</v>
+        <v>1285600</v>
       </c>
       <c r="K60" s="3">
         <v>1028700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>132500</v>
+        <v>133500</v>
       </c>
       <c r="E62" s="3">
-        <v>126200</v>
+        <v>127200</v>
       </c>
       <c r="F62" s="3">
-        <v>120100</v>
+        <v>121000</v>
       </c>
       <c r="G62" s="3">
-        <v>118600</v>
+        <v>119500</v>
       </c>
       <c r="H62" s="3">
-        <v>105500</v>
+        <v>106300</v>
       </c>
       <c r="I62" s="3">
-        <v>110700</v>
+        <v>111600</v>
       </c>
       <c r="J62" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="K62" s="3">
         <v>124100</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2151500</v>
+        <v>2168000</v>
       </c>
       <c r="E66" s="3">
-        <v>1911500</v>
+        <v>1926100</v>
       </c>
       <c r="F66" s="3">
-        <v>1910700</v>
+        <v>1925300</v>
       </c>
       <c r="G66" s="3">
-        <v>1601000</v>
+        <v>1613200</v>
       </c>
       <c r="H66" s="3">
-        <v>1666200</v>
+        <v>1679000</v>
       </c>
       <c r="I66" s="3">
-        <v>1502800</v>
+        <v>1514300</v>
       </c>
       <c r="J66" s="3">
-        <v>1408500</v>
+        <v>1419300</v>
       </c>
       <c r="K66" s="3">
         <v>1168400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3280600</v>
+        <v>3305800</v>
       </c>
       <c r="E72" s="3">
-        <v>3469400</v>
+        <v>3496000</v>
       </c>
       <c r="F72" s="3">
-        <v>3372600</v>
+        <v>3398400</v>
       </c>
       <c r="G72" s="3">
-        <v>3293800</v>
+        <v>3319100</v>
       </c>
       <c r="H72" s="3">
-        <v>3092200</v>
+        <v>3115900</v>
       </c>
       <c r="I72" s="3">
-        <v>2904100</v>
+        <v>2926400</v>
       </c>
       <c r="J72" s="3">
-        <v>2677400</v>
+        <v>2697900</v>
       </c>
       <c r="K72" s="3">
         <v>2575600</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7345800</v>
+        <v>7402100</v>
       </c>
       <c r="E76" s="3">
-        <v>7680600</v>
+        <v>7739500</v>
       </c>
       <c r="F76" s="3">
-        <v>7500500</v>
+        <v>7557900</v>
       </c>
       <c r="G76" s="3">
-        <v>7668100</v>
+        <v>7726900</v>
       </c>
       <c r="H76" s="3">
-        <v>7555600</v>
+        <v>7613500</v>
       </c>
       <c r="I76" s="3">
-        <v>6087200</v>
+        <v>6133900</v>
       </c>
       <c r="J76" s="3">
-        <v>5864200</v>
+        <v>5909100</v>
       </c>
       <c r="K76" s="3">
         <v>5897800</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>182700</v>
+        <v>184100</v>
       </c>
       <c r="E81" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F81" s="3">
-        <v>83500</v>
+        <v>84200</v>
       </c>
       <c r="G81" s="3">
-        <v>201700</v>
+        <v>203200</v>
       </c>
       <c r="H81" s="3">
-        <v>188000</v>
+        <v>189500</v>
       </c>
       <c r="I81" s="3">
-        <v>226800</v>
+        <v>228500</v>
       </c>
       <c r="J81" s="3">
-        <v>58700</v>
+        <v>59100</v>
       </c>
       <c r="K81" s="3">
         <v>358200</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>279800</v>
+        <v>281900</v>
       </c>
       <c r="E89" s="3">
-        <v>302500</v>
+        <v>304900</v>
       </c>
       <c r="F89" s="3">
-        <v>74700</v>
+        <v>75200</v>
       </c>
       <c r="G89" s="3">
-        <v>319400</v>
+        <v>321900</v>
       </c>
       <c r="H89" s="3">
-        <v>231800</v>
+        <v>233600</v>
       </c>
       <c r="I89" s="3">
-        <v>196100</v>
+        <v>197600</v>
       </c>
       <c r="J89" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="K89" s="3">
         <v>348100</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217000</v>
+        <v>-218600</v>
       </c>
       <c r="E94" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="F94" s="3">
-        <v>-684500</v>
+        <v>-689700</v>
       </c>
       <c r="G94" s="3">
-        <v>-456600</v>
+        <v>-460100</v>
       </c>
       <c r="H94" s="3">
-        <v>184700</v>
+        <v>186100</v>
       </c>
       <c r="I94" s="3">
-        <v>-171900</v>
+        <v>-173200</v>
       </c>
       <c r="J94" s="3">
-        <v>-111900</v>
+        <v>-112800</v>
       </c>
       <c r="K94" s="3">
         <v>-314600</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-339300</v>
+        <v>-341900</v>
       </c>
       <c r="E100" s="3">
-        <v>-147700</v>
+        <v>-148800</v>
       </c>
       <c r="F100" s="3">
-        <v>155600</v>
+        <v>156800</v>
       </c>
       <c r="G100" s="3">
-        <v>-98300</v>
+        <v>-99100</v>
       </c>
       <c r="H100" s="3">
-        <v>1346800</v>
+        <v>1357100</v>
       </c>
       <c r="I100" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="J100" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="K100" s="3">
         <v>2000</v>
@@ -6367,16 +6367,16 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="F101" s="3">
         <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>-88700</v>
+        <v>-89300</v>
       </c>
       <c r="H101" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-276700</v>
+        <v>-278900</v>
       </c>
       <c r="E102" s="3">
-        <v>105000</v>
+        <v>105800</v>
       </c>
       <c r="F102" s="3">
-        <v>-449000</v>
+        <v>-452400</v>
       </c>
       <c r="G102" s="3">
-        <v>-324200</v>
+        <v>-326700</v>
       </c>
       <c r="H102" s="3">
-        <v>1746200</v>
+        <v>1759600</v>
       </c>
       <c r="I102" s="3">
-        <v>34700</v>
+        <v>35000</v>
       </c>
       <c r="J102" s="3">
-        <v>-34700</v>
+        <v>-35000</v>
       </c>
       <c r="K102" s="3">
         <v>33500</v>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1166000</v>
+        <v>1358300</v>
       </c>
       <c r="E8" s="3">
-        <v>1155600</v>
+        <v>1089100</v>
       </c>
       <c r="F8" s="3">
-        <v>1021100</v>
+        <v>1079400</v>
       </c>
       <c r="G8" s="3">
-        <v>1302600</v>
+        <v>953800</v>
       </c>
       <c r="H8" s="3">
-        <v>1047300</v>
+        <v>1216800</v>
       </c>
       <c r="I8" s="3">
-        <v>1010000</v>
+        <v>978300</v>
       </c>
       <c r="J8" s="3">
+        <v>943500</v>
+      </c>
+      <c r="K8" s="3">
         <v>617800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1054200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>821500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>828600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>695800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>817300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>592700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>508600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>642800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>466500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>441000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>380200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>464000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>918500</v>
+        <v>1026600</v>
       </c>
       <c r="E9" s="3">
-        <v>891600</v>
+        <v>858000</v>
       </c>
       <c r="F9" s="3">
-        <v>848100</v>
+        <v>832800</v>
       </c>
       <c r="G9" s="3">
-        <v>1009500</v>
+        <v>792200</v>
       </c>
       <c r="H9" s="3">
-        <v>827900</v>
+        <v>942900</v>
       </c>
       <c r="I9" s="3">
-        <v>730900</v>
+        <v>773300</v>
       </c>
       <c r="J9" s="3">
+        <v>682800</v>
+      </c>
+      <c r="K9" s="3">
         <v>488600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>746900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>572400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>558400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>504200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>592200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>407200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>383600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>441900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>297600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>274200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>274000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>295100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>247400</v>
+        <v>331700</v>
       </c>
       <c r="E10" s="3">
-        <v>264000</v>
+        <v>231100</v>
       </c>
       <c r="F10" s="3">
-        <v>173000</v>
+        <v>246600</v>
       </c>
       <c r="G10" s="3">
-        <v>293200</v>
+        <v>161600</v>
       </c>
       <c r="H10" s="3">
-        <v>219400</v>
+        <v>273800</v>
       </c>
       <c r="I10" s="3">
-        <v>279100</v>
+        <v>205000</v>
       </c>
       <c r="J10" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K10" s="3">
         <v>129200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>270200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>191600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>185500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>204000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>168900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>166800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>106300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>168900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,12 +1160,12 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1154,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>4500</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>951300</v>
+        <v>1055300</v>
       </c>
       <c r="E17" s="3">
-        <v>926000</v>
+        <v>888600</v>
       </c>
       <c r="F17" s="3">
-        <v>921300</v>
+        <v>864900</v>
       </c>
       <c r="G17" s="3">
-        <v>1055300</v>
+        <v>860500</v>
       </c>
       <c r="H17" s="3">
-        <v>862900</v>
+        <v>985800</v>
       </c>
       <c r="I17" s="3">
-        <v>750300</v>
+        <v>806000</v>
       </c>
       <c r="J17" s="3">
+        <v>700800</v>
+      </c>
+      <c r="K17" s="3">
         <v>559100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>784600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>580300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>620800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>439900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>421100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>408300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>465300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>326300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>304300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>284700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>322800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>214600</v>
+        <v>303000</v>
       </c>
       <c r="E18" s="3">
-        <v>229700</v>
+        <v>200500</v>
       </c>
       <c r="F18" s="3">
-        <v>99800</v>
+        <v>214500</v>
       </c>
       <c r="G18" s="3">
-        <v>247300</v>
+        <v>93300</v>
       </c>
       <c r="H18" s="3">
-        <v>184400</v>
+        <v>231000</v>
       </c>
       <c r="I18" s="3">
-        <v>259800</v>
+        <v>172300</v>
       </c>
       <c r="J18" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K18" s="3">
         <v>58700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>269700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>196500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>166400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>177500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>140200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>136700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>95500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>141200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,167 +1480,174 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="E20" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J20" s="3">
         <v>17200</v>
       </c>
-      <c r="F20" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>18400</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>137200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>91900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224400</v>
+        <v>321400</v>
       </c>
       <c r="E21" s="3">
-        <v>253700</v>
+        <v>209600</v>
       </c>
       <c r="F21" s="3">
-        <v>196400</v>
+        <v>237000</v>
       </c>
       <c r="G21" s="3">
-        <v>257500</v>
+        <v>183500</v>
       </c>
       <c r="H21" s="3">
-        <v>197900</v>
+        <v>240500</v>
       </c>
       <c r="I21" s="3">
-        <v>281000</v>
+        <v>184900</v>
       </c>
       <c r="J21" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K21" s="3">
         <v>145600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>418900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>246500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>255900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>176900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>223700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>179800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>259900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>130400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>183000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>144500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>143100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>178100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8200</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="H22" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1632,164 +1671,173 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>220400</v>
+        <v>309900</v>
       </c>
       <c r="E23" s="3">
-        <v>241500</v>
+        <v>205900</v>
       </c>
       <c r="F23" s="3">
-        <v>111700</v>
+        <v>225600</v>
       </c>
       <c r="G23" s="3">
-        <v>249000</v>
+        <v>104400</v>
       </c>
       <c r="H23" s="3">
-        <v>187400</v>
+        <v>232600</v>
       </c>
       <c r="I23" s="3">
-        <v>276800</v>
+        <v>175000</v>
       </c>
       <c r="J23" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K23" s="3">
         <v>81200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>406900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>245800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>253500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>133900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>218000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>177600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>258300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>182800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>144600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36200</v>
+        <v>54700</v>
       </c>
       <c r="E24" s="3">
-        <v>40200</v>
+        <v>33800</v>
       </c>
       <c r="F24" s="3">
-        <v>23600</v>
+        <v>37600</v>
       </c>
       <c r="G24" s="3">
-        <v>45700</v>
+        <v>22100</v>
       </c>
       <c r="H24" s="3">
-        <v>-4400</v>
+        <v>42700</v>
       </c>
       <c r="I24" s="3">
-        <v>47100</v>
+        <v>-4100</v>
       </c>
       <c r="J24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K24" s="3">
         <v>20500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>49100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>184200</v>
+        <v>255200</v>
       </c>
       <c r="E26" s="3">
-        <v>201300</v>
+        <v>172000</v>
       </c>
       <c r="F26" s="3">
-        <v>88100</v>
+        <v>188000</v>
       </c>
       <c r="G26" s="3">
-        <v>203300</v>
+        <v>82300</v>
       </c>
       <c r="H26" s="3">
-        <v>191800</v>
+        <v>189900</v>
       </c>
       <c r="I26" s="3">
-        <v>229700</v>
+        <v>179100</v>
       </c>
       <c r="J26" s="3">
+        <v>214600</v>
+      </c>
+      <c r="K26" s="3">
         <v>60700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>355800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>209400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>185700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>149400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>209100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>81300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>181500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>106800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>108000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>184100</v>
+        <v>259700</v>
       </c>
       <c r="E27" s="3">
-        <v>203900</v>
+        <v>171900</v>
       </c>
       <c r="F27" s="3">
-        <v>84200</v>
+        <v>190400</v>
       </c>
       <c r="G27" s="3">
-        <v>203200</v>
+        <v>78600</v>
       </c>
       <c r="H27" s="3">
-        <v>189500</v>
+        <v>189800</v>
       </c>
       <c r="I27" s="3">
-        <v>228500</v>
+        <v>177000</v>
       </c>
       <c r="J27" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K27" s="3">
         <v>59100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>358200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>207700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>185200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>148300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>208700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>181400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>106400</v>
       </c>
       <c r="U27" s="3">
         <v>106400</v>
       </c>
       <c r="V27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="W27" s="3">
         <v>73200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>105700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14000</v>
+        <v>-10500</v>
       </c>
       <c r="E32" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-17200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-137200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-91900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>184100</v>
+        <v>259700</v>
       </c>
       <c r="E33" s="3">
-        <v>203900</v>
+        <v>171900</v>
       </c>
       <c r="F33" s="3">
-        <v>84200</v>
+        <v>190400</v>
       </c>
       <c r="G33" s="3">
-        <v>203200</v>
+        <v>78600</v>
       </c>
       <c r="H33" s="3">
-        <v>189500</v>
+        <v>189800</v>
       </c>
       <c r="I33" s="3">
-        <v>228500</v>
+        <v>177000</v>
       </c>
       <c r="J33" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K33" s="3">
         <v>59100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>358200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>204000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>185200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>148300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>208700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>181400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>106400</v>
       </c>
       <c r="U33" s="3">
         <v>106400</v>
       </c>
       <c r="V33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="W33" s="3">
         <v>73200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>105700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>184100</v>
+        <v>259700</v>
       </c>
       <c r="E35" s="3">
-        <v>203900</v>
+        <v>171900</v>
       </c>
       <c r="F35" s="3">
-        <v>84200</v>
+        <v>190400</v>
       </c>
       <c r="G35" s="3">
-        <v>203200</v>
+        <v>78600</v>
       </c>
       <c r="H35" s="3">
-        <v>189500</v>
+        <v>189800</v>
       </c>
       <c r="I35" s="3">
-        <v>228500</v>
+        <v>177000</v>
       </c>
       <c r="J35" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K35" s="3">
         <v>59100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>358200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>204000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>185200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>148300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>208700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>181400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>106400</v>
       </c>
       <c r="U35" s="3">
         <v>106400</v>
       </c>
       <c r="V35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="W35" s="3">
         <v>73200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>105700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1634000</v>
+        <v>1432500</v>
       </c>
       <c r="E41" s="3">
-        <v>1908700</v>
+        <v>1526300</v>
       </c>
       <c r="F41" s="3">
-        <v>1747100</v>
+        <v>1782800</v>
       </c>
       <c r="G41" s="3">
-        <v>2242200</v>
+        <v>1631900</v>
       </c>
       <c r="H41" s="3">
-        <v>2588700</v>
+        <v>2094400</v>
       </c>
       <c r="I41" s="3">
-        <v>830100</v>
+        <v>2418000</v>
       </c>
       <c r="J41" s="3">
+        <v>775400</v>
+      </c>
+      <c r="K41" s="3">
         <v>792000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>811500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>789200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1086500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>926800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>671300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>877700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>848700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>486000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>805100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>768800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>848000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>920400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1641600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>373000</v>
+        <v>419300</v>
       </c>
       <c r="E42" s="3">
-        <v>495200</v>
+        <v>348400</v>
       </c>
       <c r="F42" s="3">
-        <v>872100</v>
+        <v>462500</v>
       </c>
       <c r="G42" s="3">
-        <v>582200</v>
+        <v>814700</v>
       </c>
       <c r="H42" s="3">
-        <v>758000</v>
+        <v>543800</v>
       </c>
       <c r="I42" s="3">
-        <v>1331200</v>
+        <v>708000</v>
       </c>
       <c r="J42" s="3">
+        <v>1243400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1596100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1711200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1763500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1414900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1717000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1975100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1664900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1343800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>795600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>775400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>819600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>769700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>700700</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>289200</v>
+        <v>321100</v>
       </c>
       <c r="E43" s="3">
-        <v>287800</v>
+        <v>270100</v>
       </c>
       <c r="F43" s="3">
-        <v>206400</v>
+        <v>268900</v>
       </c>
       <c r="G43" s="3">
-        <v>206900</v>
+        <v>192800</v>
       </c>
       <c r="H43" s="3">
-        <v>270800</v>
+        <v>193300</v>
       </c>
       <c r="I43" s="3">
-        <v>186400</v>
+        <v>252900</v>
       </c>
       <c r="J43" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K43" s="3">
         <v>210600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>194200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>172000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>177300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>171100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>162900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>120200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>209200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>12200</v>
       </c>
       <c r="E44" s="3">
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="F44" s="3">
-        <v>8200</v>
+        <v>5800</v>
       </c>
       <c r="G44" s="3">
-        <v>8400</v>
+        <v>7600</v>
       </c>
       <c r="H44" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
-        <v>10100</v>
+        <v>7400</v>
       </c>
       <c r="J44" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>613000</v>
+        <v>565600</v>
       </c>
       <c r="E45" s="3">
-        <v>551200</v>
+        <v>572600</v>
       </c>
       <c r="F45" s="3">
-        <v>561500</v>
+        <v>514900</v>
       </c>
       <c r="G45" s="3">
-        <v>482300</v>
+        <v>524500</v>
       </c>
       <c r="H45" s="3">
-        <v>464600</v>
+        <v>450500</v>
       </c>
       <c r="I45" s="3">
-        <v>453100</v>
+        <v>433900</v>
       </c>
       <c r="J45" s="3">
+        <v>423200</v>
+      </c>
+      <c r="K45" s="3">
         <v>378400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>371100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>313400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>374900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>264700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>268100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>213400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>191900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>168000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>197700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>172000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>168000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>226600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>241600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2917100</v>
+        <v>2750700</v>
       </c>
       <c r="E46" s="3">
-        <v>3249100</v>
+        <v>2724800</v>
       </c>
       <c r="F46" s="3">
-        <v>3395300</v>
+        <v>3034900</v>
       </c>
       <c r="G46" s="3">
-        <v>3521900</v>
+        <v>3171500</v>
       </c>
       <c r="H46" s="3">
-        <v>4089900</v>
+        <v>3289800</v>
       </c>
       <c r="I46" s="3">
-        <v>2810900</v>
+        <v>3820200</v>
       </c>
       <c r="J46" s="3">
+        <v>2625600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2986000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3094700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3043800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3059000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3084200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3083800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2881400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2599300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1523100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1837000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1795600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1818900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1877500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1917600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1105900</v>
+        <v>1027000</v>
       </c>
       <c r="E47" s="3">
-        <v>1182500</v>
+        <v>1033000</v>
       </c>
       <c r="F47" s="3">
-        <v>1209200</v>
+        <v>1104500</v>
       </c>
       <c r="G47" s="3">
-        <v>1189000</v>
+        <v>1129500</v>
       </c>
       <c r="H47" s="3">
-        <v>962300</v>
+        <v>1110600</v>
       </c>
       <c r="I47" s="3">
-        <v>938800</v>
+        <v>898800</v>
       </c>
       <c r="J47" s="3">
+        <v>876900</v>
+      </c>
+      <c r="K47" s="3">
         <v>771500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>709100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>347600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>336200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>332500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>320600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>239300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>215800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>86400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>90600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>78200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>76400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>78100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3812300</v>
+        <v>3805900</v>
       </c>
       <c r="E48" s="3">
-        <v>3505900</v>
+        <v>3560900</v>
       </c>
       <c r="F48" s="3">
-        <v>3180100</v>
+        <v>3274800</v>
       </c>
       <c r="G48" s="3">
-        <v>3067100</v>
+        <v>2970400</v>
       </c>
       <c r="H48" s="3">
-        <v>2732600</v>
+        <v>2864900</v>
       </c>
       <c r="I48" s="3">
-        <v>2435200</v>
+        <v>2552500</v>
       </c>
       <c r="J48" s="3">
+        <v>2274600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2237200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2059100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1814900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1577900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1532300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1312300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1117100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1015500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>983700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>960700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>866600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>765200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>668800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>591300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1479400</v>
+        <v>1416500</v>
       </c>
       <c r="E49" s="3">
-        <v>1451800</v>
+        <v>1381800</v>
       </c>
       <c r="F49" s="3">
-        <v>1423400</v>
+        <v>1356100</v>
       </c>
       <c r="G49" s="3">
-        <v>1363700</v>
+        <v>1329600</v>
       </c>
       <c r="H49" s="3">
-        <v>1323600</v>
+        <v>1273800</v>
       </c>
       <c r="I49" s="3">
-        <v>1280300</v>
+        <v>1236400</v>
       </c>
       <c r="J49" s="3">
+        <v>1195900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1154200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1046800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1029800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>987300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>983500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>909900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>873300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>861700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>880200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>876300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>841400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>835000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>815900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>794000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>255500</v>
+        <v>250100</v>
       </c>
       <c r="E52" s="3">
-        <v>276300</v>
+        <v>238700</v>
       </c>
       <c r="F52" s="3">
-        <v>275200</v>
+        <v>258100</v>
       </c>
       <c r="G52" s="3">
-        <v>198400</v>
+        <v>257100</v>
       </c>
       <c r="H52" s="3">
-        <v>184200</v>
+        <v>185400</v>
       </c>
       <c r="I52" s="3">
-        <v>183000</v>
+        <v>172000</v>
       </c>
       <c r="J52" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K52" s="3">
         <v>179500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>156400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>391500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>232100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>172600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>108700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>108200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>68500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>45800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>34600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9570100</v>
+        <v>9250100</v>
       </c>
       <c r="E54" s="3">
-        <v>9665600</v>
+        <v>8939200</v>
       </c>
       <c r="F54" s="3">
-        <v>9483300</v>
+        <v>9028400</v>
       </c>
       <c r="G54" s="3">
-        <v>9340100</v>
+        <v>8858100</v>
       </c>
       <c r="H54" s="3">
-        <v>9292500</v>
+        <v>8724400</v>
       </c>
       <c r="I54" s="3">
-        <v>7648200</v>
+        <v>8679900</v>
       </c>
       <c r="J54" s="3">
+        <v>7144000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7328400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7066200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6627600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6192400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6105100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5763100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5219700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4800400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3561300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3833100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3632000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3531800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3467300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3403600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,105 +3794,109 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>256700</v>
+        <v>288500</v>
       </c>
       <c r="E57" s="3">
-        <v>251900</v>
+        <v>239700</v>
       </c>
       <c r="F57" s="3">
-        <v>244700</v>
+        <v>235300</v>
       </c>
       <c r="G57" s="3">
-        <v>258100</v>
+        <v>228600</v>
       </c>
       <c r="H57" s="3">
-        <v>231700</v>
+        <v>241100</v>
       </c>
       <c r="I57" s="3">
-        <v>174400</v>
+        <v>216400</v>
       </c>
       <c r="J57" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K57" s="3">
         <v>185600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>227200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>167200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>181100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>190500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>130700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>133200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>132000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>84900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>73000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>92600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>753400</v>
+        <v>535500</v>
       </c>
       <c r="E58" s="3">
-        <v>590400</v>
+        <v>703700</v>
       </c>
       <c r="F58" s="3">
-        <v>475800</v>
+        <v>551500</v>
       </c>
       <c r="G58" s="3">
-        <v>277500</v>
+        <v>444400</v>
       </c>
       <c r="H58" s="3">
-        <v>442500</v>
+        <v>259200</v>
       </c>
       <c r="I58" s="3">
-        <v>344900</v>
+        <v>413300</v>
       </c>
       <c r="J58" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K58" s="3">
         <v>47300</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3771,8 +3904,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3784,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>37100</v>
@@ -3793,152 +3926,161 @@
         <v>37100</v>
       </c>
       <c r="V58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="W58" s="3">
         <v>101800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>65400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1001500</v>
+        <v>1091200</v>
       </c>
       <c r="E59" s="3">
-        <v>939400</v>
+        <v>935500</v>
       </c>
       <c r="F59" s="3">
-        <v>1061800</v>
+        <v>877500</v>
       </c>
       <c r="G59" s="3">
-        <v>939100</v>
+        <v>991800</v>
       </c>
       <c r="H59" s="3">
-        <v>880900</v>
+        <v>877200</v>
       </c>
       <c r="I59" s="3">
-        <v>865500</v>
+        <v>822800</v>
       </c>
       <c r="J59" s="3">
+        <v>808400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1052600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>801600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>687500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>630100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>711200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>556200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>432100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>419700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>424600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>446300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>419000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>349800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>311200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>354300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2011600</v>
+        <v>1915100</v>
       </c>
       <c r="E60" s="3">
-        <v>1781700</v>
+        <v>1878900</v>
       </c>
       <c r="F60" s="3">
-        <v>1782300</v>
+        <v>1664200</v>
       </c>
       <c r="G60" s="3">
-        <v>1474700</v>
+        <v>1664800</v>
       </c>
       <c r="H60" s="3">
-        <v>1555100</v>
+        <v>1377500</v>
       </c>
       <c r="I60" s="3">
-        <v>1384800</v>
+        <v>1452600</v>
       </c>
       <c r="J60" s="3">
+        <v>1293500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1285600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1028700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>854700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>811200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>868200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>746700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>549300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>550400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>557800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>615300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>541000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>459900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>511200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>512300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>133500</v>
+        <v>125000</v>
       </c>
       <c r="E62" s="3">
-        <v>127200</v>
+        <v>124700</v>
       </c>
       <c r="F62" s="3">
+        <v>118800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>113000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>111600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>117500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>124100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>95900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>96500</v>
+      </c>
+      <c r="O62" s="3">
         <v>121000</v>
       </c>
-      <c r="G62" s="3">
-        <v>119500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>106300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>111600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>117500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>124100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>95900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>96500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>121000</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>30300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>19000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2168000</v>
+        <v>2082900</v>
       </c>
       <c r="E66" s="3">
-        <v>1926100</v>
+        <v>2025100</v>
       </c>
       <c r="F66" s="3">
-        <v>1925300</v>
+        <v>1799100</v>
       </c>
       <c r="G66" s="3">
-        <v>1613200</v>
+        <v>1798400</v>
       </c>
       <c r="H66" s="3">
-        <v>1679000</v>
+        <v>1506900</v>
       </c>
       <c r="I66" s="3">
-        <v>1514300</v>
+        <v>1568300</v>
       </c>
       <c r="J66" s="3">
+        <v>1414400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1419300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1168400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>965800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>919500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>999600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>793800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>588000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>584900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>592700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>651900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>571800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>491000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>535400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>532100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,10 +4740,13 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3305800</v>
+        <v>3347500</v>
       </c>
       <c r="E72" s="3">
-        <v>3496000</v>
+        <v>3087900</v>
       </c>
       <c r="F72" s="3">
-        <v>3398400</v>
+        <v>3265600</v>
       </c>
       <c r="G72" s="3">
-        <v>3319100</v>
+        <v>3174400</v>
       </c>
       <c r="H72" s="3">
-        <v>3115900</v>
+        <v>3100300</v>
       </c>
       <c r="I72" s="3">
-        <v>2926400</v>
+        <v>2910500</v>
       </c>
       <c r="J72" s="3">
+        <v>2733500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2697900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2575600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2246600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2000300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1784800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1605100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1368400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1220100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1036800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>989800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>808400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>702000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>583600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>510400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7402100</v>
+        <v>7167200</v>
       </c>
       <c r="E76" s="3">
-        <v>7739500</v>
+        <v>6914200</v>
       </c>
       <c r="F76" s="3">
-        <v>7557900</v>
+        <v>7229300</v>
       </c>
       <c r="G76" s="3">
-        <v>7726900</v>
+        <v>7059700</v>
       </c>
       <c r="H76" s="3">
-        <v>7613500</v>
+        <v>7217500</v>
       </c>
       <c r="I76" s="3">
-        <v>6133900</v>
+        <v>7111600</v>
       </c>
       <c r="J76" s="3">
+        <v>5729500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5909100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5897800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5661800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5272900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5105500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4969400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4631700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4215500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2968500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3181200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3060200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3040800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2931800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2871500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>184100</v>
+        <v>259700</v>
       </c>
       <c r="E81" s="3">
-        <v>203900</v>
+        <v>171900</v>
       </c>
       <c r="F81" s="3">
-        <v>84200</v>
+        <v>190400</v>
       </c>
       <c r="G81" s="3">
-        <v>203200</v>
+        <v>78600</v>
       </c>
       <c r="H81" s="3">
-        <v>189500</v>
+        <v>189800</v>
       </c>
       <c r="I81" s="3">
-        <v>228500</v>
+        <v>177000</v>
       </c>
       <c r="J81" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K81" s="3">
         <v>59100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>358200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>204000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>185200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>148300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>208700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>181400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>106400</v>
       </c>
       <c r="U81" s="3">
         <v>106400</v>
       </c>
       <c r="V81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="W81" s="3">
         <v>73200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>105700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>281900</v>
+        <v>445600</v>
       </c>
       <c r="E89" s="3">
-        <v>304900</v>
+        <v>263300</v>
       </c>
       <c r="F89" s="3">
-        <v>75200</v>
+        <v>284800</v>
       </c>
       <c r="G89" s="3">
-        <v>321900</v>
+        <v>70300</v>
       </c>
       <c r="H89" s="3">
-        <v>233600</v>
+        <v>300700</v>
       </c>
       <c r="I89" s="3">
-        <v>197600</v>
+        <v>218200</v>
       </c>
       <c r="J89" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K89" s="3">
         <v>28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>348100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>221200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>304500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>261800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>127600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>206600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>203600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>152000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>134100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>48200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>166300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-218600</v>
+        <v>-414700</v>
       </c>
       <c r="E94" s="3">
-        <v>-29100</v>
+        <v>-204200</v>
       </c>
       <c r="F94" s="3">
-        <v>-689700</v>
+        <v>-27200</v>
       </c>
       <c r="G94" s="3">
-        <v>-460100</v>
+        <v>-644300</v>
       </c>
       <c r="H94" s="3">
-        <v>186100</v>
+        <v>-429800</v>
       </c>
       <c r="I94" s="3">
-        <v>-173200</v>
+        <v>173900</v>
       </c>
       <c r="J94" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-314600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-626500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>229000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>136200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-483600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-321300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-790700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-229200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-167600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-168800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-771600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-158200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-341900</v>
+        <v>-116000</v>
       </c>
       <c r="E100" s="3">
-        <v>-148800</v>
+        <v>-319300</v>
       </c>
       <c r="F100" s="3">
-        <v>156800</v>
+        <v>-139000</v>
       </c>
       <c r="G100" s="3">
-        <v>-99100</v>
+        <v>146500</v>
       </c>
       <c r="H100" s="3">
-        <v>1357100</v>
+        <v>-92600</v>
       </c>
       <c r="I100" s="3">
-        <v>10300</v>
+        <v>1267700</v>
       </c>
       <c r="J100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K100" s="3">
         <v>47000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>79800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-380900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>193200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>926600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-115500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-104800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>36400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1358900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-21100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-17500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-18100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>40700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-278900</v>
+        <v>-92200</v>
       </c>
       <c r="E102" s="3">
-        <v>105800</v>
+        <v>-260500</v>
       </c>
       <c r="F102" s="3">
-        <v>-452400</v>
+        <v>98800</v>
       </c>
       <c r="G102" s="3">
-        <v>-326700</v>
+        <v>-422600</v>
       </c>
       <c r="H102" s="3">
-        <v>1759600</v>
+        <v>-305200</v>
       </c>
       <c r="I102" s="3">
-        <v>35000</v>
+        <v>1643600</v>
       </c>
       <c r="J102" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-320300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>223500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-239400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>374800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-326900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-92900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-150000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-705100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1407600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1358300</v>
+        <v>1264100</v>
       </c>
       <c r="E8" s="3">
-        <v>1089100</v>
+        <v>1154200</v>
       </c>
       <c r="F8" s="3">
-        <v>1079400</v>
+        <v>1346000</v>
       </c>
       <c r="G8" s="3">
-        <v>953800</v>
+        <v>1079300</v>
       </c>
       <c r="H8" s="3">
-        <v>1216800</v>
+        <v>1069700</v>
       </c>
       <c r="I8" s="3">
+        <v>945200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="K8" s="3">
         <v>978300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>943500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>617800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1054200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>821500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>828600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>695800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>817300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>592700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>587500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>508600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>642800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>466500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>441000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>380200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>464000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1026600</v>
+        <v>942500</v>
       </c>
       <c r="E9" s="3">
-        <v>858000</v>
+        <v>917700</v>
       </c>
       <c r="F9" s="3">
-        <v>832800</v>
+        <v>1017300</v>
       </c>
       <c r="G9" s="3">
-        <v>792200</v>
+        <v>850300</v>
       </c>
       <c r="H9" s="3">
-        <v>942900</v>
+        <v>825300</v>
       </c>
       <c r="I9" s="3">
+        <v>785100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>934400</v>
+      </c>
+      <c r="K9" s="3">
         <v>773300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>682800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>488600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>746900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>572400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>558400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>504200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>592200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>407200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>383600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>360500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>441900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>297600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>274200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>274000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>295100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>331700</v>
+        <v>321700</v>
       </c>
       <c r="E10" s="3">
-        <v>231100</v>
+        <v>236500</v>
       </c>
       <c r="F10" s="3">
-        <v>246600</v>
+        <v>328700</v>
       </c>
       <c r="G10" s="3">
-        <v>161600</v>
+        <v>229000</v>
       </c>
       <c r="H10" s="3">
-        <v>273800</v>
+        <v>244400</v>
       </c>
       <c r="I10" s="3">
+        <v>160100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K10" s="3">
         <v>205000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>260700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>129200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>307400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>249100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>270200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>191600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>225100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>185500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>204000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>148100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>168900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>166800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>106300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>168900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,67 +1180,73 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>4500</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>4500</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1055300</v>
+        <v>974200</v>
       </c>
       <c r="E17" s="3">
-        <v>888600</v>
+        <v>991200</v>
       </c>
       <c r="F17" s="3">
-        <v>864900</v>
+        <v>1045700</v>
       </c>
       <c r="G17" s="3">
-        <v>860500</v>
+        <v>880600</v>
       </c>
       <c r="H17" s="3">
-        <v>985800</v>
+        <v>857100</v>
       </c>
       <c r="I17" s="3">
+        <v>852800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>976900</v>
+      </c>
+      <c r="K17" s="3">
         <v>806000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>559100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>784600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>603000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>580300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>620800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>439900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>421100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>408300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>465300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>326300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>304300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>284700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>322800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>303000</v>
+        <v>290000</v>
       </c>
       <c r="E18" s="3">
-        <v>200500</v>
+        <v>163000</v>
       </c>
       <c r="F18" s="3">
-        <v>214500</v>
+        <v>300300</v>
       </c>
       <c r="G18" s="3">
-        <v>93300</v>
+        <v>198700</v>
       </c>
       <c r="H18" s="3">
-        <v>231000</v>
+        <v>212600</v>
       </c>
       <c r="I18" s="3">
+        <v>92400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K18" s="3">
         <v>172300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>242600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>58700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>269700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>218500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>228100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>115500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>196500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>152800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>166400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>177500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>140200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>136700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>95500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>141200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,180 +1547,194 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F20" s="3">
         <v>10500</v>
       </c>
-      <c r="E20" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>16100</v>
-      </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="H20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>22500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>137200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>27300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="R20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="S20" s="3">
+        <v>24800</v>
+      </c>
+      <c r="T20" s="3">
+        <v>91900</v>
+      </c>
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>22500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>137200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>27300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>25500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>18300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>21500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>24800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>91900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>321400</v>
+        <v>328500</v>
       </c>
       <c r="E21" s="3">
-        <v>209600</v>
+        <v>269600</v>
       </c>
       <c r="F21" s="3">
-        <v>237000</v>
+        <v>318500</v>
       </c>
       <c r="G21" s="3">
-        <v>183500</v>
+        <v>207700</v>
       </c>
       <c r="H21" s="3">
-        <v>240500</v>
+        <v>234800</v>
       </c>
       <c r="I21" s="3">
+        <v>181800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K21" s="3">
         <v>184900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>262500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>145600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>418900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>246500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>255900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>176900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>223700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>179800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>259900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>130400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>183000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>144500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>143100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>118100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>178100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
-        <v>7700</v>
+        <v>8700</v>
       </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1674,170 +1754,188 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>309900</v>
+        <v>319400</v>
       </c>
       <c r="E23" s="3">
-        <v>205900</v>
+        <v>168500</v>
       </c>
       <c r="F23" s="3">
-        <v>225600</v>
+        <v>307100</v>
       </c>
       <c r="G23" s="3">
-        <v>104400</v>
+        <v>204000</v>
       </c>
       <c r="H23" s="3">
-        <v>232600</v>
+        <v>223500</v>
       </c>
       <c r="I23" s="3">
+        <v>103400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>230500</v>
+      </c>
+      <c r="K23" s="3">
         <v>175000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>258500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>81200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>406900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>245800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>253500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>133900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>218000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>177600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>258300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>103500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>182800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>142500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>141400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>98400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>144600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54700</v>
+        <v>64000</v>
       </c>
       <c r="E24" s="3">
-        <v>33800</v>
+        <v>37300</v>
       </c>
       <c r="F24" s="3">
-        <v>37600</v>
+        <v>54200</v>
       </c>
       <c r="G24" s="3">
+        <v>33500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>44100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>32300</v>
+      </c>
+      <c r="S24" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>49100</v>
+      </c>
+      <c r="U24" s="3">
         <v>22100</v>
       </c>
-      <c r="H24" s="3">
-        <v>42700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>44000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>20500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>51000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>41500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>29200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>32300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>28200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>49100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>22100</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>35300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>34600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>24200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>36600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>255200</v>
+        <v>255400</v>
       </c>
       <c r="E26" s="3">
-        <v>172000</v>
+        <v>131200</v>
       </c>
       <c r="F26" s="3">
-        <v>188000</v>
+        <v>252900</v>
       </c>
       <c r="G26" s="3">
-        <v>82300</v>
+        <v>170500</v>
       </c>
       <c r="H26" s="3">
-        <v>189900</v>
+        <v>186300</v>
       </c>
       <c r="I26" s="3">
+        <v>81600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>188200</v>
+      </c>
+      <c r="K26" s="3">
         <v>179100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>214600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>60700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>355800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>204200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>209400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>104700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>185700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>149400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>209100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>81300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>181500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>107200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>106800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>74200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>108000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>259700</v>
+        <v>263600</v>
       </c>
       <c r="E27" s="3">
-        <v>171900</v>
+        <v>132300</v>
       </c>
       <c r="F27" s="3">
-        <v>190400</v>
+        <v>257400</v>
       </c>
       <c r="G27" s="3">
-        <v>78600</v>
+        <v>170400</v>
       </c>
       <c r="H27" s="3">
-        <v>189800</v>
+        <v>188700</v>
       </c>
       <c r="I27" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K27" s="3">
         <v>177000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>213400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>59100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>358200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>204000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>207700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>103600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>185200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>148300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>208700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>79900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>181400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>106400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>106400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>73200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>105700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-16100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-137200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-91900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>259700</v>
+        <v>263600</v>
       </c>
       <c r="E33" s="3">
-        <v>171900</v>
+        <v>132300</v>
       </c>
       <c r="F33" s="3">
-        <v>190400</v>
+        <v>257400</v>
       </c>
       <c r="G33" s="3">
-        <v>78600</v>
+        <v>170400</v>
       </c>
       <c r="H33" s="3">
-        <v>189800</v>
+        <v>188700</v>
       </c>
       <c r="I33" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K33" s="3">
         <v>177000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>213400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>59100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>358200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>204000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>207700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>103600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>185200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>148300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>208700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>79900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>181400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>106400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>106400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>73200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>105700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>259700</v>
+        <v>263600</v>
       </c>
       <c r="E35" s="3">
-        <v>171900</v>
+        <v>132300</v>
       </c>
       <c r="F35" s="3">
-        <v>190400</v>
+        <v>257400</v>
       </c>
       <c r="G35" s="3">
-        <v>78600</v>
+        <v>170400</v>
       </c>
       <c r="H35" s="3">
-        <v>189800</v>
+        <v>188700</v>
       </c>
       <c r="I35" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K35" s="3">
         <v>177000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>213400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>59100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>358200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>204000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>207700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>103600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>185200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>148300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>208700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>79900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>181400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>106400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>106400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>73200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>105700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1432500</v>
+        <v>1449800</v>
       </c>
       <c r="E41" s="3">
-        <v>1526300</v>
+        <v>1445800</v>
       </c>
       <c r="F41" s="3">
-        <v>1782800</v>
+        <v>1419600</v>
       </c>
       <c r="G41" s="3">
-        <v>1631900</v>
+        <v>1512500</v>
       </c>
       <c r="H41" s="3">
-        <v>2094400</v>
+        <v>1766700</v>
       </c>
       <c r="I41" s="3">
+        <v>1617200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2075500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2418000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>775400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>792000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>811500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>789200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1086500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>926800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>671300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>877700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>848700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>486000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>805100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>768800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>848000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>920400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1641600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>419300</v>
+        <v>761000</v>
       </c>
       <c r="E42" s="3">
-        <v>348400</v>
+        <v>584500</v>
       </c>
       <c r="F42" s="3">
-        <v>462500</v>
+        <v>415500</v>
       </c>
       <c r="G42" s="3">
-        <v>814700</v>
+        <v>345300</v>
       </c>
       <c r="H42" s="3">
-        <v>543800</v>
+        <v>458400</v>
       </c>
       <c r="I42" s="3">
+        <v>807300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>538900</v>
+      </c>
+      <c r="K42" s="3">
         <v>708000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1243400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1596100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1711200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1763500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1414900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1717000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1975100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1664900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1343800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>795600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>775400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>819600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>769700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>700700</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>321100</v>
+        <v>281200</v>
       </c>
       <c r="E43" s="3">
-        <v>270100</v>
+        <v>277400</v>
       </c>
       <c r="F43" s="3">
-        <v>268900</v>
+        <v>318200</v>
       </c>
       <c r="G43" s="3">
-        <v>192800</v>
+        <v>267700</v>
       </c>
       <c r="H43" s="3">
-        <v>193300</v>
+        <v>266400</v>
       </c>
       <c r="I43" s="3">
+        <v>191000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K43" s="3">
         <v>252900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>174200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>210600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>194200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>172000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>177300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>171100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>162900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>120200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>209200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>69200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>53700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>31000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>28800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>25200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>29600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12200</v>
+        <v>4200</v>
       </c>
       <c r="E44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7400</v>
       </c>
-      <c r="F44" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>9500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>5200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>5600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>5100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>4600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>565600</v>
+        <v>596400</v>
       </c>
       <c r="E45" s="3">
-        <v>572600</v>
+        <v>609500</v>
       </c>
       <c r="F45" s="3">
-        <v>514900</v>
+        <v>560500</v>
       </c>
       <c r="G45" s="3">
-        <v>524500</v>
+        <v>567400</v>
       </c>
       <c r="H45" s="3">
-        <v>450500</v>
+        <v>510200</v>
       </c>
       <c r="I45" s="3">
+        <v>519800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>446400</v>
+      </c>
+      <c r="K45" s="3">
         <v>433900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>423200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>378400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>371100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>313400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>374900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>264700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>268100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>213400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>191900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>168000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>197700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>172000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>168000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>226600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>241600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2750700</v>
+        <v>3092500</v>
       </c>
       <c r="E46" s="3">
-        <v>2724800</v>
+        <v>2925800</v>
       </c>
       <c r="F46" s="3">
-        <v>3034900</v>
+        <v>2725800</v>
       </c>
       <c r="G46" s="3">
-        <v>3171500</v>
+        <v>2700200</v>
       </c>
       <c r="H46" s="3">
-        <v>3289800</v>
+        <v>3007500</v>
       </c>
       <c r="I46" s="3">
+        <v>3142800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3260100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3820200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2625600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2986000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3094700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3043800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3059000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3084200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3083800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2881400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2599300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1523100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1837000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1795600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1818900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1877500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1917600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1027000</v>
+        <v>1226800</v>
       </c>
       <c r="E47" s="3">
-        <v>1033000</v>
+        <v>1071300</v>
       </c>
       <c r="F47" s="3">
-        <v>1104500</v>
+        <v>1017700</v>
       </c>
       <c r="G47" s="3">
-        <v>1129500</v>
+        <v>1023700</v>
       </c>
       <c r="H47" s="3">
-        <v>1110600</v>
+        <v>1094600</v>
       </c>
       <c r="I47" s="3">
+        <v>1119300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1100600</v>
+      </c>
+      <c r="K47" s="3">
         <v>898800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>876900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>771500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>709100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>347600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>336200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>332500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>320600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>239300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>215800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>86400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>90600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>82600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>78200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>76400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>78100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3805900</v>
+        <v>4039000</v>
       </c>
       <c r="E48" s="3">
-        <v>3560900</v>
+        <v>3894000</v>
       </c>
       <c r="F48" s="3">
-        <v>3274800</v>
+        <v>3771500</v>
       </c>
       <c r="G48" s="3">
-        <v>2970400</v>
+        <v>3528800</v>
       </c>
       <c r="H48" s="3">
-        <v>2864900</v>
+        <v>3245200</v>
       </c>
       <c r="I48" s="3">
+        <v>2943600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2839000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2552500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2274600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2237200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2059100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1814900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1577900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1532300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1312300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1117100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1015500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>983700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>960700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>866600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>765200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>668800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>591300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1416500</v>
+        <v>1418200</v>
       </c>
       <c r="E49" s="3">
-        <v>1381800</v>
+        <v>1405500</v>
       </c>
       <c r="F49" s="3">
-        <v>1356100</v>
+        <v>1403700</v>
       </c>
       <c r="G49" s="3">
-        <v>1329600</v>
+        <v>1369400</v>
       </c>
       <c r="H49" s="3">
-        <v>1273800</v>
+        <v>1343800</v>
       </c>
       <c r="I49" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1262300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1236400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1195900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1154200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1046800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1029800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>987300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>983500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>909900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>873300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>861700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>880200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>876300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>841400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>835000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>815900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>794000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>250100</v>
+        <v>227400</v>
       </c>
       <c r="E52" s="3">
-        <v>238700</v>
+        <v>246100</v>
       </c>
       <c r="F52" s="3">
-        <v>258100</v>
+        <v>247800</v>
       </c>
       <c r="G52" s="3">
-        <v>257100</v>
+        <v>236500</v>
       </c>
       <c r="H52" s="3">
-        <v>185400</v>
+        <v>255800</v>
       </c>
       <c r="I52" s="3">
+        <v>254800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K52" s="3">
         <v>172000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>170900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>179500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>156400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>391500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>232100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>172600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>136600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>108700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>108200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>87800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>68500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>45800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>34600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>28700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>22500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9250100</v>
+        <v>10003900</v>
       </c>
       <c r="E54" s="3">
-        <v>8939200</v>
+        <v>9542700</v>
       </c>
       <c r="F54" s="3">
-        <v>9028400</v>
+        <v>9166600</v>
       </c>
       <c r="G54" s="3">
-        <v>8858100</v>
+        <v>8858600</v>
       </c>
       <c r="H54" s="3">
-        <v>8724400</v>
+        <v>8946900</v>
       </c>
       <c r="I54" s="3">
+        <v>8778100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8645700</v>
+      </c>
+      <c r="K54" s="3">
         <v>8679900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7144000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7328400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7066200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6627600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6192400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6105100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5763100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5219700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4800400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3561300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3833100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3632000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3531800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3467300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3403600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,123 +4055,131 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>288500</v>
+        <v>279100</v>
       </c>
       <c r="E57" s="3">
-        <v>239700</v>
+        <v>250900</v>
       </c>
       <c r="F57" s="3">
-        <v>235300</v>
+        <v>285900</v>
       </c>
       <c r="G57" s="3">
-        <v>228600</v>
+        <v>237600</v>
       </c>
       <c r="H57" s="3">
-        <v>241100</v>
+        <v>233100</v>
       </c>
       <c r="I57" s="3">
+        <v>226500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K57" s="3">
         <v>216400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>162900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>185600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>227200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>167200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>181100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>157100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>190500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>117200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>130700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>133200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>132000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>84900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>73000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>98200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>92600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>535500</v>
+        <v>1066700</v>
       </c>
       <c r="E58" s="3">
-        <v>703700</v>
+        <v>890600</v>
       </c>
       <c r="F58" s="3">
-        <v>551500</v>
+        <v>530600</v>
       </c>
       <c r="G58" s="3">
-        <v>444400</v>
+        <v>697300</v>
       </c>
       <c r="H58" s="3">
-        <v>259200</v>
+        <v>546500</v>
       </c>
       <c r="I58" s="3">
+        <v>440400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>256900</v>
+      </c>
+      <c r="K58" s="3">
         <v>413300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>322200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>47300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3920,167 +4188,185 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>37100</v>
       </c>
       <c r="W58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>101800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>65400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1091200</v>
+        <v>1133500</v>
       </c>
       <c r="E59" s="3">
-        <v>935500</v>
+        <v>1177500</v>
       </c>
       <c r="F59" s="3">
-        <v>877500</v>
+        <v>1081400</v>
       </c>
       <c r="G59" s="3">
-        <v>991800</v>
+        <v>927100</v>
       </c>
       <c r="H59" s="3">
-        <v>877200</v>
+        <v>869500</v>
       </c>
       <c r="I59" s="3">
+        <v>982900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>869300</v>
+      </c>
+      <c r="K59" s="3">
         <v>822800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>808400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1052600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>801600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>687500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>630100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>711200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>556200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>432100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>419700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>424600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>446300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>419000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>349800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>311200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>354300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1915100</v>
+        <v>2479200</v>
       </c>
       <c r="E60" s="3">
-        <v>1878900</v>
+        <v>2319000</v>
       </c>
       <c r="F60" s="3">
-        <v>1664200</v>
+        <v>1897900</v>
       </c>
       <c r="G60" s="3">
-        <v>1664800</v>
+        <v>1862000</v>
       </c>
       <c r="H60" s="3">
-        <v>1377500</v>
+        <v>1649200</v>
       </c>
       <c r="I60" s="3">
+        <v>1649800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1452600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1293500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1285600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1028700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>854700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>811200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>868200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>746700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>549300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>550400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>557800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>615300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>541000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>459900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>511200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>512300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,79 +4436,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125000</v>
+        <v>115500</v>
       </c>
       <c r="E62" s="3">
-        <v>124700</v>
+        <v>120500</v>
       </c>
       <c r="F62" s="3">
-        <v>118800</v>
+        <v>123900</v>
       </c>
       <c r="G62" s="3">
-        <v>113000</v>
+        <v>123600</v>
       </c>
       <c r="H62" s="3">
-        <v>111600</v>
+        <v>117700</v>
       </c>
       <c r="I62" s="3">
+        <v>112000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K62" s="3">
         <v>99300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>104200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>117500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>124100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>95900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>96500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>121000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>39500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>33600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>33400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>34000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>35700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>30000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>30300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>23500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>19000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2082900</v>
+        <v>2655900</v>
       </c>
       <c r="E66" s="3">
-        <v>2025100</v>
+        <v>2472500</v>
       </c>
       <c r="F66" s="3">
-        <v>1799100</v>
+        <v>2064100</v>
       </c>
       <c r="G66" s="3">
-        <v>1798400</v>
+        <v>2006800</v>
       </c>
       <c r="H66" s="3">
-        <v>1506900</v>
+        <v>1782900</v>
       </c>
       <c r="I66" s="3">
+        <v>1782200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1493300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1568300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1414400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1419300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1168400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>965800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>919500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>999600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>793800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>588000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>584900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>592700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>651900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>571800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>491000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>535400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>532100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,10 +5079,16 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3347500</v>
+        <v>3703600</v>
       </c>
       <c r="E72" s="3">
-        <v>3087900</v>
+        <v>3445800</v>
       </c>
       <c r="F72" s="3">
-        <v>3265600</v>
+        <v>3317300</v>
       </c>
       <c r="G72" s="3">
-        <v>3174400</v>
+        <v>3060000</v>
       </c>
       <c r="H72" s="3">
-        <v>3100300</v>
+        <v>3236100</v>
       </c>
       <c r="I72" s="3">
+        <v>3145800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3072300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2910500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2733500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2697900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2575600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2246600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2000300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1784800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1605100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1368400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1220100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1036800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>989800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>808400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>702000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>583600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>510400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7167200</v>
+        <v>7348000</v>
       </c>
       <c r="E76" s="3">
-        <v>6914200</v>
+        <v>7070200</v>
       </c>
       <c r="F76" s="3">
-        <v>7229300</v>
+        <v>7102500</v>
       </c>
       <c r="G76" s="3">
-        <v>7059700</v>
+        <v>6851800</v>
       </c>
       <c r="H76" s="3">
-        <v>7217500</v>
+        <v>7164100</v>
       </c>
       <c r="I76" s="3">
+        <v>6996000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7152400</v>
+      </c>
+      <c r="K76" s="3">
         <v>7111600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5729500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5909100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5897800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5661800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5272900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5105500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4969400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4631700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4215500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2968500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3181200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3060200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3040800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2931800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2871500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>259700</v>
+        <v>263600</v>
       </c>
       <c r="E81" s="3">
-        <v>171900</v>
+        <v>132300</v>
       </c>
       <c r="F81" s="3">
-        <v>190400</v>
+        <v>257400</v>
       </c>
       <c r="G81" s="3">
-        <v>78600</v>
+        <v>170400</v>
       </c>
       <c r="H81" s="3">
-        <v>189800</v>
+        <v>188700</v>
       </c>
       <c r="I81" s="3">
+        <v>77900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K81" s="3">
         <v>177000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>213400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>59100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>358200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>204000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>207700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>103600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>185200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>148300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>208700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>79900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>181400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>106400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>106400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>73200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>105700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>445600</v>
+        <v>552100</v>
       </c>
       <c r="E89" s="3">
-        <v>263300</v>
+        <v>161400</v>
       </c>
       <c r="F89" s="3">
-        <v>284800</v>
+        <v>441600</v>
       </c>
       <c r="G89" s="3">
-        <v>70300</v>
+        <v>261000</v>
       </c>
       <c r="H89" s="3">
-        <v>300700</v>
+        <v>282200</v>
       </c>
       <c r="I89" s="3">
+        <v>69600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K89" s="3">
         <v>218200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>184500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>348100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>221200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>304500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>96300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>261800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>127600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>206600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>30700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>203600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>152000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>134100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>48200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>166300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-414700</v>
+        <v>-527100</v>
       </c>
       <c r="E94" s="3">
-        <v>-204200</v>
+        <v>-484100</v>
       </c>
       <c r="F94" s="3">
-        <v>-27200</v>
+        <v>-411000</v>
       </c>
       <c r="G94" s="3">
-        <v>-644300</v>
+        <v>-202400</v>
       </c>
       <c r="H94" s="3">
-        <v>-429800</v>
+        <v>-26900</v>
       </c>
       <c r="I94" s="3">
+        <v>-638400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-425900</v>
+      </c>
+      <c r="K94" s="3">
         <v>173900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-161800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-112800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-314600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-626500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>229000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>136200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-483600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-321300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-790700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-229200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-107200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-167600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-168800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-771600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-158200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-116000</v>
+        <v>-22900</v>
       </c>
       <c r="E100" s="3">
-        <v>-319300</v>
+        <v>376900</v>
       </c>
       <c r="F100" s="3">
-        <v>-139000</v>
+        <v>-115000</v>
       </c>
       <c r="G100" s="3">
-        <v>146500</v>
+        <v>-316400</v>
       </c>
       <c r="H100" s="3">
-        <v>-92600</v>
+        <v>-137800</v>
       </c>
       <c r="I100" s="3">
+        <v>145100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1267700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>47000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>79800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-380900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>193200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>926600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-115500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-30000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-59900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-104800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>36400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1358900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>28300</v>
       </c>
       <c r="E101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="I101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-83500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-6900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>14200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-12800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-16600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-17500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-10400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-18100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>40700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-92200</v>
+        <v>30300</v>
       </c>
       <c r="E102" s="3">
-        <v>-260500</v>
+        <v>51200</v>
       </c>
       <c r="F102" s="3">
-        <v>98800</v>
+        <v>-91400</v>
       </c>
       <c r="G102" s="3">
-        <v>-422600</v>
+        <v>-258100</v>
       </c>
       <c r="H102" s="3">
-        <v>-305200</v>
+        <v>97900</v>
       </c>
       <c r="I102" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-302400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1643600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>32700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>33500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-320300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>155900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>223500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-239400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>13700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>374800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-326900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>49800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-92900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-150000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-705100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1407600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1264100</v>
+        <v>1205000</v>
       </c>
       <c r="E8" s="3">
-        <v>1154200</v>
+        <v>1100300</v>
       </c>
       <c r="F8" s="3">
-        <v>1346000</v>
+        <v>1283100</v>
       </c>
       <c r="G8" s="3">
-        <v>1079300</v>
+        <v>1028800</v>
       </c>
       <c r="H8" s="3">
-        <v>1069700</v>
+        <v>1019700</v>
       </c>
       <c r="I8" s="3">
-        <v>945200</v>
+        <v>901000</v>
       </c>
       <c r="J8" s="3">
-        <v>1205800</v>
+        <v>1149400</v>
       </c>
       <c r="K8" s="3">
         <v>978300</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>942500</v>
+        <v>898400</v>
       </c>
       <c r="E9" s="3">
-        <v>917700</v>
+        <v>874800</v>
       </c>
       <c r="F9" s="3">
-        <v>1017300</v>
+        <v>969800</v>
       </c>
       <c r="G9" s="3">
-        <v>850300</v>
+        <v>810500</v>
       </c>
       <c r="H9" s="3">
-        <v>825300</v>
+        <v>786700</v>
       </c>
       <c r="I9" s="3">
-        <v>785100</v>
+        <v>748300</v>
       </c>
       <c r="J9" s="3">
-        <v>934400</v>
+        <v>890700</v>
       </c>
       <c r="K9" s="3">
         <v>773300</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>321700</v>
+        <v>306600</v>
       </c>
       <c r="E10" s="3">
-        <v>236500</v>
+        <v>225400</v>
       </c>
       <c r="F10" s="3">
-        <v>328700</v>
+        <v>313300</v>
       </c>
       <c r="G10" s="3">
-        <v>229000</v>
+        <v>218300</v>
       </c>
       <c r="H10" s="3">
-        <v>244400</v>
+        <v>233000</v>
       </c>
       <c r="I10" s="3">
-        <v>160100</v>
+        <v>152600</v>
       </c>
       <c r="J10" s="3">
-        <v>271400</v>
+        <v>258700</v>
       </c>
       <c r="K10" s="3">
         <v>205000</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>974200</v>
+        <v>928600</v>
       </c>
       <c r="E17" s="3">
-        <v>991200</v>
+        <v>944900</v>
       </c>
       <c r="F17" s="3">
-        <v>1045700</v>
+        <v>996800</v>
       </c>
       <c r="G17" s="3">
-        <v>880600</v>
+        <v>839400</v>
       </c>
       <c r="H17" s="3">
-        <v>857100</v>
+        <v>817000</v>
       </c>
       <c r="I17" s="3">
-        <v>852800</v>
+        <v>812900</v>
       </c>
       <c r="J17" s="3">
-        <v>976900</v>
+        <v>931200</v>
       </c>
       <c r="K17" s="3">
         <v>806000</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290000</v>
+        <v>276400</v>
       </c>
       <c r="E18" s="3">
-        <v>163000</v>
+        <v>155400</v>
       </c>
       <c r="F18" s="3">
-        <v>300300</v>
+        <v>286200</v>
       </c>
       <c r="G18" s="3">
-        <v>198700</v>
+        <v>189400</v>
       </c>
       <c r="H18" s="3">
-        <v>212600</v>
+        <v>202600</v>
       </c>
       <c r="I18" s="3">
-        <v>92400</v>
+        <v>88100</v>
       </c>
       <c r="J18" s="3">
-        <v>228900</v>
+        <v>218200</v>
       </c>
       <c r="K18" s="3">
         <v>172300</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32800</v>
+        <v>31300</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="F20" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K20" s="3">
         <v>4800</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>328500</v>
+        <v>313100</v>
       </c>
       <c r="E21" s="3">
-        <v>269600</v>
+        <v>257000</v>
       </c>
       <c r="F21" s="3">
-        <v>318500</v>
+        <v>303600</v>
       </c>
       <c r="G21" s="3">
-        <v>207700</v>
+        <v>198000</v>
       </c>
       <c r="H21" s="3">
-        <v>234800</v>
+        <v>223800</v>
       </c>
       <c r="I21" s="3">
-        <v>181800</v>
+        <v>173300</v>
       </c>
       <c r="J21" s="3">
-        <v>238300</v>
+        <v>227200</v>
       </c>
       <c r="K21" s="3">
         <v>184900</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>319400</v>
+        <v>304500</v>
       </c>
       <c r="E23" s="3">
-        <v>168500</v>
+        <v>160600</v>
       </c>
       <c r="F23" s="3">
-        <v>307100</v>
+        <v>292700</v>
       </c>
       <c r="G23" s="3">
-        <v>204000</v>
+        <v>194500</v>
       </c>
       <c r="H23" s="3">
-        <v>223500</v>
+        <v>213100</v>
       </c>
       <c r="I23" s="3">
-        <v>103400</v>
+        <v>98600</v>
       </c>
       <c r="J23" s="3">
-        <v>230500</v>
+        <v>219700</v>
       </c>
       <c r="K23" s="3">
         <v>175000</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64000</v>
+        <v>61000</v>
       </c>
       <c r="E24" s="3">
-        <v>37300</v>
+        <v>35500</v>
       </c>
       <c r="F24" s="3">
-        <v>54200</v>
+        <v>51700</v>
       </c>
       <c r="G24" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="H24" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="I24" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="J24" s="3">
-        <v>42300</v>
+        <v>40300</v>
       </c>
       <c r="K24" s="3">
         <v>-4100</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>255400</v>
+        <v>243500</v>
       </c>
       <c r="E26" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="F26" s="3">
-        <v>252900</v>
+        <v>241000</v>
       </c>
       <c r="G26" s="3">
-        <v>170500</v>
+        <v>162500</v>
       </c>
       <c r="H26" s="3">
-        <v>186300</v>
+        <v>177600</v>
       </c>
       <c r="I26" s="3">
-        <v>81600</v>
+        <v>77800</v>
       </c>
       <c r="J26" s="3">
-        <v>188200</v>
+        <v>179400</v>
       </c>
       <c r="K26" s="3">
         <v>179100</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>263600</v>
+        <v>251300</v>
       </c>
       <c r="E27" s="3">
-        <v>132300</v>
+        <v>126200</v>
       </c>
       <c r="F27" s="3">
-        <v>257400</v>
+        <v>245300</v>
       </c>
       <c r="G27" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="H27" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="I27" s="3">
-        <v>77900</v>
+        <v>74300</v>
       </c>
       <c r="J27" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="K27" s="3">
         <v>177000</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32800</v>
+        <v>-31300</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="F32" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="G32" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K32" s="3">
         <v>-4800</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>263600</v>
+        <v>251300</v>
       </c>
       <c r="E33" s="3">
-        <v>132300</v>
+        <v>126200</v>
       </c>
       <c r="F33" s="3">
-        <v>257400</v>
+        <v>245300</v>
       </c>
       <c r="G33" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="H33" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="I33" s="3">
-        <v>77900</v>
+        <v>74300</v>
       </c>
       <c r="J33" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="K33" s="3">
         <v>177000</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>263600</v>
+        <v>251300</v>
       </c>
       <c r="E35" s="3">
-        <v>132300</v>
+        <v>126200</v>
       </c>
       <c r="F35" s="3">
-        <v>257400</v>
+        <v>245300</v>
       </c>
       <c r="G35" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="H35" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="I35" s="3">
-        <v>77900</v>
+        <v>74300</v>
       </c>
       <c r="J35" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="K35" s="3">
         <v>177000</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1449800</v>
+        <v>1381900</v>
       </c>
       <c r="E41" s="3">
-        <v>1445800</v>
+        <v>1378200</v>
       </c>
       <c r="F41" s="3">
-        <v>1419600</v>
+        <v>1353200</v>
       </c>
       <c r="G41" s="3">
-        <v>1512500</v>
+        <v>1441800</v>
       </c>
       <c r="H41" s="3">
-        <v>1766700</v>
+        <v>1684100</v>
       </c>
       <c r="I41" s="3">
-        <v>1617200</v>
+        <v>1541500</v>
       </c>
       <c r="J41" s="3">
-        <v>2075500</v>
+        <v>1978400</v>
       </c>
       <c r="K41" s="3">
         <v>2418000</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>761000</v>
+        <v>725400</v>
       </c>
       <c r="E42" s="3">
-        <v>584500</v>
+        <v>557100</v>
       </c>
       <c r="F42" s="3">
-        <v>415500</v>
+        <v>396100</v>
       </c>
       <c r="G42" s="3">
-        <v>345300</v>
+        <v>329200</v>
       </c>
       <c r="H42" s="3">
-        <v>458400</v>
+        <v>436900</v>
       </c>
       <c r="I42" s="3">
-        <v>807300</v>
+        <v>769500</v>
       </c>
       <c r="J42" s="3">
-        <v>538900</v>
+        <v>513700</v>
       </c>
       <c r="K42" s="3">
         <v>708000</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>281200</v>
+        <v>268100</v>
       </c>
       <c r="E43" s="3">
-        <v>277400</v>
+        <v>264400</v>
       </c>
       <c r="F43" s="3">
-        <v>318200</v>
+        <v>303300</v>
       </c>
       <c r="G43" s="3">
-        <v>267700</v>
+        <v>255100</v>
       </c>
       <c r="H43" s="3">
-        <v>266400</v>
+        <v>254000</v>
       </c>
       <c r="I43" s="3">
-        <v>191000</v>
+        <v>182100</v>
       </c>
       <c r="J43" s="3">
-        <v>191500</v>
+        <v>182600</v>
       </c>
       <c r="K43" s="3">
         <v>252900</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F44" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="G44" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="H44" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I44" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="J44" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K44" s="3">
         <v>7400</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>596400</v>
+        <v>568500</v>
       </c>
       <c r="E45" s="3">
-        <v>609500</v>
+        <v>581000</v>
       </c>
       <c r="F45" s="3">
-        <v>560500</v>
+        <v>534200</v>
       </c>
       <c r="G45" s="3">
-        <v>567400</v>
+        <v>540900</v>
       </c>
       <c r="H45" s="3">
-        <v>510200</v>
+        <v>486400</v>
       </c>
       <c r="I45" s="3">
-        <v>519800</v>
+        <v>495500</v>
       </c>
       <c r="J45" s="3">
-        <v>446400</v>
+        <v>425500</v>
       </c>
       <c r="K45" s="3">
         <v>433900</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3092500</v>
+        <v>2947900</v>
       </c>
       <c r="E46" s="3">
-        <v>2925800</v>
+        <v>2789000</v>
       </c>
       <c r="F46" s="3">
-        <v>2725800</v>
+        <v>2598400</v>
       </c>
       <c r="G46" s="3">
-        <v>2700200</v>
+        <v>2573900</v>
       </c>
       <c r="H46" s="3">
-        <v>3007500</v>
+        <v>2866900</v>
       </c>
       <c r="I46" s="3">
-        <v>3142800</v>
+        <v>2995800</v>
       </c>
       <c r="J46" s="3">
-        <v>3260100</v>
+        <v>3107600</v>
       </c>
       <c r="K46" s="3">
         <v>3820200</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1226800</v>
+        <v>1169400</v>
       </c>
       <c r="E47" s="3">
-        <v>1071300</v>
+        <v>1021200</v>
       </c>
       <c r="F47" s="3">
-        <v>1017700</v>
+        <v>970100</v>
       </c>
       <c r="G47" s="3">
-        <v>1023700</v>
+        <v>975800</v>
       </c>
       <c r="H47" s="3">
-        <v>1094600</v>
+        <v>1043400</v>
       </c>
       <c r="I47" s="3">
-        <v>1119300</v>
+        <v>1067000</v>
       </c>
       <c r="J47" s="3">
-        <v>1100600</v>
+        <v>1049100</v>
       </c>
       <c r="K47" s="3">
         <v>898800</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4039000</v>
+        <v>3850100</v>
       </c>
       <c r="E48" s="3">
-        <v>3894000</v>
+        <v>3711900</v>
       </c>
       <c r="F48" s="3">
-        <v>3771500</v>
+        <v>3595100</v>
       </c>
       <c r="G48" s="3">
-        <v>3528800</v>
+        <v>3363800</v>
       </c>
       <c r="H48" s="3">
-        <v>3245200</v>
+        <v>3093500</v>
       </c>
       <c r="I48" s="3">
-        <v>2943600</v>
+        <v>2806000</v>
       </c>
       <c r="J48" s="3">
-        <v>2839000</v>
+        <v>2706200</v>
       </c>
       <c r="K48" s="3">
         <v>2552500</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1418200</v>
+        <v>1351900</v>
       </c>
       <c r="E49" s="3">
-        <v>1405500</v>
+        <v>1339700</v>
       </c>
       <c r="F49" s="3">
-        <v>1403700</v>
+        <v>1338100</v>
       </c>
       <c r="G49" s="3">
-        <v>1369400</v>
+        <v>1305300</v>
       </c>
       <c r="H49" s="3">
-        <v>1343800</v>
+        <v>1281000</v>
       </c>
       <c r="I49" s="3">
-        <v>1317600</v>
+        <v>1256000</v>
       </c>
       <c r="J49" s="3">
-        <v>1262300</v>
+        <v>1203300</v>
       </c>
       <c r="K49" s="3">
         <v>1236400</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227400</v>
+        <v>216800</v>
       </c>
       <c r="E52" s="3">
-        <v>246100</v>
+        <v>234600</v>
       </c>
       <c r="F52" s="3">
-        <v>247800</v>
+        <v>236200</v>
       </c>
       <c r="G52" s="3">
-        <v>236500</v>
+        <v>225500</v>
       </c>
       <c r="H52" s="3">
-        <v>255800</v>
+        <v>243800</v>
       </c>
       <c r="I52" s="3">
-        <v>254800</v>
+        <v>242800</v>
       </c>
       <c r="J52" s="3">
-        <v>183700</v>
+        <v>175100</v>
       </c>
       <c r="K52" s="3">
         <v>172000</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10003900</v>
+        <v>9536000</v>
       </c>
       <c r="E54" s="3">
-        <v>9542700</v>
+        <v>9096400</v>
       </c>
       <c r="F54" s="3">
-        <v>9166600</v>
+        <v>8737900</v>
       </c>
       <c r="G54" s="3">
-        <v>8858600</v>
+        <v>8444200</v>
       </c>
       <c r="H54" s="3">
-        <v>8946900</v>
+        <v>8528500</v>
       </c>
       <c r="I54" s="3">
-        <v>8778100</v>
+        <v>8367600</v>
       </c>
       <c r="J54" s="3">
-        <v>8645700</v>
+        <v>8241300</v>
       </c>
       <c r="K54" s="3">
         <v>8679900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>279100</v>
+        <v>266000</v>
       </c>
       <c r="E57" s="3">
-        <v>250900</v>
+        <v>239200</v>
       </c>
       <c r="F57" s="3">
-        <v>285900</v>
+        <v>272500</v>
       </c>
       <c r="G57" s="3">
-        <v>237600</v>
+        <v>226500</v>
       </c>
       <c r="H57" s="3">
-        <v>233100</v>
+        <v>222200</v>
       </c>
       <c r="I57" s="3">
-        <v>226500</v>
+        <v>215900</v>
       </c>
       <c r="J57" s="3">
-        <v>238900</v>
+        <v>227700</v>
       </c>
       <c r="K57" s="3">
         <v>216400</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1066700</v>
+        <v>1016800</v>
       </c>
       <c r="E58" s="3">
-        <v>890600</v>
+        <v>849000</v>
       </c>
       <c r="F58" s="3">
-        <v>530600</v>
+        <v>505800</v>
       </c>
       <c r="G58" s="3">
-        <v>697300</v>
+        <v>664700</v>
       </c>
       <c r="H58" s="3">
-        <v>546500</v>
+        <v>521000</v>
       </c>
       <c r="I58" s="3">
-        <v>440400</v>
+        <v>419800</v>
       </c>
       <c r="J58" s="3">
-        <v>256900</v>
+        <v>244900</v>
       </c>
       <c r="K58" s="3">
         <v>413300</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1133500</v>
+        <v>1080400</v>
       </c>
       <c r="E59" s="3">
-        <v>1177500</v>
+        <v>1122400</v>
       </c>
       <c r="F59" s="3">
-        <v>1081400</v>
+        <v>1030800</v>
       </c>
       <c r="G59" s="3">
-        <v>927100</v>
+        <v>883700</v>
       </c>
       <c r="H59" s="3">
-        <v>869500</v>
+        <v>828900</v>
       </c>
       <c r="I59" s="3">
-        <v>982900</v>
+        <v>936900</v>
       </c>
       <c r="J59" s="3">
-        <v>869300</v>
+        <v>828600</v>
       </c>
       <c r="K59" s="3">
         <v>822800</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2479200</v>
+        <v>2363200</v>
       </c>
       <c r="E60" s="3">
-        <v>2319000</v>
+        <v>2210600</v>
       </c>
       <c r="F60" s="3">
-        <v>1897900</v>
+        <v>1809100</v>
       </c>
       <c r="G60" s="3">
-        <v>1862000</v>
+        <v>1774900</v>
       </c>
       <c r="H60" s="3">
-        <v>1649200</v>
+        <v>1572100</v>
       </c>
       <c r="I60" s="3">
-        <v>1649800</v>
+        <v>1572600</v>
       </c>
       <c r="J60" s="3">
-        <v>1365000</v>
+        <v>1301200</v>
       </c>
       <c r="K60" s="3">
         <v>1452600</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115500</v>
+        <v>110100</v>
       </c>
       <c r="E62" s="3">
-        <v>120500</v>
+        <v>114900</v>
       </c>
       <c r="F62" s="3">
-        <v>123900</v>
+        <v>118100</v>
       </c>
       <c r="G62" s="3">
-        <v>123600</v>
+        <v>117800</v>
       </c>
       <c r="H62" s="3">
-        <v>117700</v>
+        <v>112200</v>
       </c>
       <c r="I62" s="3">
-        <v>112000</v>
+        <v>106800</v>
       </c>
       <c r="J62" s="3">
-        <v>110600</v>
+        <v>105400</v>
       </c>
       <c r="K62" s="3">
         <v>99300</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2655900</v>
+        <v>2531700</v>
       </c>
       <c r="E66" s="3">
-        <v>2472500</v>
+        <v>2356900</v>
       </c>
       <c r="F66" s="3">
-        <v>2064100</v>
+        <v>1967600</v>
       </c>
       <c r="G66" s="3">
-        <v>2006800</v>
+        <v>1912900</v>
       </c>
       <c r="H66" s="3">
-        <v>1782900</v>
+        <v>1699500</v>
       </c>
       <c r="I66" s="3">
-        <v>1782200</v>
+        <v>1698800</v>
       </c>
       <c r="J66" s="3">
-        <v>1493300</v>
+        <v>1423500</v>
       </c>
       <c r="K66" s="3">
         <v>1568300</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3703600</v>
+        <v>3530400</v>
       </c>
       <c r="E72" s="3">
-        <v>3445800</v>
+        <v>3284600</v>
       </c>
       <c r="F72" s="3">
-        <v>3317300</v>
+        <v>3162200</v>
       </c>
       <c r="G72" s="3">
-        <v>3060000</v>
+        <v>2916900</v>
       </c>
       <c r="H72" s="3">
-        <v>3236100</v>
+        <v>3084700</v>
       </c>
       <c r="I72" s="3">
-        <v>3145800</v>
+        <v>2998600</v>
       </c>
       <c r="J72" s="3">
-        <v>3072300</v>
+        <v>2928600</v>
       </c>
       <c r="K72" s="3">
         <v>2910500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7348000</v>
+        <v>7004300</v>
       </c>
       <c r="E76" s="3">
-        <v>7070200</v>
+        <v>6739500</v>
       </c>
       <c r="F76" s="3">
-        <v>7102500</v>
+        <v>6770300</v>
       </c>
       <c r="G76" s="3">
-        <v>6851800</v>
+        <v>6531300</v>
       </c>
       <c r="H76" s="3">
-        <v>7164100</v>
+        <v>6829000</v>
       </c>
       <c r="I76" s="3">
-        <v>6996000</v>
+        <v>6668800</v>
       </c>
       <c r="J76" s="3">
-        <v>7152400</v>
+        <v>6817900</v>
       </c>
       <c r="K76" s="3">
         <v>7111600</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>263600</v>
+        <v>251300</v>
       </c>
       <c r="E81" s="3">
-        <v>132300</v>
+        <v>126200</v>
       </c>
       <c r="F81" s="3">
-        <v>257400</v>
+        <v>245300</v>
       </c>
       <c r="G81" s="3">
-        <v>170400</v>
+        <v>162400</v>
       </c>
       <c r="H81" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="I81" s="3">
-        <v>77900</v>
+        <v>74300</v>
       </c>
       <c r="J81" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="K81" s="3">
         <v>177000</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>552100</v>
+        <v>526300</v>
       </c>
       <c r="E89" s="3">
-        <v>161400</v>
+        <v>153900</v>
       </c>
       <c r="F89" s="3">
-        <v>441600</v>
+        <v>420900</v>
       </c>
       <c r="G89" s="3">
-        <v>261000</v>
+        <v>248800</v>
       </c>
       <c r="H89" s="3">
-        <v>282200</v>
+        <v>269000</v>
       </c>
       <c r="I89" s="3">
-        <v>69600</v>
+        <v>66400</v>
       </c>
       <c r="J89" s="3">
-        <v>297900</v>
+        <v>284000</v>
       </c>
       <c r="K89" s="3">
         <v>218200</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-527100</v>
+        <v>-502500</v>
       </c>
       <c r="E94" s="3">
-        <v>-484100</v>
+        <v>-461400</v>
       </c>
       <c r="F94" s="3">
-        <v>-411000</v>
+        <v>-391700</v>
       </c>
       <c r="G94" s="3">
-        <v>-202400</v>
+        <v>-192900</v>
       </c>
       <c r="H94" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="I94" s="3">
-        <v>-638400</v>
+        <v>-608600</v>
       </c>
       <c r="J94" s="3">
-        <v>-425900</v>
+        <v>-406000</v>
       </c>
       <c r="K94" s="3">
         <v>173900</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22900</v>
+        <v>-21900</v>
       </c>
       <c r="E100" s="3">
-        <v>376900</v>
+        <v>359200</v>
       </c>
       <c r="F100" s="3">
-        <v>-115000</v>
+        <v>-109600</v>
       </c>
       <c r="G100" s="3">
-        <v>-316400</v>
+        <v>-301600</v>
       </c>
       <c r="H100" s="3">
-        <v>-137800</v>
+        <v>-131300</v>
       </c>
       <c r="I100" s="3">
-        <v>145100</v>
+        <v>138400</v>
       </c>
       <c r="J100" s="3">
-        <v>-91700</v>
+        <v>-87400</v>
       </c>
       <c r="K100" s="3">
         <v>1267700</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28300</v>
+        <v>27000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
       </c>
       <c r="H101" s="3">
-        <v>-19600</v>
+        <v>-18600</v>
       </c>
       <c r="I101" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J101" s="3">
-        <v>-82700</v>
+        <v>-78800</v>
       </c>
       <c r="K101" s="3">
         <v>-16100</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="E102" s="3">
-        <v>51200</v>
+        <v>48800</v>
       </c>
       <c r="F102" s="3">
-        <v>-91400</v>
+        <v>-87100</v>
       </c>
       <c r="G102" s="3">
-        <v>-258100</v>
+        <v>-246100</v>
       </c>
       <c r="H102" s="3">
-        <v>97900</v>
+        <v>93300</v>
       </c>
       <c r="I102" s="3">
-        <v>-418800</v>
+        <v>-399200</v>
       </c>
       <c r="J102" s="3">
-        <v>-302400</v>
+        <v>-288300</v>
       </c>
       <c r="K102" s="3">
         <v>1643600</v>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1205000</v>
+        <v>1284700</v>
       </c>
       <c r="E8" s="3">
-        <v>1100300</v>
+        <v>1243300</v>
       </c>
       <c r="F8" s="3">
-        <v>1283100</v>
+        <v>1135200</v>
       </c>
       <c r="G8" s="3">
-        <v>1028800</v>
+        <v>1323800</v>
       </c>
       <c r="H8" s="3">
-        <v>1019700</v>
+        <v>1061500</v>
       </c>
       <c r="I8" s="3">
-        <v>901000</v>
+        <v>1052000</v>
       </c>
       <c r="J8" s="3">
+        <v>929600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1149400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>978300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>943500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>617800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1054200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>821500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>828600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>695800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>817300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>592700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>508600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>642800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>466500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>441000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>380200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>464000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>898400</v>
+        <v>933600</v>
       </c>
       <c r="E9" s="3">
-        <v>874800</v>
+        <v>926900</v>
       </c>
       <c r="F9" s="3">
-        <v>969800</v>
+        <v>902600</v>
       </c>
       <c r="G9" s="3">
-        <v>810500</v>
+        <v>1000500</v>
       </c>
       <c r="H9" s="3">
-        <v>786700</v>
+        <v>836200</v>
       </c>
       <c r="I9" s="3">
-        <v>748300</v>
+        <v>811700</v>
       </c>
       <c r="J9" s="3">
+        <v>772100</v>
+      </c>
+      <c r="K9" s="3">
         <v>890700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>773300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>682800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>488600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>746900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>572400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>558400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>504200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>592200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>407200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>383600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>360500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>441900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>297600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>274200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>274000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>295100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>306600</v>
+        <v>351100</v>
       </c>
       <c r="E10" s="3">
-        <v>225400</v>
+        <v>316400</v>
       </c>
       <c r="F10" s="3">
-        <v>313300</v>
+        <v>232600</v>
       </c>
       <c r="G10" s="3">
-        <v>218300</v>
+        <v>323300</v>
       </c>
       <c r="H10" s="3">
-        <v>233000</v>
+        <v>225200</v>
       </c>
       <c r="I10" s="3">
-        <v>152600</v>
+        <v>240400</v>
       </c>
       <c r="J10" s="3">
+        <v>157500</v>
+      </c>
+      <c r="K10" s="3">
         <v>258700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>205000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>260700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>270200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>191600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>225100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>185500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>204000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>148100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>168900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>166800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>106300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>168900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,22 +1203,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-4900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1209,12 +1229,12 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1222,22 +1242,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>4500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>928600</v>
+        <v>967400</v>
       </c>
       <c r="E17" s="3">
-        <v>944900</v>
+        <v>958100</v>
       </c>
       <c r="F17" s="3">
-        <v>996800</v>
+        <v>974900</v>
       </c>
       <c r="G17" s="3">
-        <v>839400</v>
+        <v>1028500</v>
       </c>
       <c r="H17" s="3">
-        <v>817000</v>
+        <v>866100</v>
       </c>
       <c r="I17" s="3">
-        <v>812900</v>
+        <v>843000</v>
       </c>
       <c r="J17" s="3">
+        <v>838700</v>
+      </c>
+      <c r="K17" s="3">
         <v>931200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>806000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>559100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>784600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>603000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>580300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>620800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>439900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>421100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>408300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>465300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>326300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>304300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>284700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>322800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276400</v>
+        <v>317300</v>
       </c>
       <c r="E18" s="3">
-        <v>155400</v>
+        <v>285200</v>
       </c>
       <c r="F18" s="3">
-        <v>286200</v>
+        <v>160300</v>
       </c>
       <c r="G18" s="3">
-        <v>189400</v>
+        <v>295300</v>
       </c>
       <c r="H18" s="3">
-        <v>202600</v>
+        <v>195400</v>
       </c>
       <c r="I18" s="3">
-        <v>88100</v>
+        <v>209100</v>
       </c>
       <c r="J18" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K18" s="3">
         <v>218200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>172300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>242600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>269700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>228100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>115500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>196500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>152800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>166400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>177500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>140200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>136700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>95500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>141200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,195 +1582,202 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31300</v>
+        <v>24500</v>
       </c>
       <c r="E20" s="3">
-        <v>13500</v>
+        <v>32300</v>
       </c>
       <c r="F20" s="3">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>10300</v>
       </c>
       <c r="H20" s="3">
-        <v>15200</v>
+        <v>12800</v>
       </c>
       <c r="I20" s="3">
-        <v>12700</v>
+        <v>15600</v>
       </c>
       <c r="J20" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>137200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>24800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>91900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313100</v>
+        <v>340800</v>
       </c>
       <c r="E21" s="3">
-        <v>257000</v>
+        <v>323100</v>
       </c>
       <c r="F21" s="3">
-        <v>303600</v>
+        <v>265200</v>
       </c>
       <c r="G21" s="3">
-        <v>198000</v>
+        <v>313300</v>
       </c>
       <c r="H21" s="3">
-        <v>223800</v>
+        <v>204300</v>
       </c>
       <c r="I21" s="3">
-        <v>173300</v>
+        <v>231000</v>
       </c>
       <c r="J21" s="3">
+        <v>178800</v>
+      </c>
+      <c r="K21" s="3">
         <v>227200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>184900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>262500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>418900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>246500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>255900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>176900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>223700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>179800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>259900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>130400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>183000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>144500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>143100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>118100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>178100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
-        <v>8300</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>8600</v>
       </c>
       <c r="G22" s="3">
-        <v>7300</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1760,182 +1800,191 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>400</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
       </c>
       <c r="X22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>304500</v>
+        <v>337200</v>
       </c>
       <c r="E23" s="3">
-        <v>160600</v>
+        <v>314100</v>
       </c>
       <c r="F23" s="3">
-        <v>292700</v>
+        <v>165700</v>
       </c>
       <c r="G23" s="3">
-        <v>194500</v>
+        <v>302000</v>
       </c>
       <c r="H23" s="3">
-        <v>213100</v>
+        <v>200600</v>
       </c>
       <c r="I23" s="3">
-        <v>98600</v>
+        <v>219900</v>
       </c>
       <c r="J23" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K23" s="3">
         <v>219700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>258500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>81200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>406900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>245800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>253500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>133900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>218000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>177600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>258300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>103500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>182800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>142500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>141400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>98400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>144600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61000</v>
+        <v>63100</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>62900</v>
       </c>
       <c r="F24" s="3">
-        <v>51700</v>
+        <v>36700</v>
       </c>
       <c r="G24" s="3">
-        <v>31900</v>
+        <v>53300</v>
       </c>
       <c r="H24" s="3">
-        <v>35500</v>
+        <v>33000</v>
       </c>
       <c r="I24" s="3">
-        <v>20800</v>
+        <v>36600</v>
       </c>
       <c r="J24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K24" s="3">
         <v>40300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>36600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>243500</v>
+        <v>274100</v>
       </c>
       <c r="E26" s="3">
-        <v>125100</v>
+        <v>251200</v>
       </c>
       <c r="F26" s="3">
-        <v>241000</v>
+        <v>129100</v>
       </c>
       <c r="G26" s="3">
-        <v>162500</v>
+        <v>248700</v>
       </c>
       <c r="H26" s="3">
-        <v>177600</v>
+        <v>167700</v>
       </c>
       <c r="I26" s="3">
-        <v>77800</v>
+        <v>183300</v>
       </c>
       <c r="J26" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K26" s="3">
         <v>179400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>214600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>355800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>204200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>209400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>149400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>209100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>181500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>106800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>74200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>108000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>251300</v>
+        <v>277900</v>
       </c>
       <c r="E27" s="3">
-        <v>126200</v>
+        <v>259300</v>
       </c>
       <c r="F27" s="3">
-        <v>245300</v>
+        <v>130200</v>
       </c>
       <c r="G27" s="3">
-        <v>162400</v>
+        <v>253100</v>
       </c>
       <c r="H27" s="3">
-        <v>179900</v>
+        <v>167600</v>
       </c>
       <c r="I27" s="3">
-        <v>74300</v>
+        <v>185600</v>
       </c>
       <c r="J27" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K27" s="3">
         <v>179300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>213400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>358200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>204000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>207700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>185200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>148300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>208700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>79900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>181400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>106400</v>
       </c>
       <c r="X27" s="3">
         <v>106400</v>
       </c>
       <c r="Y27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>73200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>105700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31300</v>
+        <v>-24500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13500</v>
+        <v>-32300</v>
       </c>
       <c r="F32" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-10300</v>
       </c>
       <c r="H32" s="3">
-        <v>-15200</v>
+        <v>-12800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12700</v>
+        <v>-15600</v>
       </c>
       <c r="J32" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-137200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-24800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-91900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>251300</v>
+        <v>277900</v>
       </c>
       <c r="E33" s="3">
-        <v>126200</v>
+        <v>259300</v>
       </c>
       <c r="F33" s="3">
-        <v>245300</v>
+        <v>130200</v>
       </c>
       <c r="G33" s="3">
-        <v>162400</v>
+        <v>253100</v>
       </c>
       <c r="H33" s="3">
-        <v>179900</v>
+        <v>167600</v>
       </c>
       <c r="I33" s="3">
-        <v>74300</v>
+        <v>185600</v>
       </c>
       <c r="J33" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K33" s="3">
         <v>179300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>213400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>358200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>204000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>207700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>103600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>185200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>148300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>208700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>79900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>181400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>106400</v>
       </c>
       <c r="X33" s="3">
         <v>106400</v>
       </c>
       <c r="Y33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>73200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>105700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>251300</v>
+        <v>277900</v>
       </c>
       <c r="E35" s="3">
-        <v>126200</v>
+        <v>259300</v>
       </c>
       <c r="F35" s="3">
-        <v>245300</v>
+        <v>130200</v>
       </c>
       <c r="G35" s="3">
-        <v>162400</v>
+        <v>253100</v>
       </c>
       <c r="H35" s="3">
-        <v>179900</v>
+        <v>167600</v>
       </c>
       <c r="I35" s="3">
-        <v>74300</v>
+        <v>185600</v>
       </c>
       <c r="J35" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K35" s="3">
         <v>179300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>213400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>358200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>204000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>207700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>103600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>185200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>148300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>208700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>79900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>181400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>106400</v>
       </c>
       <c r="X35" s="3">
         <v>106400</v>
       </c>
       <c r="Y35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>73200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>105700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,259 +3007,269 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1381900</v>
+        <v>2095700</v>
       </c>
       <c r="E41" s="3">
-        <v>1378200</v>
+        <v>1425800</v>
       </c>
       <c r="F41" s="3">
-        <v>1353200</v>
+        <v>1422000</v>
       </c>
       <c r="G41" s="3">
-        <v>1441800</v>
+        <v>1396200</v>
       </c>
       <c r="H41" s="3">
-        <v>1684100</v>
+        <v>1487600</v>
       </c>
       <c r="I41" s="3">
-        <v>1541500</v>
+        <v>1737600</v>
       </c>
       <c r="J41" s="3">
+        <v>1590500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1978400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2418000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>775400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>792000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>811500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>789200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1086500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>926800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>671300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>877700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>848700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>486000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>805100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>768800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>848000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>920400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>725400</v>
+        <v>998600</v>
       </c>
       <c r="E42" s="3">
-        <v>557100</v>
+        <v>748400</v>
       </c>
       <c r="F42" s="3">
-        <v>396100</v>
+        <v>574800</v>
       </c>
       <c r="G42" s="3">
-        <v>329200</v>
+        <v>408600</v>
       </c>
       <c r="H42" s="3">
-        <v>436900</v>
+        <v>339600</v>
       </c>
       <c r="I42" s="3">
-        <v>769500</v>
+        <v>450800</v>
       </c>
       <c r="J42" s="3">
+        <v>794000</v>
+      </c>
+      <c r="K42" s="3">
         <v>513700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>708000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1243400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1596100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1711200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1763500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1414900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1717000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1975100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1664900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1343800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>795600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>775400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>819600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>769700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>700700</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>268100</v>
+        <v>276300</v>
       </c>
       <c r="E43" s="3">
-        <v>264400</v>
+        <v>276600</v>
       </c>
       <c r="F43" s="3">
-        <v>303300</v>
+        <v>272800</v>
       </c>
       <c r="G43" s="3">
-        <v>255100</v>
+        <v>312900</v>
       </c>
       <c r="H43" s="3">
-        <v>254000</v>
+        <v>263200</v>
       </c>
       <c r="I43" s="3">
-        <v>182100</v>
+        <v>262000</v>
       </c>
       <c r="J43" s="3">
+        <v>187900</v>
+      </c>
+      <c r="K43" s="3">
         <v>182600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>252900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>174200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>210600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>194200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>172000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>171100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>162900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>120200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>209200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>69200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>31000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>28800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>9300</v>
       </c>
       <c r="E44" s="3">
-        <v>8200</v>
+        <v>4100</v>
       </c>
       <c r="F44" s="3">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="G44" s="3">
-        <v>7000</v>
+        <v>11900</v>
       </c>
       <c r="H44" s="3">
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="I44" s="3">
-        <v>7200</v>
+        <v>5700</v>
       </c>
       <c r="J44" s="3">
         <v>7400</v>
@@ -3182,440 +3278,458 @@
         <v>7400</v>
       </c>
       <c r="L44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M44" s="3">
         <v>9500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>568500</v>
+        <v>607200</v>
       </c>
       <c r="E45" s="3">
-        <v>581000</v>
+        <v>586500</v>
       </c>
       <c r="F45" s="3">
-        <v>534200</v>
+        <v>599400</v>
       </c>
       <c r="G45" s="3">
-        <v>540900</v>
+        <v>551200</v>
       </c>
       <c r="H45" s="3">
-        <v>486400</v>
+        <v>558000</v>
       </c>
       <c r="I45" s="3">
-        <v>495500</v>
+        <v>501800</v>
       </c>
       <c r="J45" s="3">
+        <v>511200</v>
+      </c>
+      <c r="K45" s="3">
         <v>425500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>433900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>423200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>378400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>371100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>313400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>374900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>264700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>268100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>213400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>191900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>168000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>197700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>172000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>168000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>226600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>241600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2947900</v>
+        <v>3987100</v>
       </c>
       <c r="E46" s="3">
-        <v>2789000</v>
+        <v>3041500</v>
       </c>
       <c r="F46" s="3">
-        <v>2598400</v>
+        <v>2877500</v>
       </c>
       <c r="G46" s="3">
-        <v>2573900</v>
+        <v>2680900</v>
       </c>
       <c r="H46" s="3">
-        <v>2866900</v>
+        <v>2655600</v>
       </c>
       <c r="I46" s="3">
-        <v>2995800</v>
+        <v>2957900</v>
       </c>
       <c r="J46" s="3">
+        <v>3091000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3107600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3820200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2625600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2986000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3094700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3043800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3059000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3084200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3083800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2881400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2599300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1523100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1837000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1795600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1818900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1877500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1917600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1169400</v>
+        <v>1390000</v>
       </c>
       <c r="E47" s="3">
-        <v>1021200</v>
+        <v>1206500</v>
       </c>
       <c r="F47" s="3">
-        <v>970100</v>
+        <v>1053600</v>
       </c>
       <c r="G47" s="3">
-        <v>975800</v>
+        <v>1000900</v>
       </c>
       <c r="H47" s="3">
-        <v>1043400</v>
+        <v>1006800</v>
       </c>
       <c r="I47" s="3">
-        <v>1067000</v>
+        <v>1076500</v>
       </c>
       <c r="J47" s="3">
+        <v>1100900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1049100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>898800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>876900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>771500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>709100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>347600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>336200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>332500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>320600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>239300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>215800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>86400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>90600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>78200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>76400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>78100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3850100</v>
+        <v>4134900</v>
       </c>
       <c r="E48" s="3">
-        <v>3711900</v>
+        <v>3972300</v>
       </c>
       <c r="F48" s="3">
-        <v>3595100</v>
+        <v>3829800</v>
       </c>
       <c r="G48" s="3">
-        <v>3363800</v>
+        <v>3709300</v>
       </c>
       <c r="H48" s="3">
-        <v>3093500</v>
+        <v>3470600</v>
       </c>
       <c r="I48" s="3">
-        <v>2806000</v>
+        <v>3191700</v>
       </c>
       <c r="J48" s="3">
+        <v>2895100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2706200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2552500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2274600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2237200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2059100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1814900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1577900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1532300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1312300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1117100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1015500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>983700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>960700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>866600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>765200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>668800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>591300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1351900</v>
+        <v>1384100</v>
       </c>
       <c r="E49" s="3">
-        <v>1339700</v>
+        <v>1394800</v>
       </c>
       <c r="F49" s="3">
-        <v>1338100</v>
+        <v>1382300</v>
       </c>
       <c r="G49" s="3">
-        <v>1305300</v>
+        <v>1380600</v>
       </c>
       <c r="H49" s="3">
-        <v>1281000</v>
+        <v>1346800</v>
       </c>
       <c r="I49" s="3">
-        <v>1256000</v>
+        <v>1321600</v>
       </c>
       <c r="J49" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1203300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1236400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1195900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1154200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1046800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1029800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>987300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>983500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>909900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>873300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>861700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>880200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>876300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>841400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>835000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>815900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>794000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>216800</v>
+        <v>247900</v>
       </c>
       <c r="E52" s="3">
-        <v>234600</v>
+        <v>223700</v>
       </c>
       <c r="F52" s="3">
-        <v>236200</v>
+        <v>242000</v>
       </c>
       <c r="G52" s="3">
-        <v>225500</v>
+        <v>243700</v>
       </c>
       <c r="H52" s="3">
-        <v>243800</v>
+        <v>232600</v>
       </c>
       <c r="I52" s="3">
-        <v>242800</v>
+        <v>251600</v>
       </c>
       <c r="J52" s="3">
+        <v>250600</v>
+      </c>
+      <c r="K52" s="3">
         <v>175100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>172000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>170900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>179500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>156400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>391500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>232100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>172600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>108700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>108200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>87800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>68500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>45800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>34600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>22500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9536000</v>
+        <v>11143900</v>
       </c>
       <c r="E54" s="3">
-        <v>9096400</v>
+        <v>9838800</v>
       </c>
       <c r="F54" s="3">
-        <v>8737900</v>
+        <v>9385200</v>
       </c>
       <c r="G54" s="3">
-        <v>8444200</v>
+        <v>9015400</v>
       </c>
       <c r="H54" s="3">
-        <v>8528500</v>
+        <v>8712400</v>
       </c>
       <c r="I54" s="3">
-        <v>8367600</v>
+        <v>8799300</v>
       </c>
       <c r="J54" s="3">
+        <v>8633300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8241300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8679900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7144000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7328400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7066200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6627600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6192400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6105100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5763100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5219700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3561300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3833100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3632000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3531800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3467300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3403600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,123 +4187,127 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>266000</v>
+        <v>255500</v>
       </c>
       <c r="E57" s="3">
-        <v>239200</v>
+        <v>274400</v>
       </c>
       <c r="F57" s="3">
-        <v>272500</v>
+        <v>246800</v>
       </c>
       <c r="G57" s="3">
-        <v>226500</v>
+        <v>281100</v>
       </c>
       <c r="H57" s="3">
-        <v>222200</v>
+        <v>233700</v>
       </c>
       <c r="I57" s="3">
-        <v>215900</v>
+        <v>229300</v>
       </c>
       <c r="J57" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K57" s="3">
         <v>227700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>216400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>162900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>185600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>227200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>167200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>181100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>190500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>117200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>130700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>133200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>132000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>84900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>73000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>98200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>92600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1016800</v>
+        <v>1032400</v>
       </c>
       <c r="E58" s="3">
-        <v>849000</v>
+        <v>1049100</v>
       </c>
       <c r="F58" s="3">
-        <v>505800</v>
+        <v>875900</v>
       </c>
       <c r="G58" s="3">
-        <v>664700</v>
+        <v>521900</v>
       </c>
       <c r="H58" s="3">
-        <v>521000</v>
+        <v>685800</v>
       </c>
       <c r="I58" s="3">
-        <v>419800</v>
+        <v>537500</v>
       </c>
       <c r="J58" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K58" s="3">
         <v>244900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>413300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>322200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47300</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -4181,8 +4315,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4194,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>37100</v>
@@ -4203,175 +4337,184 @@
         <v>37100</v>
       </c>
       <c r="Y58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>101800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>65400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1080400</v>
+        <v>1225700</v>
       </c>
       <c r="E59" s="3">
-        <v>1122400</v>
+        <v>1114700</v>
       </c>
       <c r="F59" s="3">
-        <v>1030800</v>
+        <v>1158100</v>
       </c>
       <c r="G59" s="3">
-        <v>883700</v>
+        <v>1063500</v>
       </c>
       <c r="H59" s="3">
-        <v>828900</v>
+        <v>911800</v>
       </c>
       <c r="I59" s="3">
-        <v>936900</v>
+        <v>855200</v>
       </c>
       <c r="J59" s="3">
+        <v>966600</v>
+      </c>
+      <c r="K59" s="3">
         <v>828600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>822800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>808400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1052600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>801600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>687500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>630100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>711200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>556200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>432100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>419700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>424600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>446300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>419000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>349800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>311200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>354300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2363200</v>
+        <v>2513500</v>
       </c>
       <c r="E60" s="3">
-        <v>2210600</v>
+        <v>2438300</v>
       </c>
       <c r="F60" s="3">
-        <v>1809100</v>
+        <v>2280800</v>
       </c>
       <c r="G60" s="3">
-        <v>1774900</v>
+        <v>1866500</v>
       </c>
       <c r="H60" s="3">
-        <v>1572100</v>
+        <v>1831300</v>
       </c>
       <c r="I60" s="3">
-        <v>1572600</v>
+        <v>1622000</v>
       </c>
       <c r="J60" s="3">
+        <v>1622600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1301200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1452600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1293500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1285600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1028700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>854700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>811200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>868200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>746700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>549300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>550400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>557800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>615300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>541000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>459900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>511200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>512300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1004200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>110100</v>
+        <v>105000</v>
       </c>
       <c r="E62" s="3">
-        <v>114900</v>
+        <v>113600</v>
       </c>
       <c r="F62" s="3">
-        <v>118100</v>
+        <v>118500</v>
       </c>
       <c r="G62" s="3">
-        <v>117800</v>
+        <v>121900</v>
       </c>
       <c r="H62" s="3">
-        <v>112200</v>
+        <v>121500</v>
       </c>
       <c r="I62" s="3">
-        <v>106800</v>
+        <v>115800</v>
       </c>
       <c r="J62" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K62" s="3">
         <v>105400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>99300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>104200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>117500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>124100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>95900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>30000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>30300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>19000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2531700</v>
+        <v>3687900</v>
       </c>
       <c r="E66" s="3">
-        <v>2356900</v>
+        <v>2612100</v>
       </c>
       <c r="F66" s="3">
-        <v>1967600</v>
+        <v>2431700</v>
       </c>
       <c r="G66" s="3">
-        <v>1912900</v>
+        <v>2030100</v>
       </c>
       <c r="H66" s="3">
-        <v>1699500</v>
+        <v>1973700</v>
       </c>
       <c r="I66" s="3">
-        <v>1698800</v>
+        <v>1753500</v>
       </c>
       <c r="J66" s="3">
+        <v>1752700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1423500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1568300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1414400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1419300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1168400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>965800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>919500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>999600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>793800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>588000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>584900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>592700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>651900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>571800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>491000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>535400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>532100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,10 +5253,13 @@
         <v>0</v>
       </c>
       <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3530400</v>
+        <v>3920400</v>
       </c>
       <c r="E72" s="3">
-        <v>3284600</v>
+        <v>3642500</v>
       </c>
       <c r="F72" s="3">
-        <v>3162200</v>
+        <v>3388900</v>
       </c>
       <c r="G72" s="3">
-        <v>2916900</v>
+        <v>3262600</v>
       </c>
       <c r="H72" s="3">
-        <v>3084700</v>
+        <v>3009500</v>
       </c>
       <c r="I72" s="3">
-        <v>2998600</v>
+        <v>3182700</v>
       </c>
       <c r="J72" s="3">
+        <v>3093800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2928600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2910500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2733500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2697900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2575600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2246600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2000300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1784800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1605100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1368400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1220100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1036800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>989800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>808400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>702000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>583600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>510400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7004300</v>
+        <v>7456000</v>
       </c>
       <c r="E76" s="3">
-        <v>6739500</v>
+        <v>7226700</v>
       </c>
       <c r="F76" s="3">
-        <v>6770300</v>
+        <v>6953500</v>
       </c>
       <c r="G76" s="3">
-        <v>6531300</v>
+        <v>6985300</v>
       </c>
       <c r="H76" s="3">
-        <v>6829000</v>
+        <v>6738700</v>
       </c>
       <c r="I76" s="3">
-        <v>6668800</v>
+        <v>7045800</v>
       </c>
       <c r="J76" s="3">
+        <v>6880500</v>
+      </c>
+      <c r="K76" s="3">
         <v>6817900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7111600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5729500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5909100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5897800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5661800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5272900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5105500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4969400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4631700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4215500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2968500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3181200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3060200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3040800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2931800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2871500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>251300</v>
+        <v>277900</v>
       </c>
       <c r="E81" s="3">
-        <v>126200</v>
+        <v>259300</v>
       </c>
       <c r="F81" s="3">
-        <v>245300</v>
+        <v>130200</v>
       </c>
       <c r="G81" s="3">
-        <v>162400</v>
+        <v>253100</v>
       </c>
       <c r="H81" s="3">
-        <v>179900</v>
+        <v>167600</v>
       </c>
       <c r="I81" s="3">
-        <v>74300</v>
+        <v>185600</v>
       </c>
       <c r="J81" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K81" s="3">
         <v>179300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>213400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>358200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>204000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>207700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>103600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>185200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>148300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>208700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>79900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>181400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>106400</v>
       </c>
       <c r="X81" s="3">
         <v>106400</v>
       </c>
       <c r="Y81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>73200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>105700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>526300</v>
+        <v>405500</v>
       </c>
       <c r="E89" s="3">
-        <v>153900</v>
+        <v>543000</v>
       </c>
       <c r="F89" s="3">
-        <v>420900</v>
+        <v>158800</v>
       </c>
       <c r="G89" s="3">
-        <v>248800</v>
+        <v>434300</v>
       </c>
       <c r="H89" s="3">
-        <v>269000</v>
+        <v>256700</v>
       </c>
       <c r="I89" s="3">
-        <v>66400</v>
+        <v>277500</v>
       </c>
       <c r="J89" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K89" s="3">
         <v>284000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>218200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>348100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>221200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>304500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>96300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>261800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>127600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>206600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>203600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>152000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>134100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>48200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>166300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-502500</v>
+        <v>-680300</v>
       </c>
       <c r="E94" s="3">
-        <v>-461400</v>
+        <v>-518400</v>
       </c>
       <c r="F94" s="3">
-        <v>-391700</v>
+        <v>-476100</v>
       </c>
       <c r="G94" s="3">
-        <v>-192900</v>
+        <v>-404200</v>
       </c>
       <c r="H94" s="3">
-        <v>-25700</v>
+        <v>-199000</v>
       </c>
       <c r="I94" s="3">
-        <v>-608600</v>
+        <v>-26500</v>
       </c>
       <c r="J94" s="3">
+        <v>-627900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-406000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>173900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-161800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-112800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-314600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-626500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>229000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>136200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-483600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-321300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-790700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-229200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-107200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-167600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-168800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-771600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-158200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21900</v>
+        <v>910800</v>
       </c>
       <c r="E100" s="3">
-        <v>359200</v>
+        <v>-22600</v>
       </c>
       <c r="F100" s="3">
-        <v>-109600</v>
+        <v>370600</v>
       </c>
       <c r="G100" s="3">
-        <v>-301600</v>
+        <v>-113100</v>
       </c>
       <c r="H100" s="3">
-        <v>-131300</v>
+        <v>-311200</v>
       </c>
       <c r="I100" s="3">
-        <v>138400</v>
+        <v>-135500</v>
       </c>
       <c r="J100" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-87400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1267700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>79800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-380900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>193200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>926600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-115500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-59900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-104800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>36400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1358900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27000</v>
+        <v>32200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>27800</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-18600</v>
-      </c>
       <c r="I101" s="3">
-        <v>4600</v>
+        <v>-19200</v>
       </c>
       <c r="J101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-78800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>32400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-17500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>40700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28900</v>
+        <v>668300</v>
       </c>
       <c r="E102" s="3">
-        <v>48800</v>
+        <v>29800</v>
       </c>
       <c r="F102" s="3">
-        <v>-87100</v>
+        <v>50300</v>
       </c>
       <c r="G102" s="3">
-        <v>-246100</v>
+        <v>-89900</v>
       </c>
       <c r="H102" s="3">
-        <v>93300</v>
+        <v>-253900</v>
       </c>
       <c r="I102" s="3">
-        <v>-399200</v>
+        <v>96300</v>
       </c>
       <c r="J102" s="3">
+        <v>-411900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-288300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1643600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-320300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>223500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-239400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>374800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-326900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-92900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-150000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-705100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1407600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1284700</v>
+        <v>1277000</v>
       </c>
       <c r="E8" s="3">
-        <v>1243300</v>
+        <v>1403200</v>
       </c>
       <c r="F8" s="3">
-        <v>1135200</v>
+        <v>1271500</v>
       </c>
       <c r="G8" s="3">
-        <v>1323800</v>
+        <v>1230500</v>
       </c>
       <c r="H8" s="3">
-        <v>1061500</v>
+        <v>1123600</v>
       </c>
       <c r="I8" s="3">
+        <v>1310300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1050600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1052000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>929600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1149400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>978300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>943500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>617800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1054200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>821500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>828600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>695800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>817300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>592700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>587500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>508600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>642800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>466500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>441000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>380200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>464000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>933600</v>
+        <v>918300</v>
       </c>
       <c r="E9" s="3">
-        <v>926900</v>
+        <v>1009100</v>
       </c>
       <c r="F9" s="3">
-        <v>902600</v>
+        <v>924100</v>
       </c>
       <c r="G9" s="3">
-        <v>1000500</v>
+        <v>917400</v>
       </c>
       <c r="H9" s="3">
-        <v>836200</v>
+        <v>893400</v>
       </c>
       <c r="I9" s="3">
+        <v>990300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>827700</v>
+      </c>
+      <c r="K9" s="3">
         <v>811700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>772100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>890700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>773300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>682800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>488600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>746900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>572400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>558400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>504200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>592200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>407200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>383600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>360500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>441900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>297600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>274200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>274000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>295100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>351100</v>
+        <v>358700</v>
       </c>
       <c r="E10" s="3">
-        <v>316400</v>
+        <v>394100</v>
       </c>
       <c r="F10" s="3">
-        <v>232600</v>
+        <v>347500</v>
       </c>
       <c r="G10" s="3">
-        <v>323300</v>
+        <v>313100</v>
       </c>
       <c r="H10" s="3">
-        <v>225200</v>
+        <v>230200</v>
       </c>
       <c r="I10" s="3">
+        <v>320000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>222900</v>
+      </c>
+      <c r="K10" s="3">
         <v>240400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>157500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>258700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>205000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>260700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>129200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>307400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>249100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>270200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>191600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>225100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>185500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>204000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>148100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>200800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>168900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>166800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>106300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>168900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,76 +1239,82 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4900</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>-300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>4500</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>4500</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>967400</v>
+        <v>999700</v>
       </c>
       <c r="E17" s="3">
-        <v>958100</v>
+        <v>1052300</v>
       </c>
       <c r="F17" s="3">
-        <v>974900</v>
+        <v>957500</v>
       </c>
       <c r="G17" s="3">
-        <v>1028500</v>
+        <v>948300</v>
       </c>
       <c r="H17" s="3">
-        <v>866100</v>
+        <v>964900</v>
       </c>
       <c r="I17" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>857200</v>
+      </c>
+      <c r="K17" s="3">
         <v>843000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>838700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>931200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>806000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>559100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>784600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>603000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>580300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>620800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>439900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>421100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>408300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>465300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>326300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>304300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>284700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>322800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317300</v>
+        <v>277200</v>
       </c>
       <c r="E18" s="3">
-        <v>285200</v>
+        <v>351000</v>
       </c>
       <c r="F18" s="3">
-        <v>160300</v>
+        <v>314000</v>
       </c>
       <c r="G18" s="3">
-        <v>295300</v>
+        <v>282200</v>
       </c>
       <c r="H18" s="3">
-        <v>195400</v>
+        <v>158700</v>
       </c>
       <c r="I18" s="3">
+        <v>292300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K18" s="3">
         <v>209100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>90900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>218200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>172300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>242600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>58700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>269700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>218500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>228100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>115500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>196500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>152800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>166400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>100200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>177500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>140200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>136700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>95500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>141200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,207 +1648,221 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24500</v>
+        <v>33700</v>
       </c>
       <c r="E20" s="3">
-        <v>32300</v>
+        <v>29100</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>24300</v>
       </c>
       <c r="G20" s="3">
-        <v>10300</v>
+        <v>31900</v>
       </c>
       <c r="H20" s="3">
-        <v>12800</v>
+        <v>13800</v>
       </c>
       <c r="I20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K20" s="3">
         <v>15600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>13100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>17200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>22500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>137200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>27300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>25500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>18300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>21500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>24800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>91900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>340800</v>
+        <v>408600</v>
       </c>
       <c r="E21" s="3">
-        <v>323100</v>
+        <v>384100</v>
       </c>
       <c r="F21" s="3">
-        <v>265200</v>
+        <v>337300</v>
       </c>
       <c r="G21" s="3">
-        <v>313300</v>
+        <v>319800</v>
       </c>
       <c r="H21" s="3">
-        <v>204300</v>
+        <v>262500</v>
       </c>
       <c r="I21" s="3">
+        <v>310100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>202200</v>
+      </c>
+      <c r="K21" s="3">
         <v>231000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>178800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>227200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>184900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>262500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>145600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>418900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>246500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>255900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>176900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>223700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>179800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>259900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>130400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>183000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>144500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>143100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>118100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>178100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3600</v>
-      </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="I22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1803,188 +1882,206 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>337200</v>
+        <v>300800</v>
       </c>
       <c r="E23" s="3">
-        <v>314100</v>
+        <v>369200</v>
       </c>
       <c r="F23" s="3">
-        <v>165700</v>
+        <v>333800</v>
       </c>
       <c r="G23" s="3">
-        <v>302000</v>
+        <v>310900</v>
       </c>
       <c r="H23" s="3">
-        <v>200600</v>
+        <v>164000</v>
       </c>
       <c r="I23" s="3">
+        <v>299000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>198600</v>
+      </c>
+      <c r="K23" s="3">
         <v>219900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>101700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>219700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>175000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>258500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>81200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>406900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>245800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>253500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>133900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>218000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>177600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>258300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>103500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>182800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>142500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>141400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>98400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>144600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63100</v>
+        <v>64700</v>
       </c>
       <c r="E24" s="3">
-        <v>62900</v>
+        <v>71100</v>
       </c>
       <c r="F24" s="3">
-        <v>36700</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="3">
-        <v>53300</v>
+        <v>62300</v>
       </c>
       <c r="H24" s="3">
-        <v>33000</v>
+        <v>36300</v>
       </c>
       <c r="I24" s="3">
+        <v>52800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K24" s="3">
         <v>36600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>40300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>44000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>20500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>51000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>41500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>44100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>29200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>32300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>28200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>49100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>22100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>35300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>34600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>24200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>36600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>274100</v>
+        <v>236100</v>
       </c>
       <c r="E26" s="3">
-        <v>251200</v>
+        <v>298000</v>
       </c>
       <c r="F26" s="3">
-        <v>129100</v>
+        <v>271300</v>
       </c>
       <c r="G26" s="3">
-        <v>248700</v>
+        <v>248600</v>
       </c>
       <c r="H26" s="3">
-        <v>167700</v>
+        <v>127800</v>
       </c>
       <c r="I26" s="3">
+        <v>246200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K26" s="3">
         <v>183300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>80200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>179400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>179100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>214600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>60700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>355800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>204200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>209400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>104700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>185700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>149400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>209100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>81300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>181500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>107200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>106800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>74200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>108000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>277900</v>
+        <v>237400</v>
       </c>
       <c r="E27" s="3">
-        <v>259300</v>
+        <v>307400</v>
       </c>
       <c r="F27" s="3">
-        <v>130200</v>
+        <v>275100</v>
       </c>
       <c r="G27" s="3">
-        <v>253100</v>
+        <v>256600</v>
       </c>
       <c r="H27" s="3">
-        <v>167600</v>
+        <v>128800</v>
       </c>
       <c r="I27" s="3">
+        <v>250500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K27" s="3">
         <v>185600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>76600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>179300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>177000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>213400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>59100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>358200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>204000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>207700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>103600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>185200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>148300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>208700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>79900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>181400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>106400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>106400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>73200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>105700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24500</v>
+        <v>-33700</v>
       </c>
       <c r="E32" s="3">
-        <v>-32300</v>
+        <v>-29100</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>-24300</v>
       </c>
       <c r="G32" s="3">
-        <v>-10300</v>
+        <v>-31900</v>
       </c>
       <c r="H32" s="3">
-        <v>-12800</v>
+        <v>-13800</v>
       </c>
       <c r="I32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-13100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-17200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-22500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-137200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-25500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-18300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-21500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-24800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-91900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>277900</v>
+        <v>237400</v>
       </c>
       <c r="E33" s="3">
-        <v>259300</v>
+        <v>307400</v>
       </c>
       <c r="F33" s="3">
-        <v>130200</v>
+        <v>275100</v>
       </c>
       <c r="G33" s="3">
-        <v>253100</v>
+        <v>256600</v>
       </c>
       <c r="H33" s="3">
-        <v>167600</v>
+        <v>128800</v>
       </c>
       <c r="I33" s="3">
+        <v>250500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K33" s="3">
         <v>185600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>76600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>179300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>177000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>213400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>59100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>358200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>204000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>207700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>103600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>185200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>148300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>208700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>79900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>181400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>106400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>106400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>73200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>105700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>277900</v>
+        <v>237400</v>
       </c>
       <c r="E35" s="3">
-        <v>259300</v>
+        <v>307400</v>
       </c>
       <c r="F35" s="3">
-        <v>130200</v>
+        <v>275100</v>
       </c>
       <c r="G35" s="3">
-        <v>253100</v>
+        <v>256600</v>
       </c>
       <c r="H35" s="3">
-        <v>167600</v>
+        <v>128800</v>
       </c>
       <c r="I35" s="3">
+        <v>250500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K35" s="3">
         <v>185600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>76600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>179300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>177000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>213400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>59100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>358200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>204000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>207700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>103600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>185200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>148300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>208700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>79900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>181400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>106400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>106400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>73200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>105700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2095700</v>
+        <v>1358400</v>
       </c>
       <c r="E41" s="3">
-        <v>1425800</v>
+        <v>1662100</v>
       </c>
       <c r="F41" s="3">
-        <v>1422000</v>
+        <v>2074300</v>
       </c>
       <c r="G41" s="3">
-        <v>1396200</v>
+        <v>1411200</v>
       </c>
       <c r="H41" s="3">
-        <v>1487600</v>
+        <v>1407400</v>
       </c>
       <c r="I41" s="3">
+        <v>1381900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1472400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1737600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1590500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1978400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2418000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>775400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>792000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>811500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>789200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1086500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>926800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>671300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>877700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>848700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>486000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>805100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>768800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>848000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>920400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>998600</v>
+        <v>1262100</v>
       </c>
       <c r="E42" s="3">
-        <v>748400</v>
+        <v>817900</v>
       </c>
       <c r="F42" s="3">
-        <v>574800</v>
+        <v>988400</v>
       </c>
       <c r="G42" s="3">
-        <v>408600</v>
+        <v>740700</v>
       </c>
       <c r="H42" s="3">
-        <v>339600</v>
+        <v>568900</v>
       </c>
       <c r="I42" s="3">
+        <v>404500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>336100</v>
+      </c>
+      <c r="K42" s="3">
         <v>450800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>794000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>513700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>708000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1243400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1596100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1711200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1763500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1414900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1717000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1975100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1664900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1343800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>795600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>775400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>819600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>769700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>700700</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>276300</v>
+        <v>260500</v>
       </c>
       <c r="E43" s="3">
-        <v>276600</v>
+        <v>296400</v>
       </c>
       <c r="F43" s="3">
-        <v>272800</v>
+        <v>273500</v>
       </c>
       <c r="G43" s="3">
-        <v>312900</v>
+        <v>273800</v>
       </c>
       <c r="H43" s="3">
-        <v>263200</v>
+        <v>270000</v>
       </c>
       <c r="I43" s="3">
+        <v>309700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>260500</v>
+      </c>
+      <c r="K43" s="3">
         <v>262000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>187900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>182600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>252900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>174200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>210600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>194200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>172000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>177300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>171100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>162900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>120200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>209200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>69200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>53700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>31000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>28800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>25200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>29600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9300</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
-        <v>8500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>11900</v>
-      </c>
       <c r="H44" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="I44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>7400</v>
       </c>
       <c r="L44" s="3">
         <v>7400</v>
       </c>
       <c r="M44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="O44" s="3">
         <v>9500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>8900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>6800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>5400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>6400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>5200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>5600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>5100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>4300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>4600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>4900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>607200</v>
+        <v>709000</v>
       </c>
       <c r="E45" s="3">
-        <v>586500</v>
+        <v>697000</v>
       </c>
       <c r="F45" s="3">
-        <v>599400</v>
+        <v>601000</v>
       </c>
       <c r="G45" s="3">
-        <v>551200</v>
+        <v>580500</v>
       </c>
       <c r="H45" s="3">
-        <v>558000</v>
+        <v>593300</v>
       </c>
       <c r="I45" s="3">
+        <v>545600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>552300</v>
+      </c>
+      <c r="K45" s="3">
         <v>501800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>511200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>425500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>433900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>423200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>378400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>371100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>313400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>374900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>264700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>268100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>213400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>191900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>168000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>197700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>172000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>168000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>226600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>241600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3987100</v>
+        <v>3594100</v>
       </c>
       <c r="E46" s="3">
-        <v>3041500</v>
+        <v>3479100</v>
       </c>
       <c r="F46" s="3">
-        <v>2877500</v>
+        <v>3946300</v>
       </c>
       <c r="G46" s="3">
-        <v>2680900</v>
+        <v>3010300</v>
       </c>
       <c r="H46" s="3">
-        <v>2655600</v>
+        <v>2848100</v>
       </c>
       <c r="I46" s="3">
+        <v>2653400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2628500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2957900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3091000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3107600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3820200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2625600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2986000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3094700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3043800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3059000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3084200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3083800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2881400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2599300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1523100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1837000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1795600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1818900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1877500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1917600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1390000</v>
+        <v>1929800</v>
       </c>
       <c r="E47" s="3">
-        <v>1206500</v>
+        <v>1868700</v>
       </c>
       <c r="F47" s="3">
-        <v>1053600</v>
+        <v>1375700</v>
       </c>
       <c r="G47" s="3">
-        <v>1000900</v>
+        <v>1194200</v>
       </c>
       <c r="H47" s="3">
-        <v>1006800</v>
+        <v>1042800</v>
       </c>
       <c r="I47" s="3">
+        <v>990600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>996500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1076500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1100900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1049100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>898800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>876900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>771500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>709100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>347600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>336200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>332500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>320600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>239300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>215800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>86400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>90600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>82600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>78200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>76400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>78100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4134900</v>
+        <v>4348900</v>
       </c>
       <c r="E48" s="3">
-        <v>3972300</v>
+        <v>4210700</v>
       </c>
       <c r="F48" s="3">
-        <v>3829800</v>
+        <v>4092500</v>
       </c>
       <c r="G48" s="3">
-        <v>3709300</v>
+        <v>3931700</v>
       </c>
       <c r="H48" s="3">
-        <v>3470600</v>
+        <v>3790600</v>
       </c>
       <c r="I48" s="3">
+        <v>3671300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3191700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2895100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2706200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2552500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2274600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2237200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2059100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1814900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1577900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1532300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1312300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1117100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1015500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>983700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>960700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>866600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>765200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>668800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>591300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1384100</v>
+        <v>1412200</v>
       </c>
       <c r="E49" s="3">
-        <v>1394800</v>
+        <v>1380800</v>
       </c>
       <c r="F49" s="3">
-        <v>1382300</v>
+        <v>1369900</v>
       </c>
       <c r="G49" s="3">
-        <v>1380600</v>
+        <v>1380500</v>
       </c>
       <c r="H49" s="3">
-        <v>1346800</v>
+        <v>1368100</v>
       </c>
       <c r="I49" s="3">
+        <v>1366400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1321600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1295800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1203300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1236400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1195900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1154200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1046800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1029800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>987300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>983500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>909900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>873300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>861700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>880200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>876300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>841400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>835000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>815900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>794000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>247900</v>
+        <v>186000</v>
       </c>
       <c r="E52" s="3">
-        <v>223700</v>
+        <v>222700</v>
       </c>
       <c r="F52" s="3">
-        <v>242000</v>
+        <v>245300</v>
       </c>
       <c r="G52" s="3">
-        <v>243700</v>
+        <v>221400</v>
       </c>
       <c r="H52" s="3">
-        <v>232600</v>
+        <v>239500</v>
       </c>
       <c r="I52" s="3">
+        <v>241200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K52" s="3">
         <v>251600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>250600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>175100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>172000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>170900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>179500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>156400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>391500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>232100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>172600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>136600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>108700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>108200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>87800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>68500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>45800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>34600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>28700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>22500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11143900</v>
+        <v>11471000</v>
       </c>
       <c r="E54" s="3">
-        <v>9838800</v>
+        <v>11162100</v>
       </c>
       <c r="F54" s="3">
-        <v>9385200</v>
+        <v>11029900</v>
       </c>
       <c r="G54" s="3">
-        <v>9015400</v>
+        <v>9738100</v>
       </c>
       <c r="H54" s="3">
-        <v>8712400</v>
+        <v>9289100</v>
       </c>
       <c r="I54" s="3">
+        <v>8923100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8623200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8799300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8633300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8241300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8679900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7144000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7328400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7066200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6627600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6192400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6105100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5763100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5219700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4800400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3561300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3833100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3632000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3531800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3467300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3403600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,141 +4447,149 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>255500</v>
+        <v>292600</v>
       </c>
       <c r="E57" s="3">
-        <v>274400</v>
+        <v>313100</v>
       </c>
       <c r="F57" s="3">
-        <v>246800</v>
+        <v>252800</v>
       </c>
       <c r="G57" s="3">
-        <v>281100</v>
+        <v>271600</v>
       </c>
       <c r="H57" s="3">
-        <v>233700</v>
+        <v>244200</v>
       </c>
       <c r="I57" s="3">
+        <v>278300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>231300</v>
+      </c>
+      <c r="K57" s="3">
         <v>229300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>222800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>227700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>216400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>162900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>185600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>227200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>167200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>181100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>157100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>190500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>117200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>130700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>133200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>132000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>84900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>73000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>98200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>92600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1032400</v>
+        <v>966500</v>
       </c>
       <c r="E58" s="3">
-        <v>1049100</v>
+        <v>795200</v>
       </c>
       <c r="F58" s="3">
-        <v>875900</v>
+        <v>1021800</v>
       </c>
       <c r="G58" s="3">
-        <v>521900</v>
+        <v>1038400</v>
       </c>
       <c r="H58" s="3">
-        <v>685800</v>
+        <v>867000</v>
       </c>
       <c r="I58" s="3">
+        <v>516500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>678800</v>
+      </c>
+      <c r="K58" s="3">
         <v>537500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>433100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>244900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>413300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>322200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>47300</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4331,196 +4598,214 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>37100</v>
       </c>
       <c r="Z58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>101800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>65400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1225700</v>
+        <v>1456300</v>
       </c>
       <c r="E59" s="3">
-        <v>1114700</v>
+        <v>1223700</v>
       </c>
       <c r="F59" s="3">
-        <v>1158100</v>
+        <v>1213100</v>
       </c>
       <c r="G59" s="3">
-        <v>1063500</v>
+        <v>1103300</v>
       </c>
       <c r="H59" s="3">
-        <v>911800</v>
+        <v>1146200</v>
       </c>
       <c r="I59" s="3">
+        <v>1052600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>902400</v>
+      </c>
+      <c r="K59" s="3">
         <v>855200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>966600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>828600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>822800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>808400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1052600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>801600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>687500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>630100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>711200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>556200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>432100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>419700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>424600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>446300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>419000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>349800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>311200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>354300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2513500</v>
+        <v>2715300</v>
       </c>
       <c r="E60" s="3">
-        <v>2438300</v>
+        <v>2332000</v>
       </c>
       <c r="F60" s="3">
-        <v>2280800</v>
+        <v>2487700</v>
       </c>
       <c r="G60" s="3">
-        <v>1866500</v>
+        <v>2413300</v>
       </c>
       <c r="H60" s="3">
-        <v>1831300</v>
+        <v>2257400</v>
       </c>
       <c r="I60" s="3">
+        <v>1847400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1812500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1622000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1622600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1301200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1452600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1293500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1285600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1028700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>854700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>811200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>868200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>746700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>549300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>550400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>557800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>615300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>541000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>459900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>511200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>512300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1004200</v>
+        <v>962300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>965100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>993900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4588,88 +4873,100 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105000</v>
+        <v>116800</v>
       </c>
       <c r="E62" s="3">
-        <v>113600</v>
+        <v>121800</v>
       </c>
       <c r="F62" s="3">
-        <v>118500</v>
+        <v>103900</v>
       </c>
       <c r="G62" s="3">
-        <v>121900</v>
+        <v>112400</v>
       </c>
       <c r="H62" s="3">
-        <v>121500</v>
+        <v>117300</v>
       </c>
       <c r="I62" s="3">
+        <v>120600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K62" s="3">
         <v>115800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>110200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>105400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>99300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>104200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>117500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>124100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>95900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>96500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>121000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>39500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>33600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>33400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>34000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>35700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>30000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>30300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>23500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>19000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3687900</v>
+        <v>3856800</v>
       </c>
       <c r="E66" s="3">
-        <v>2612100</v>
+        <v>3482000</v>
       </c>
       <c r="F66" s="3">
-        <v>2431700</v>
+        <v>3650200</v>
       </c>
       <c r="G66" s="3">
-        <v>2030100</v>
+        <v>2585400</v>
       </c>
       <c r="H66" s="3">
-        <v>1973700</v>
+        <v>2406800</v>
       </c>
       <c r="I66" s="3">
+        <v>2009300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1953500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1753500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1752700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1423500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1568300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1414400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1419300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1168400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>965800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>919500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>999600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>793800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>588000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>584900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>592700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>651900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>571800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>491000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>535400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>532100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,10 +5591,16 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3920400</v>
+        <v>4373200</v>
       </c>
       <c r="E72" s="3">
-        <v>3642500</v>
+        <v>4187700</v>
       </c>
       <c r="F72" s="3">
-        <v>3388900</v>
+        <v>3880300</v>
       </c>
       <c r="G72" s="3">
-        <v>3262600</v>
+        <v>3605200</v>
       </c>
       <c r="H72" s="3">
-        <v>3009500</v>
+        <v>3354200</v>
       </c>
       <c r="I72" s="3">
+        <v>3229200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2978700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3182700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3093800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2928600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2910500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2733500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2697900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2575600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2246600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2000300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1784800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1605100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1368400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1220100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1036800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>989800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>808400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>702000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>583600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>510400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7456000</v>
+        <v>7614300</v>
       </c>
       <c r="E76" s="3">
-        <v>7226700</v>
+        <v>7680200</v>
       </c>
       <c r="F76" s="3">
-        <v>6953500</v>
+        <v>7379700</v>
       </c>
       <c r="G76" s="3">
-        <v>6985300</v>
+        <v>7152800</v>
       </c>
       <c r="H76" s="3">
-        <v>6738700</v>
+        <v>6882300</v>
       </c>
       <c r="I76" s="3">
+        <v>6913800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6669700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7045800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6880500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6817900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7111600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5729500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5909100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5897800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5661800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5272900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5105500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4969400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4631700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4215500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2968500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3181200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3060200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3040800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2931800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2871500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>277900</v>
+        <v>237400</v>
       </c>
       <c r="E81" s="3">
-        <v>259300</v>
+        <v>307400</v>
       </c>
       <c r="F81" s="3">
-        <v>130200</v>
+        <v>275100</v>
       </c>
       <c r="G81" s="3">
-        <v>253100</v>
+        <v>256600</v>
       </c>
       <c r="H81" s="3">
-        <v>167600</v>
+        <v>128800</v>
       </c>
       <c r="I81" s="3">
+        <v>250500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K81" s="3">
         <v>185600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>76600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>179300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>177000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>213400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>59100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>358200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>204000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>207700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>103600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>185200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>148300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>208700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>79900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>181400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>106400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>106400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>73200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>105700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>405500</v>
+        <v>389200</v>
       </c>
       <c r="E89" s="3">
-        <v>543000</v>
+        <v>535900</v>
       </c>
       <c r="F89" s="3">
-        <v>158800</v>
+        <v>401300</v>
       </c>
       <c r="G89" s="3">
-        <v>434300</v>
+        <v>537400</v>
       </c>
       <c r="H89" s="3">
-        <v>256700</v>
+        <v>157100</v>
       </c>
       <c r="I89" s="3">
+        <v>429800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>254000</v>
+      </c>
+      <c r="K89" s="3">
         <v>277500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>68500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>284000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>218200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>184500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>348100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>221200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>304500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>96300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>261800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>127600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>206600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>30700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>203600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>152000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>134100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>48200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>166300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-680300</v>
+        <v>-833900</v>
       </c>
       <c r="E94" s="3">
-        <v>-518400</v>
+        <v>-622700</v>
       </c>
       <c r="F94" s="3">
-        <v>-476100</v>
+        <v>-673300</v>
       </c>
       <c r="G94" s="3">
-        <v>-404200</v>
+        <v>-513100</v>
       </c>
       <c r="H94" s="3">
-        <v>-199000</v>
+        <v>-471200</v>
       </c>
       <c r="I94" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-627900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-406000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>173900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-161800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-112800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-314600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-626500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>229000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>136200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-483600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-321300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-790700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-229200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-107200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-168800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-771600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-158200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>910800</v>
+        <v>119500</v>
       </c>
       <c r="E100" s="3">
-        <v>-22600</v>
+        <v>-242700</v>
       </c>
       <c r="F100" s="3">
-        <v>370600</v>
+        <v>901500</v>
       </c>
       <c r="G100" s="3">
-        <v>-113100</v>
+        <v>-22300</v>
       </c>
       <c r="H100" s="3">
-        <v>-311200</v>
+        <v>366800</v>
       </c>
       <c r="I100" s="3">
+        <v>-111900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-135500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>142800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-87400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1267700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>9600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>47000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>79800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-380900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-22300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>193200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>926600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-115500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-30000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-104800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>36400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1358900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32200</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>27800</v>
+        <v>-8400</v>
       </c>
       <c r="F101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-78800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>14200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>32400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-12800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-16600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-18100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>40700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>668300</v>
+        <v>-326500</v>
       </c>
       <c r="E102" s="3">
-        <v>29800</v>
+        <v>-337900</v>
       </c>
       <c r="F102" s="3">
-        <v>50300</v>
+        <v>661400</v>
       </c>
       <c r="G102" s="3">
-        <v>-89900</v>
+        <v>29500</v>
       </c>
       <c r="H102" s="3">
-        <v>-253900</v>
+        <v>49800</v>
       </c>
       <c r="I102" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="K102" s="3">
         <v>96300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-411900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-288300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1643600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>32700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>33500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-320300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>155900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>223500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-239400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>13700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>374800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-326900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>49800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-92900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-150000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-705100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1407600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1277000</v>
+        <v>1342000</v>
       </c>
       <c r="E8" s="3">
-        <v>1403200</v>
+        <v>1237700</v>
       </c>
       <c r="F8" s="3">
-        <v>1271500</v>
+        <v>1360100</v>
       </c>
       <c r="G8" s="3">
-        <v>1230500</v>
+        <v>1232400</v>
       </c>
       <c r="H8" s="3">
-        <v>1123600</v>
+        <v>1192700</v>
       </c>
       <c r="I8" s="3">
-        <v>1310300</v>
+        <v>1089000</v>
       </c>
       <c r="J8" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1050600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1052000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>929600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1149400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>978300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>943500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>617800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1054200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>821500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>828600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>695800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>817300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>592700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>587500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>508600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>642800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>466500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>441000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>380200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>464000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>918300</v>
+        <v>886700</v>
       </c>
       <c r="E9" s="3">
-        <v>1009100</v>
+        <v>890000</v>
       </c>
       <c r="F9" s="3">
-        <v>924100</v>
+        <v>978100</v>
       </c>
       <c r="G9" s="3">
-        <v>917400</v>
+        <v>895600</v>
       </c>
       <c r="H9" s="3">
-        <v>893400</v>
+        <v>889200</v>
       </c>
       <c r="I9" s="3">
-        <v>990300</v>
+        <v>865900</v>
       </c>
       <c r="J9" s="3">
+        <v>959900</v>
+      </c>
+      <c r="K9" s="3">
         <v>827700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>811700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>772100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>890700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>773300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>682800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>488600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>746900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>572400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>558400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>504200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>592200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>407200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>383600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>360500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>441900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>297600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>274200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>274000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>295100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>358700</v>
+        <v>455300</v>
       </c>
       <c r="E10" s="3">
-        <v>394100</v>
+        <v>347700</v>
       </c>
       <c r="F10" s="3">
-        <v>347500</v>
+        <v>382000</v>
       </c>
       <c r="G10" s="3">
-        <v>313100</v>
+        <v>336800</v>
       </c>
       <c r="H10" s="3">
-        <v>230200</v>
+        <v>303500</v>
       </c>
       <c r="I10" s="3">
-        <v>320000</v>
+        <v>223100</v>
       </c>
       <c r="J10" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K10" s="3">
         <v>222900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>157500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>258700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>205000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>260700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>249100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>270200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>191600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>225100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>185500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>204000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>148100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>168900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>166800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>106300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>168900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,31 +1262,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-4700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1277,12 +1297,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1290,22 +1310,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,11 +1333,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4500</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>999700</v>
+        <v>945500</v>
       </c>
       <c r="E17" s="3">
-        <v>1052300</v>
+        <v>969000</v>
       </c>
       <c r="F17" s="3">
-        <v>957500</v>
+        <v>1019900</v>
       </c>
       <c r="G17" s="3">
-        <v>948300</v>
+        <v>928100</v>
       </c>
       <c r="H17" s="3">
-        <v>964900</v>
+        <v>919100</v>
       </c>
       <c r="I17" s="3">
-        <v>1018000</v>
+        <v>935200</v>
       </c>
       <c r="J17" s="3">
+        <v>986700</v>
+      </c>
+      <c r="K17" s="3">
         <v>857200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>843000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>838700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>931200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>806000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>559100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>784600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>603000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>580300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>620800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>439900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>421100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>408300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>465300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>326300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>304300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>284700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>322800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277200</v>
+        <v>396500</v>
       </c>
       <c r="E18" s="3">
-        <v>351000</v>
+        <v>268700</v>
       </c>
       <c r="F18" s="3">
-        <v>314000</v>
+        <v>340200</v>
       </c>
       <c r="G18" s="3">
-        <v>282200</v>
+        <v>304400</v>
       </c>
       <c r="H18" s="3">
-        <v>158700</v>
+        <v>273600</v>
       </c>
       <c r="I18" s="3">
-        <v>292300</v>
+        <v>153800</v>
       </c>
       <c r="J18" s="3">
+        <v>283300</v>
+      </c>
+      <c r="K18" s="3">
         <v>193400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>209100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>172300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>242600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>269700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>218500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>228100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>115500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>196500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>152800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>166400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>177500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>140200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>136700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>95500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>141200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,222 +1683,229 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33700</v>
+        <v>41300</v>
       </c>
       <c r="E20" s="3">
-        <v>29100</v>
+        <v>32700</v>
       </c>
       <c r="F20" s="3">
-        <v>24300</v>
+        <v>28200</v>
       </c>
       <c r="G20" s="3">
-        <v>31900</v>
+        <v>23500</v>
       </c>
       <c r="H20" s="3">
-        <v>13800</v>
+        <v>31000</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>13400</v>
       </c>
       <c r="J20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K20" s="3">
         <v>12600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>137200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>24800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>91900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>408600</v>
+        <v>440400</v>
       </c>
       <c r="E21" s="3">
-        <v>384100</v>
+        <v>396000</v>
       </c>
       <c r="F21" s="3">
-        <v>337300</v>
+        <v>372300</v>
       </c>
       <c r="G21" s="3">
-        <v>319800</v>
+        <v>327000</v>
       </c>
       <c r="H21" s="3">
+        <v>309900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>254400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>202200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>231000</v>
+      </c>
+      <c r="M21" s="3">
+        <v>178800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>227200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>184900</v>
+      </c>
+      <c r="P21" s="3">
         <v>262500</v>
       </c>
-      <c r="I21" s="3">
-        <v>310100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>202200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>231000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>178800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>227200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>184900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>262500</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>145600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>418900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>246500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>255900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>176900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>223700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>179800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>259900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>130400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>183000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>144500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>143100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>118100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>178100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>10800</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="G22" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="H22" s="3">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3">
-        <v>3500</v>
+        <v>8200</v>
       </c>
       <c r="J22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1888,200 +1928,209 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>400</v>
       </c>
       <c r="Z22" s="3">
         <v>400</v>
       </c>
       <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300800</v>
+        <v>427900</v>
       </c>
       <c r="E23" s="3">
-        <v>369200</v>
+        <v>291500</v>
       </c>
       <c r="F23" s="3">
-        <v>333800</v>
+        <v>357800</v>
       </c>
       <c r="G23" s="3">
-        <v>310900</v>
+        <v>323500</v>
       </c>
       <c r="H23" s="3">
-        <v>164000</v>
+        <v>301300</v>
       </c>
       <c r="I23" s="3">
-        <v>299000</v>
+        <v>159000</v>
       </c>
       <c r="J23" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K23" s="3">
         <v>198600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>219900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>101700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>219700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>175000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>258500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>406900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>245800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>253500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>133900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>218000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>177600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>258300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>103500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>182800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>142500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>141400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>98400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>144600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64700</v>
+        <v>79300</v>
       </c>
       <c r="E24" s="3">
-        <v>71100</v>
+        <v>62700</v>
       </c>
       <c r="F24" s="3">
-        <v>62500</v>
+        <v>69000</v>
       </c>
       <c r="G24" s="3">
-        <v>62300</v>
+        <v>60500</v>
       </c>
       <c r="H24" s="3">
-        <v>36300</v>
+        <v>60400</v>
       </c>
       <c r="I24" s="3">
-        <v>52800</v>
+        <v>35200</v>
       </c>
       <c r="J24" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>29200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>49100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>34600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>36600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>236100</v>
+        <v>348600</v>
       </c>
       <c r="E26" s="3">
-        <v>298000</v>
+        <v>228900</v>
       </c>
       <c r="F26" s="3">
-        <v>271300</v>
+        <v>288900</v>
       </c>
       <c r="G26" s="3">
-        <v>248600</v>
+        <v>263000</v>
       </c>
       <c r="H26" s="3">
-        <v>127800</v>
+        <v>241000</v>
       </c>
       <c r="I26" s="3">
-        <v>246200</v>
+        <v>123800</v>
       </c>
       <c r="J26" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K26" s="3">
         <v>166000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>183300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>179400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>179100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>355800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>204200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>209400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>104700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>185700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>149400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>209100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>81300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>181500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>107200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>106800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>74200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>108000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>237400</v>
+        <v>350100</v>
       </c>
       <c r="E27" s="3">
-        <v>307400</v>
+        <v>230100</v>
       </c>
       <c r="F27" s="3">
-        <v>275100</v>
+        <v>298000</v>
       </c>
       <c r="G27" s="3">
-        <v>256600</v>
+        <v>266600</v>
       </c>
       <c r="H27" s="3">
-        <v>128800</v>
+        <v>248700</v>
       </c>
       <c r="I27" s="3">
-        <v>250500</v>
+        <v>124900</v>
       </c>
       <c r="J27" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K27" s="3">
         <v>165800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>177000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>213400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>358200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>204000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>207700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>103600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>185200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>148300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>208700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>79900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>181400</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>106400</v>
       </c>
       <c r="AA27" s="3">
         <v>106400</v>
       </c>
       <c r="AB27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AC27" s="3">
         <v>73200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>105700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33700</v>
+        <v>-41300</v>
       </c>
       <c r="E32" s="3">
-        <v>-29100</v>
+        <v>-32700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24300</v>
+        <v>-28200</v>
       </c>
       <c r="G32" s="3">
-        <v>-31900</v>
+        <v>-23500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13800</v>
+        <v>-31000</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-13400</v>
       </c>
       <c r="J32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-137200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-24800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-91900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>237400</v>
+        <v>350100</v>
       </c>
       <c r="E33" s="3">
-        <v>307400</v>
+        <v>230100</v>
       </c>
       <c r="F33" s="3">
-        <v>275100</v>
+        <v>298000</v>
       </c>
       <c r="G33" s="3">
-        <v>256600</v>
+        <v>266600</v>
       </c>
       <c r="H33" s="3">
-        <v>128800</v>
+        <v>248700</v>
       </c>
       <c r="I33" s="3">
-        <v>250500</v>
+        <v>124900</v>
       </c>
       <c r="J33" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K33" s="3">
         <v>165800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>177000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>213400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>358200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>204000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>207700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>103600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>185200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>148300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>208700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>79900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>181400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>106400</v>
       </c>
       <c r="AA33" s="3">
         <v>106400</v>
       </c>
       <c r="AB33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AC33" s="3">
         <v>73200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>105700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>237400</v>
+        <v>350100</v>
       </c>
       <c r="E35" s="3">
-        <v>307400</v>
+        <v>230100</v>
       </c>
       <c r="F35" s="3">
-        <v>275100</v>
+        <v>298000</v>
       </c>
       <c r="G35" s="3">
-        <v>256600</v>
+        <v>266600</v>
       </c>
       <c r="H35" s="3">
-        <v>128800</v>
+        <v>248700</v>
       </c>
       <c r="I35" s="3">
-        <v>250500</v>
+        <v>124900</v>
       </c>
       <c r="J35" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K35" s="3">
         <v>165800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>177000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>213400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>358200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>204000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>207700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>103600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>185200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>148300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>208700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>79900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>181400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>106400</v>
       </c>
       <c r="AA35" s="3">
         <v>106400</v>
       </c>
       <c r="AB35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AC35" s="3">
         <v>73200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>105700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,295 +3267,305 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1358400</v>
+        <v>1072100</v>
       </c>
       <c r="E41" s="3">
-        <v>1662100</v>
+        <v>1316600</v>
       </c>
       <c r="F41" s="3">
-        <v>2074300</v>
+        <v>1611000</v>
       </c>
       <c r="G41" s="3">
-        <v>1411200</v>
+        <v>2010500</v>
       </c>
       <c r="H41" s="3">
-        <v>1407400</v>
+        <v>1367800</v>
       </c>
       <c r="I41" s="3">
-        <v>1381900</v>
+        <v>1364200</v>
       </c>
       <c r="J41" s="3">
+        <v>1339400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1472400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1737600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1590500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1978400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2418000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>775400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>792000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>811500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>789200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1086500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>926800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>671300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>877700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>848700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>486000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>805100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>768800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>848000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>920400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1262100</v>
+        <v>1096200</v>
       </c>
       <c r="E42" s="3">
-        <v>817900</v>
+        <v>1223300</v>
       </c>
       <c r="F42" s="3">
-        <v>988400</v>
+        <v>792700</v>
       </c>
       <c r="G42" s="3">
-        <v>740700</v>
+        <v>958000</v>
       </c>
       <c r="H42" s="3">
-        <v>568900</v>
+        <v>718000</v>
       </c>
       <c r="I42" s="3">
-        <v>404500</v>
+        <v>551400</v>
       </c>
       <c r="J42" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K42" s="3">
         <v>336100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>450800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>794000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>513700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>708000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1243400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1596100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1711200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1763500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1414900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1717000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1975100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1664900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1343800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>795600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>775400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>819600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>769700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>700700</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>252500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>287200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>265100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>265300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>261700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K43" s="3">
         <v>260500</v>
       </c>
-      <c r="E43" s="3">
-        <v>296400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>273500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>273800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>270000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>309700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>260500</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>262000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>187900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>182600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>252900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>174200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>210600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>194200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>172000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>177300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>171100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>162900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>120200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>209200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>69200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>53700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>31000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>28800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>25200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>29600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="E44" s="3">
-        <v>5800</v>
+        <v>4000</v>
       </c>
       <c r="F44" s="3">
-        <v>9200</v>
+        <v>5600</v>
       </c>
       <c r="G44" s="3">
-        <v>4100</v>
+        <v>8900</v>
       </c>
       <c r="H44" s="3">
-        <v>8400</v>
+        <v>4000</v>
       </c>
       <c r="I44" s="3">
-        <v>11800</v>
+        <v>8200</v>
       </c>
       <c r="J44" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>7400</v>
       </c>
       <c r="M44" s="3">
         <v>7400</v>
@@ -3478,485 +3574,503 @@
         <v>7400</v>
       </c>
       <c r="O44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="P44" s="3">
         <v>9500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>709000</v>
+        <v>723700</v>
       </c>
       <c r="E45" s="3">
-        <v>697000</v>
+        <v>687200</v>
       </c>
       <c r="F45" s="3">
-        <v>601000</v>
+        <v>675600</v>
       </c>
       <c r="G45" s="3">
-        <v>580500</v>
+        <v>582500</v>
       </c>
       <c r="H45" s="3">
-        <v>593300</v>
+        <v>562700</v>
       </c>
       <c r="I45" s="3">
-        <v>545600</v>
+        <v>575100</v>
       </c>
       <c r="J45" s="3">
+        <v>528800</v>
+      </c>
+      <c r="K45" s="3">
         <v>552300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>501800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>511200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>425500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>433900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>423200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>378400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>371100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>313400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>374900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>264700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>268100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>213400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>191900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>168000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>197700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>172000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>168000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>226600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>241600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3594100</v>
+        <v>3215200</v>
       </c>
       <c r="E46" s="3">
-        <v>3479100</v>
+        <v>3483600</v>
       </c>
       <c r="F46" s="3">
-        <v>3946300</v>
+        <v>3372200</v>
       </c>
       <c r="G46" s="3">
-        <v>3010300</v>
+        <v>3825000</v>
       </c>
       <c r="H46" s="3">
-        <v>2848100</v>
+        <v>2917800</v>
       </c>
       <c r="I46" s="3">
-        <v>2653400</v>
+        <v>2760500</v>
       </c>
       <c r="J46" s="3">
+        <v>2571900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2628500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2957900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3091000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3107600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3820200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2625600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2986000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3094700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3043800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3059000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3084200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3083800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2881400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2599300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1523100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1837000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1795600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1818900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1877500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1917600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1929800</v>
+        <v>2179800</v>
       </c>
       <c r="E47" s="3">
-        <v>1868700</v>
+        <v>1870500</v>
       </c>
       <c r="F47" s="3">
-        <v>1375700</v>
+        <v>1811300</v>
       </c>
       <c r="G47" s="3">
-        <v>1194200</v>
+        <v>1333400</v>
       </c>
       <c r="H47" s="3">
-        <v>1042800</v>
+        <v>1157500</v>
       </c>
       <c r="I47" s="3">
-        <v>990600</v>
+        <v>1010800</v>
       </c>
       <c r="J47" s="3">
+        <v>960200</v>
+      </c>
+      <c r="K47" s="3">
         <v>996500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1076500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1100900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1049100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>898800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>876900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>771500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>709100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>347600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>336200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>332500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>320600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>239300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>215800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>86400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>90600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>78200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>76400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>78100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4348900</v>
+        <v>4368000</v>
       </c>
       <c r="E48" s="3">
-        <v>4210700</v>
+        <v>4215200</v>
       </c>
       <c r="F48" s="3">
-        <v>4092500</v>
+        <v>4081300</v>
       </c>
       <c r="G48" s="3">
-        <v>3931700</v>
+        <v>3966700</v>
       </c>
       <c r="H48" s="3">
-        <v>3790600</v>
+        <v>3810800</v>
       </c>
       <c r="I48" s="3">
-        <v>3671300</v>
+        <v>3674100</v>
       </c>
       <c r="J48" s="3">
+        <v>3558500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3435000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3191700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2895100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2706200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2552500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2274600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2237200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2059100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1814900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1577900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1532300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1312300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1117100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1015500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>983700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>960700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>866600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>765200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>668800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>591300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1412200</v>
+        <v>1369700</v>
       </c>
       <c r="E49" s="3">
-        <v>1380800</v>
+        <v>1368800</v>
       </c>
       <c r="F49" s="3">
-        <v>1369900</v>
+        <v>1338400</v>
       </c>
       <c r="G49" s="3">
-        <v>1380500</v>
+        <v>1327800</v>
       </c>
       <c r="H49" s="3">
-        <v>1368100</v>
+        <v>1338100</v>
       </c>
       <c r="I49" s="3">
-        <v>1366400</v>
+        <v>1326100</v>
       </c>
       <c r="J49" s="3">
+        <v>1324400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1333000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1321600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1295800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1203300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1236400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1195900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1154200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1046800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1029800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>987300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>983500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>909900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>873300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>861700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>880200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>876300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>841400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>835000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>815900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>794000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186000</v>
+        <v>172900</v>
       </c>
       <c r="E52" s="3">
-        <v>222700</v>
+        <v>180300</v>
       </c>
       <c r="F52" s="3">
-        <v>245300</v>
+        <v>215900</v>
       </c>
       <c r="G52" s="3">
-        <v>221400</v>
+        <v>237800</v>
       </c>
       <c r="H52" s="3">
-        <v>239500</v>
+        <v>214600</v>
       </c>
       <c r="I52" s="3">
-        <v>241200</v>
+        <v>232200</v>
       </c>
       <c r="J52" s="3">
+        <v>233800</v>
+      </c>
+      <c r="K52" s="3">
         <v>230200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>251600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>250600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>175100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>172000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>170900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>179500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>156400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>391500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>232100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>172600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>136600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>108700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>108200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>87800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>68500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>45800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>34600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>28700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>22500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11471000</v>
+        <v>11305500</v>
       </c>
       <c r="E54" s="3">
-        <v>11162100</v>
+        <v>11118400</v>
       </c>
       <c r="F54" s="3">
-        <v>11029900</v>
+        <v>10819000</v>
       </c>
       <c r="G54" s="3">
-        <v>9738100</v>
+        <v>10690800</v>
       </c>
       <c r="H54" s="3">
-        <v>9289100</v>
+        <v>9438800</v>
       </c>
       <c r="I54" s="3">
-        <v>8923100</v>
+        <v>9003600</v>
       </c>
       <c r="J54" s="3">
+        <v>8648800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8623200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8799300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8633300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8241300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8679900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7144000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7328400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7066200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6627600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6192400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6105100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5763100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5219700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4800400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3561300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3833100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3632000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3531800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3467300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3403600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,141 +4579,145 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>292600</v>
+        <v>265800</v>
       </c>
       <c r="E57" s="3">
-        <v>313100</v>
+        <v>283600</v>
       </c>
       <c r="F57" s="3">
-        <v>252800</v>
+        <v>303500</v>
       </c>
       <c r="G57" s="3">
-        <v>271600</v>
+        <v>245100</v>
       </c>
       <c r="H57" s="3">
-        <v>244200</v>
+        <v>263300</v>
       </c>
       <c r="I57" s="3">
-        <v>278300</v>
+        <v>236700</v>
       </c>
       <c r="J57" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K57" s="3">
         <v>231300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>222800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>227700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>216400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>185600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>227200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>167200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>181100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>157100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>190500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>117200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>130700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>133200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>132000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>84900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>73000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>98200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>92600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>966500</v>
+        <v>923300</v>
       </c>
       <c r="E58" s="3">
-        <v>795200</v>
+        <v>936800</v>
       </c>
       <c r="F58" s="3">
-        <v>1021800</v>
+        <v>770800</v>
       </c>
       <c r="G58" s="3">
-        <v>1038400</v>
+        <v>990400</v>
       </c>
       <c r="H58" s="3">
-        <v>867000</v>
+        <v>1006400</v>
       </c>
       <c r="I58" s="3">
-        <v>516500</v>
+        <v>840300</v>
       </c>
       <c r="J58" s="3">
+        <v>500600</v>
+      </c>
+      <c r="K58" s="3">
         <v>678800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>537500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>433100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>244900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>413300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>322200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4591,8 +4725,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4604,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>37100</v>
@@ -4613,202 +4747,211 @@
         <v>37100</v>
       </c>
       <c r="AB58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="AC58" s="3">
         <v>101800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>65400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1456300</v>
+        <v>1253500</v>
       </c>
       <c r="E59" s="3">
-        <v>1223700</v>
+        <v>1411500</v>
       </c>
       <c r="F59" s="3">
-        <v>1213100</v>
+        <v>1186000</v>
       </c>
       <c r="G59" s="3">
-        <v>1103300</v>
+        <v>1175800</v>
       </c>
       <c r="H59" s="3">
-        <v>1146200</v>
+        <v>1069400</v>
       </c>
       <c r="I59" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1020300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>902400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>855200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>966600</v>
+      </c>
+      <c r="N59" s="3">
+        <v>828600</v>
+      </c>
+      <c r="O59" s="3">
+        <v>822800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>808400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1052600</v>
       </c>
-      <c r="J59" s="3">
-        <v>902400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>855200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>966600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>828600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>822800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>808400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1052600</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>801600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>687500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>630100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>711200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>556200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>432100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>419700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>424600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>446300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>419000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>349800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>311200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>354300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2715300</v>
+        <v>2442500</v>
       </c>
       <c r="E60" s="3">
-        <v>2332000</v>
+        <v>2631900</v>
       </c>
       <c r="F60" s="3">
-        <v>2487700</v>
+        <v>2260300</v>
       </c>
       <c r="G60" s="3">
-        <v>2413300</v>
+        <v>2411300</v>
       </c>
       <c r="H60" s="3">
-        <v>2257400</v>
+        <v>2339100</v>
       </c>
       <c r="I60" s="3">
-        <v>1847400</v>
+        <v>2188000</v>
       </c>
       <c r="J60" s="3">
+        <v>1790600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1812500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1622000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1622600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1301200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1452600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1293500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1285600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1028700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>854700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>811200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>868200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>746700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>549300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>550400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>557800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>615300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>541000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>459900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>511200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>512300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>962300</v>
+        <v>986300</v>
       </c>
       <c r="E61" s="3">
-        <v>965100</v>
+        <v>932700</v>
       </c>
       <c r="F61" s="3">
-        <v>993900</v>
+        <v>935400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>963300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4879,94 +5022,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>116800</v>
+        <v>115000</v>
       </c>
       <c r="E62" s="3">
-        <v>121800</v>
+        <v>113200</v>
       </c>
       <c r="F62" s="3">
-        <v>103900</v>
+        <v>118100</v>
       </c>
       <c r="G62" s="3">
-        <v>112400</v>
+        <v>100700</v>
       </c>
       <c r="H62" s="3">
-        <v>117300</v>
+        <v>109000</v>
       </c>
       <c r="I62" s="3">
-        <v>120600</v>
+        <v>113700</v>
       </c>
       <c r="J62" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K62" s="3">
         <v>120300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>115800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>99300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>104200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>117500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>124100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>95900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>121000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>30000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>30300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>23500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>19000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3856800</v>
+        <v>3603000</v>
       </c>
       <c r="E66" s="3">
-        <v>3482000</v>
+        <v>3738200</v>
       </c>
       <c r="F66" s="3">
-        <v>3650200</v>
+        <v>3374900</v>
       </c>
       <c r="G66" s="3">
-        <v>2585400</v>
+        <v>3538000</v>
       </c>
       <c r="H66" s="3">
-        <v>2406800</v>
+        <v>2505900</v>
       </c>
       <c r="I66" s="3">
-        <v>2009300</v>
+        <v>2332800</v>
       </c>
       <c r="J66" s="3">
+        <v>1947500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1953500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1753500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1752700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1423500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1568300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1414400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1419300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1168400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>965800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>919500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>999600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>793800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>588000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>584900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>592700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>651900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>571800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>491000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>535400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>532100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,10 +5765,13 @@
         <v>0</v>
       </c>
       <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4373200</v>
+        <v>4453600</v>
       </c>
       <c r="E72" s="3">
-        <v>4187700</v>
+        <v>4238800</v>
       </c>
       <c r="F72" s="3">
-        <v>3880300</v>
+        <v>4058900</v>
       </c>
       <c r="G72" s="3">
-        <v>3605200</v>
+        <v>3761000</v>
       </c>
       <c r="H72" s="3">
-        <v>3354200</v>
+        <v>3494400</v>
       </c>
       <c r="I72" s="3">
-        <v>3229200</v>
+        <v>3251100</v>
       </c>
       <c r="J72" s="3">
+        <v>3129900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2978700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3182700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3093800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2928600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2910500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2733500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2697900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2575600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2246600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2000300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1784800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1605100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1368400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1220100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1036800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>989800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>808400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>702000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>583600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>510400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7614300</v>
+        <v>7702500</v>
       </c>
       <c r="E76" s="3">
-        <v>7680200</v>
+        <v>7380200</v>
       </c>
       <c r="F76" s="3">
-        <v>7379700</v>
+        <v>7444100</v>
       </c>
       <c r="G76" s="3">
         <v>7152800</v>
       </c>
       <c r="H76" s="3">
-        <v>6882300</v>
+        <v>6932900</v>
       </c>
       <c r="I76" s="3">
-        <v>6913800</v>
+        <v>6670700</v>
       </c>
       <c r="J76" s="3">
+        <v>6701200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6669700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7045800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6880500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6817900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7111600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5729500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5909100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5897800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5661800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5272900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5105500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4969400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4631700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4215500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2968500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3181200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3060200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3040800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2931800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2871500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>237400</v>
+        <v>350100</v>
       </c>
       <c r="E81" s="3">
-        <v>307400</v>
+        <v>230100</v>
       </c>
       <c r="F81" s="3">
-        <v>275100</v>
+        <v>298000</v>
       </c>
       <c r="G81" s="3">
-        <v>256600</v>
+        <v>266600</v>
       </c>
       <c r="H81" s="3">
-        <v>128800</v>
+        <v>248700</v>
       </c>
       <c r="I81" s="3">
-        <v>250500</v>
+        <v>124900</v>
       </c>
       <c r="J81" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K81" s="3">
         <v>165800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>177000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>213400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>358200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>204000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>207700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>103600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>185200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>148300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>208700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>79900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>181400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>106400</v>
       </c>
       <c r="AA81" s="3">
         <v>106400</v>
       </c>
       <c r="AB81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AC81" s="3">
         <v>73200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>105700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389200</v>
+        <v>518300</v>
       </c>
       <c r="E89" s="3">
-        <v>535900</v>
+        <v>377200</v>
       </c>
       <c r="F89" s="3">
-        <v>401300</v>
+        <v>519400</v>
       </c>
       <c r="G89" s="3">
-        <v>537400</v>
+        <v>389000</v>
       </c>
       <c r="H89" s="3">
-        <v>157100</v>
+        <v>520900</v>
       </c>
       <c r="I89" s="3">
-        <v>429800</v>
+        <v>152300</v>
       </c>
       <c r="J89" s="3">
+        <v>416600</v>
+      </c>
+      <c r="K89" s="3">
         <v>254000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>277500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>284000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>218200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>184500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>348100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>221200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>304500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>96300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>261800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>127600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>206600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>203600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>152000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>134100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>48200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>166300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-833900</v>
+        <v>-488000</v>
       </c>
       <c r="E94" s="3">
-        <v>-622700</v>
+        <v>-808300</v>
       </c>
       <c r="F94" s="3">
-        <v>-673300</v>
+        <v>-603600</v>
       </c>
       <c r="G94" s="3">
-        <v>-513100</v>
+        <v>-652600</v>
       </c>
       <c r="H94" s="3">
-        <v>-471200</v>
+        <v>-497300</v>
       </c>
       <c r="I94" s="3">
-        <v>-400000</v>
+        <v>-456700</v>
       </c>
       <c r="J94" s="3">
+        <v>-387700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-197000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-627900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-406000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>173900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-161800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-112800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-314600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-626500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>229000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>136200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-483600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-321300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-790700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-229200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-107200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-167600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-168800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-771600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-158200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>119500</v>
+        <v>-272000</v>
       </c>
       <c r="E100" s="3">
-        <v>-242700</v>
+        <v>115800</v>
       </c>
       <c r="F100" s="3">
-        <v>901500</v>
+        <v>-235200</v>
       </c>
       <c r="G100" s="3">
+        <v>873800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>355600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-135500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>142800</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1267700</v>
+      </c>
+      <c r="P100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>47000</v>
+      </c>
+      <c r="R100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S100" s="3">
+        <v>79800</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-380900</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-22300</v>
       </c>
-      <c r="H100" s="3">
-        <v>366800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-111900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-308000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-135500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>142800</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-87400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1267700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>9600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>47000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>79800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-380900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>193200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>926600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-115500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-104800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>36400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1358900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>14400</v>
       </c>
       <c r="E101" s="3">
-        <v>-8400</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>31900</v>
+        <v>-8200</v>
       </c>
       <c r="G101" s="3">
-        <v>27500</v>
+        <v>30900</v>
       </c>
       <c r="H101" s="3">
-        <v>-3000</v>
+        <v>26700</v>
       </c>
       <c r="I101" s="3">
-        <v>-6800</v>
+        <v>-2900</v>
       </c>
       <c r="J101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>32400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-17500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-18100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>40700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-326500</v>
+        <v>-227300</v>
       </c>
       <c r="E102" s="3">
-        <v>-337900</v>
+        <v>-316500</v>
       </c>
       <c r="F102" s="3">
-        <v>661400</v>
+        <v>-327500</v>
       </c>
       <c r="G102" s="3">
-        <v>29500</v>
+        <v>641100</v>
       </c>
       <c r="H102" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="L102" s="3">
+        <v>96300</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-411900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-288300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>1643600</v>
+      </c>
+      <c r="P102" s="3">
+        <v>32700</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="R102" s="3">
+        <v>33500</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-320300</v>
+      </c>
+      <c r="T102" s="3">
+        <v>155900</v>
+      </c>
+      <c r="U102" s="3">
+        <v>223500</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-239400</v>
+      </c>
+      <c r="W102" s="3">
+        <v>13700</v>
+      </c>
+      <c r="X102" s="3">
+        <v>374800</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>-326900</v>
+      </c>
+      <c r="Z102" s="3">
         <v>49800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-89000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-251300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>96300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-411900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-288300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1643600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>32700</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-35000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>33500</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-320300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>155900</v>
-      </c>
-      <c r="T102" s="3">
-        <v>223500</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-239400</v>
-      </c>
-      <c r="V102" s="3">
-        <v>13700</v>
-      </c>
-      <c r="W102" s="3">
-        <v>374800</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-326900</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>49800</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-92900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-150000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-705100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1407600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-11700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ZTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1342000</v>
+        <v>1253200</v>
       </c>
       <c r="E8" s="3">
-        <v>1237700</v>
+        <v>1344900</v>
       </c>
       <c r="F8" s="3">
-        <v>1360100</v>
+        <v>1240400</v>
       </c>
       <c r="G8" s="3">
-        <v>1232400</v>
+        <v>1363000</v>
       </c>
       <c r="H8" s="3">
-        <v>1192700</v>
+        <v>1235100</v>
       </c>
       <c r="I8" s="3">
-        <v>1089000</v>
+        <v>1195300</v>
       </c>
       <c r="J8" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1270000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1052000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>929600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1149400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>978300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>943500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>617800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1054200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>821500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>828600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>695800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>817300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>592700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>587500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>508600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>642800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>466500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>441000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>380200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>464000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>342200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>886700</v>
+        <v>879500</v>
       </c>
       <c r="E9" s="3">
-        <v>890000</v>
+        <v>888700</v>
       </c>
       <c r="F9" s="3">
-        <v>978100</v>
+        <v>892000</v>
       </c>
       <c r="G9" s="3">
-        <v>895600</v>
+        <v>980200</v>
       </c>
       <c r="H9" s="3">
-        <v>889200</v>
+        <v>897600</v>
       </c>
       <c r="I9" s="3">
-        <v>865900</v>
+        <v>891100</v>
       </c>
       <c r="J9" s="3">
+        <v>867800</v>
+      </c>
+      <c r="K9" s="3">
         <v>959900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>827700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>811700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>772100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>890700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>773300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>682800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>488600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>746900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>572400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>558400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>504200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>592200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>407200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>383600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>360500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>441900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>297600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>274200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>274000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>295100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>455300</v>
+        <v>373700</v>
       </c>
       <c r="E10" s="3">
-        <v>347700</v>
+        <v>456300</v>
       </c>
       <c r="F10" s="3">
-        <v>382000</v>
+        <v>348400</v>
       </c>
       <c r="G10" s="3">
-        <v>336800</v>
+        <v>382800</v>
       </c>
       <c r="H10" s="3">
-        <v>303500</v>
+        <v>337500</v>
       </c>
       <c r="I10" s="3">
-        <v>223100</v>
+        <v>304200</v>
       </c>
       <c r="J10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K10" s="3">
         <v>310100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>240400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>157500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>258700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>205000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>260700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>129200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>307400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>249100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>270200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>191600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>225100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>185500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>204000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>148100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>200800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>168900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>166800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>106300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>168900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,34 +1282,37 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1300,12 +1320,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1313,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,11 +1356,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4500</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>945500</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>969000</v>
+        <v>947500</v>
       </c>
       <c r="F17" s="3">
-        <v>1019900</v>
+        <v>971100</v>
       </c>
       <c r="G17" s="3">
-        <v>928100</v>
+        <v>1022100</v>
       </c>
       <c r="H17" s="3">
-        <v>919100</v>
+        <v>930100</v>
       </c>
       <c r="I17" s="3">
-        <v>935200</v>
+        <v>921100</v>
       </c>
       <c r="J17" s="3">
+        <v>937300</v>
+      </c>
+      <c r="K17" s="3">
         <v>986700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>857200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>843000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>838700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>931200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>806000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>559100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>784600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>603000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>580300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>620800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>439900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>421100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>408300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>465300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>326300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>304300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>284700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>322800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>234400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>396500</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>268700</v>
+        <v>397400</v>
       </c>
       <c r="F18" s="3">
-        <v>340200</v>
+        <v>269300</v>
       </c>
       <c r="G18" s="3">
-        <v>304400</v>
+        <v>340900</v>
       </c>
       <c r="H18" s="3">
-        <v>273600</v>
+        <v>305000</v>
       </c>
       <c r="I18" s="3">
-        <v>153800</v>
+        <v>274200</v>
       </c>
       <c r="J18" s="3">
+        <v>154100</v>
+      </c>
+      <c r="K18" s="3">
         <v>283300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>193400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>209100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>242600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>269700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>218500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>228100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>115500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>196500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>152800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>166400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>177500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>140200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>136700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>95500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>141200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,231 +1717,238 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>41300</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>32700</v>
+        <v>41400</v>
       </c>
       <c r="F20" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G20" s="3">
         <v>28200</v>
       </c>
-      <c r="G20" s="3">
-        <v>23500</v>
-      </c>
       <c r="H20" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>137200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>21500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>24800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>91900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>440400</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>396000</v>
+        <v>441400</v>
       </c>
       <c r="F21" s="3">
-        <v>372300</v>
+        <v>396900</v>
       </c>
       <c r="G21" s="3">
-        <v>327000</v>
+        <v>373100</v>
       </c>
       <c r="H21" s="3">
-        <v>309900</v>
+        <v>327700</v>
       </c>
       <c r="I21" s="3">
-        <v>254400</v>
+        <v>310600</v>
       </c>
       <c r="J21" s="3">
+        <v>254900</v>
+      </c>
+      <c r="K21" s="3">
         <v>300500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>202200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>178800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>227200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>184900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>262500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>145600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>418900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>246500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>255900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>176900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>223700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>179800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>259900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>130400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>183000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>144500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>143100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>118100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>178100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1931,206 +1971,215 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>400</v>
       </c>
       <c r="AA22" s="3">
         <v>400</v>
       </c>
       <c r="AB22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC22" s="3">
         <v>700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>427900</v>
+        <v>360400</v>
       </c>
       <c r="E23" s="3">
-        <v>291500</v>
+        <v>428800</v>
       </c>
       <c r="F23" s="3">
-        <v>357800</v>
+        <v>292200</v>
       </c>
       <c r="G23" s="3">
-        <v>323500</v>
+        <v>358600</v>
       </c>
       <c r="H23" s="3">
-        <v>301300</v>
+        <v>324200</v>
       </c>
       <c r="I23" s="3">
-        <v>159000</v>
+        <v>302000</v>
       </c>
       <c r="J23" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K23" s="3">
         <v>289800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>198600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>219900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>101700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>219700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>175000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>258500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>81200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>406900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>245800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>253500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>133900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>218000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>177600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>258300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>103500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>182800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>142500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>141400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>98400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>144600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>108700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79300</v>
+        <v>37500</v>
       </c>
       <c r="E24" s="3">
-        <v>62700</v>
+        <v>79500</v>
       </c>
       <c r="F24" s="3">
-        <v>69000</v>
+        <v>62800</v>
       </c>
       <c r="G24" s="3">
+        <v>69100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>60700</v>
+      </c>
+      <c r="I24" s="3">
         <v>60500</v>
       </c>
-      <c r="H24" s="3">
-        <v>60400</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>49100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>22100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>35300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>34600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>24200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>36600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>27100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>348600</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>228900</v>
+        <v>349400</v>
       </c>
       <c r="F26" s="3">
-        <v>288900</v>
+        <v>229400</v>
       </c>
       <c r="G26" s="3">
-        <v>263000</v>
+        <v>289500</v>
       </c>
       <c r="H26" s="3">
-        <v>241000</v>
+        <v>263600</v>
       </c>
       <c r="I26" s="3">
-        <v>123800</v>
+        <v>241500</v>
       </c>
       <c r="J26" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K26" s="3">
         <v>238600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>183300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>179400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>179100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>355800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>204200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>209400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>104700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>185700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>149400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>209100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>81300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>181500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>107200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>106800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>74200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>108000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>350100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>230100</v>
+        <v>350900</v>
       </c>
       <c r="F27" s="3">
-        <v>298000</v>
+        <v>230600</v>
       </c>
       <c r="G27" s="3">
-        <v>266600</v>
+        <v>298600</v>
       </c>
       <c r="H27" s="3">
-        <v>248700</v>
+        <v>267200</v>
       </c>
       <c r="I27" s="3">
-        <v>124900</v>
+        <v>249300</v>
       </c>
       <c r="J27" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K27" s="3">
         <v>242800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>165800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>177000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>213400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>358200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>204000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>207700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>103600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>185200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>148300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>208700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>79900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>181400</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>106400</v>
       </c>
       <c r="AB27" s="3">
         <v>106400</v>
       </c>
       <c r="AC27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AD27" s="3">
         <v>73200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>105700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-41300</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-32700</v>
+        <v>-41400</v>
       </c>
       <c r="F32" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-28200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-23500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-137200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-21500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-24800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-91900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>350100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>230100</v>
+        <v>350900</v>
       </c>
       <c r="F33" s="3">
-        <v>298000</v>
+        <v>230600</v>
       </c>
       <c r="G33" s="3">
-        <v>266600</v>
+        <v>298600</v>
       </c>
       <c r="H33" s="3">
-        <v>248700</v>
+        <v>267200</v>
       </c>
       <c r="I33" s="3">
-        <v>124900</v>
+        <v>249300</v>
       </c>
       <c r="J33" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K33" s="3">
         <v>242800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>165800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>177000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>213400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>358200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>204000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>207700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>103600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>185200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>148300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>208700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>79900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>181400</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>106400</v>
       </c>
       <c r="AB33" s="3">
         <v>106400</v>
       </c>
       <c r="AC33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AD33" s="3">
         <v>73200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>105700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>350100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>230100</v>
+        <v>350900</v>
       </c>
       <c r="F35" s="3">
-        <v>298000</v>
+        <v>230600</v>
       </c>
       <c r="G35" s="3">
-        <v>266600</v>
+        <v>298600</v>
       </c>
       <c r="H35" s="3">
-        <v>248700</v>
+        <v>267200</v>
       </c>
       <c r="I35" s="3">
-        <v>124900</v>
+        <v>249300</v>
       </c>
       <c r="J35" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K35" s="3">
         <v>242800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>165800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>177000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>213400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>358200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>204000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>207700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>103600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>185200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>148300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>208700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>79900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>181400</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>106400</v>
       </c>
       <c r="AB35" s="3">
         <v>106400</v>
       </c>
       <c r="AC35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AD35" s="3">
         <v>73200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>105700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,307 +3354,317 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1072100</v>
+        <v>1282000</v>
       </c>
       <c r="E41" s="3">
-        <v>1316600</v>
+        <v>1074500</v>
       </c>
       <c r="F41" s="3">
-        <v>1611000</v>
+        <v>1319500</v>
       </c>
       <c r="G41" s="3">
-        <v>2010500</v>
+        <v>1614500</v>
       </c>
       <c r="H41" s="3">
-        <v>1367800</v>
+        <v>2014900</v>
       </c>
       <c r="I41" s="3">
-        <v>1364200</v>
+        <v>1370800</v>
       </c>
       <c r="J41" s="3">
+        <v>1367100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1339400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1472400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1737600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1590500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1978400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2418000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>775400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>792000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>811500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>789200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1086500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>926800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>671300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>877700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>848700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>486000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>805100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>768800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>848000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>920400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1641600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>287600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1096200</v>
+        <v>1056700</v>
       </c>
       <c r="E42" s="3">
-        <v>1223300</v>
+        <v>1098600</v>
       </c>
       <c r="F42" s="3">
-        <v>792700</v>
+        <v>1225900</v>
       </c>
       <c r="G42" s="3">
-        <v>958000</v>
+        <v>794400</v>
       </c>
       <c r="H42" s="3">
-        <v>718000</v>
+        <v>960100</v>
       </c>
       <c r="I42" s="3">
-        <v>551400</v>
+        <v>719500</v>
       </c>
       <c r="J42" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K42" s="3">
         <v>392000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>336100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>450800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>794000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>513700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>708000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1243400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1596100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1711200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1763500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1414900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1717000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1975100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1664900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1343800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>795600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>775400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>819600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>769700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>700700</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>319500</v>
+        <v>332000</v>
       </c>
       <c r="E43" s="3">
-        <v>252500</v>
+        <v>320200</v>
       </c>
       <c r="F43" s="3">
-        <v>287200</v>
+        <v>253100</v>
       </c>
       <c r="G43" s="3">
-        <v>265100</v>
+        <v>287900</v>
       </c>
       <c r="H43" s="3">
-        <v>265300</v>
+        <v>265700</v>
       </c>
       <c r="I43" s="3">
-        <v>261700</v>
+        <v>265900</v>
       </c>
       <c r="J43" s="3">
+        <v>262300</v>
+      </c>
+      <c r="K43" s="3">
         <v>300200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>260500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>262000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>187900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>182600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>252900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>174200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>210600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>194200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>172000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>177300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>171100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>162900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>120200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>209200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>69200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>53700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>31000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>28800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>25200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>29600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>7400</v>
       </c>
       <c r="N44" s="3">
         <v>7400</v>
@@ -3577,500 +3673,518 @@
         <v>7400</v>
       </c>
       <c r="P44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q44" s="3">
         <v>9500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>723700</v>
+        <v>739700</v>
       </c>
       <c r="E45" s="3">
-        <v>687200</v>
+        <v>725200</v>
       </c>
       <c r="F45" s="3">
-        <v>675600</v>
+        <v>688700</v>
       </c>
       <c r="G45" s="3">
-        <v>582500</v>
+        <v>677100</v>
       </c>
       <c r="H45" s="3">
-        <v>562700</v>
+        <v>583800</v>
       </c>
       <c r="I45" s="3">
-        <v>575100</v>
+        <v>563900</v>
       </c>
       <c r="J45" s="3">
+        <v>576300</v>
+      </c>
+      <c r="K45" s="3">
         <v>528800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>552300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>501800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>511200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>425500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>433900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>423200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>378400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>371100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>313400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>374900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>264700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>268100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>213400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>191900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>168000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>197700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>172000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>168000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>226600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>241600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>149500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3215200</v>
+        <v>3414300</v>
       </c>
       <c r="E46" s="3">
-        <v>3483600</v>
+        <v>3222200</v>
       </c>
       <c r="F46" s="3">
-        <v>3372200</v>
+        <v>3491200</v>
       </c>
       <c r="G46" s="3">
-        <v>3825000</v>
+        <v>3379500</v>
       </c>
       <c r="H46" s="3">
-        <v>2917800</v>
+        <v>3833300</v>
       </c>
       <c r="I46" s="3">
-        <v>2760500</v>
+        <v>2924200</v>
       </c>
       <c r="J46" s="3">
+        <v>2766500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2571900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2628500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2957900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3091000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3107600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3820200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2625600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2986000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3094700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3043800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3059000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3084200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3083800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2881400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2599300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1523100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1837000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1795600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1818900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1877500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1917600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>459000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2179800</v>
+        <v>2596600</v>
       </c>
       <c r="E47" s="3">
-        <v>1870500</v>
+        <v>2184500</v>
       </c>
       <c r="F47" s="3">
-        <v>1811300</v>
+        <v>1874600</v>
       </c>
       <c r="G47" s="3">
-        <v>1333400</v>
+        <v>1815200</v>
       </c>
       <c r="H47" s="3">
-        <v>1157500</v>
+        <v>1336300</v>
       </c>
       <c r="I47" s="3">
-        <v>1010800</v>
+        <v>1160000</v>
       </c>
       <c r="J47" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="K47" s="3">
         <v>960200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>996500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1076500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1100900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1049100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>898800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>876900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>771500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>709100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>347600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>336200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>332500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>320600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>239300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>215800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>86400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>90600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>82600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>78200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>76400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>78100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4368000</v>
+        <v>4489800</v>
       </c>
       <c r="E48" s="3">
-        <v>4215200</v>
+        <v>4377500</v>
       </c>
       <c r="F48" s="3">
-        <v>4081300</v>
+        <v>4224300</v>
       </c>
       <c r="G48" s="3">
-        <v>3966700</v>
+        <v>4090200</v>
       </c>
       <c r="H48" s="3">
-        <v>3810800</v>
+        <v>3975400</v>
       </c>
       <c r="I48" s="3">
-        <v>3674100</v>
+        <v>3819100</v>
       </c>
       <c r="J48" s="3">
+        <v>3682100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3558500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3435000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3191700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2895100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2706200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2552500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2274600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2237200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2059100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1814900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1577900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1532300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1312300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1117100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1015500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>983700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>960700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>866600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>765200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>668800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>591300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1369700</v>
+        <v>1368200</v>
       </c>
       <c r="E49" s="3">
-        <v>1368800</v>
+        <v>1372700</v>
       </c>
       <c r="F49" s="3">
-        <v>1338400</v>
+        <v>1371800</v>
       </c>
       <c r="G49" s="3">
-        <v>1327800</v>
+        <v>1341300</v>
       </c>
       <c r="H49" s="3">
-        <v>1338100</v>
+        <v>1330700</v>
       </c>
       <c r="I49" s="3">
-        <v>1326100</v>
+        <v>1341000</v>
       </c>
       <c r="J49" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1324400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1333000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1321600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1295800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1203300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1236400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1195900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1154200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1046800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1029800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>987300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>983500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>909900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>873300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>861700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>880200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>876300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>841400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>835000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>815900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>794000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>172900</v>
+        <v>208100</v>
       </c>
       <c r="E52" s="3">
-        <v>180300</v>
+        <v>173200</v>
       </c>
       <c r="F52" s="3">
-        <v>215900</v>
+        <v>180700</v>
       </c>
       <c r="G52" s="3">
-        <v>237800</v>
+        <v>216400</v>
       </c>
       <c r="H52" s="3">
-        <v>214600</v>
+        <v>238300</v>
       </c>
       <c r="I52" s="3">
-        <v>232200</v>
+        <v>215000</v>
       </c>
       <c r="J52" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K52" s="3">
         <v>233800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>230200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>251600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>250600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>175100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>172000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>170900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>179500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>156400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>391500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>232100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>172600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>136600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>108700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>108200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>87800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>68500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>45800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>34600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>28700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>22500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11305500</v>
+        <v>12077000</v>
       </c>
       <c r="E54" s="3">
-        <v>11118400</v>
+        <v>11330100</v>
       </c>
       <c r="F54" s="3">
-        <v>10819000</v>
+        <v>11142600</v>
       </c>
       <c r="G54" s="3">
-        <v>10690800</v>
+        <v>10842500</v>
       </c>
       <c r="H54" s="3">
-        <v>9438800</v>
+        <v>10714100</v>
       </c>
       <c r="I54" s="3">
-        <v>9003600</v>
+        <v>9459300</v>
       </c>
       <c r="J54" s="3">
+        <v>9023200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8648800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8623200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8799300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8633300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8241300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8679900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7144000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7328400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7066200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6627600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6192400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6105100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5763100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5219700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4800400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3561300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3833100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3632000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3531800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3467300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3403600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1811700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,147 +4710,151 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>265800</v>
+        <v>274900</v>
       </c>
       <c r="E57" s="3">
-        <v>283600</v>
+        <v>266300</v>
       </c>
       <c r="F57" s="3">
-        <v>303500</v>
+        <v>284200</v>
       </c>
       <c r="G57" s="3">
-        <v>245100</v>
+        <v>304100</v>
       </c>
       <c r="H57" s="3">
-        <v>263300</v>
+        <v>245600</v>
       </c>
       <c r="I57" s="3">
-        <v>236700</v>
+        <v>263900</v>
       </c>
       <c r="J57" s="3">
+        <v>237200</v>
+      </c>
+      <c r="K57" s="3">
         <v>269700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>229300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>222800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>227700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>216400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>185600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>227200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>167200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>181100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>157100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>190500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>117200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>130700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>133200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>132000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>84900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>73000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>98200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>92600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>923300</v>
+        <v>1324500</v>
       </c>
       <c r="E58" s="3">
-        <v>936800</v>
+        <v>925300</v>
       </c>
       <c r="F58" s="3">
-        <v>770800</v>
+        <v>938800</v>
       </c>
       <c r="G58" s="3">
-        <v>990400</v>
+        <v>772500</v>
       </c>
       <c r="H58" s="3">
-        <v>1006400</v>
+        <v>992500</v>
       </c>
       <c r="I58" s="3">
-        <v>840300</v>
+        <v>1008600</v>
       </c>
       <c r="J58" s="3">
+        <v>842100</v>
+      </c>
+      <c r="K58" s="3">
         <v>500600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>678800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>537500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>433100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>244900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>413300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>322200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4728,8 +4862,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4741,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>37100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>37100</v>
@@ -4750,211 +4884,220 @@
         <v>37100</v>
       </c>
       <c r="AC58" s="3">
+        <v>37100</v>
+      </c>
+      <c r="AD58" s="3">
         <v>101800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>65400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1253500</v>
+        <v>1317700</v>
       </c>
       <c r="E59" s="3">
-        <v>1411500</v>
+        <v>1256200</v>
       </c>
       <c r="F59" s="3">
-        <v>1186000</v>
+        <v>1414600</v>
       </c>
       <c r="G59" s="3">
-        <v>1175800</v>
+        <v>1188600</v>
       </c>
       <c r="H59" s="3">
-        <v>1069400</v>
+        <v>1178400</v>
       </c>
       <c r="I59" s="3">
-        <v>1111000</v>
+        <v>1071700</v>
       </c>
       <c r="J59" s="3">
+        <v>1113400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1020300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>902400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>855200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>966600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>828600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>822800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>808400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1052600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>801600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>687500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>630100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>711200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>556200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>432100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>419700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>424600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>446300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>419000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>349800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>311200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>354300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>296300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2442500</v>
+        <v>2917100</v>
       </c>
       <c r="E60" s="3">
-        <v>2631900</v>
+        <v>2447800</v>
       </c>
       <c r="F60" s="3">
-        <v>2260300</v>
+        <v>2637600</v>
       </c>
       <c r="G60" s="3">
-        <v>2411300</v>
+        <v>2265200</v>
       </c>
       <c r="H60" s="3">
-        <v>2339100</v>
+        <v>2416500</v>
       </c>
       <c r="I60" s="3">
-        <v>2188000</v>
+        <v>2344200</v>
       </c>
       <c r="J60" s="3">
+        <v>2192800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1790600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1812500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1622000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1622600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1301200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1452600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1293500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1285600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1028700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>854700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>811200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>868200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>746700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>549300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>550400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>557800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>615300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>541000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>459900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>511200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>512300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>986300</v>
+        <v>996000</v>
       </c>
       <c r="E61" s="3">
-        <v>932700</v>
+        <v>988400</v>
       </c>
       <c r="F61" s="3">
-        <v>935400</v>
+        <v>934800</v>
       </c>
       <c r="G61" s="3">
-        <v>963300</v>
+        <v>937400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>965400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -5025,97 +5168,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115000</v>
+        <v>109700</v>
       </c>
       <c r="E62" s="3">
-        <v>113200</v>
+        <v>115300</v>
       </c>
       <c r="F62" s="3">
-        <v>118100</v>
+        <v>113500</v>
       </c>
       <c r="G62" s="3">
-        <v>100700</v>
+        <v>118300</v>
       </c>
       <c r="H62" s="3">
-        <v>109000</v>
+        <v>100900</v>
       </c>
       <c r="I62" s="3">
-        <v>113700</v>
+        <v>109200</v>
       </c>
       <c r="J62" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K62" s="3">
         <v>116900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>115800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>105400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>104200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>117500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>124100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>95900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>121000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>35700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>30000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>30300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>23500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>19000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3603000</v>
+        <v>4082800</v>
       </c>
       <c r="E66" s="3">
-        <v>3738200</v>
+        <v>3610800</v>
       </c>
       <c r="F66" s="3">
-        <v>3374900</v>
+        <v>3746300</v>
       </c>
       <c r="G66" s="3">
-        <v>3538000</v>
+        <v>3382300</v>
       </c>
       <c r="H66" s="3">
-        <v>2505900</v>
+        <v>3545700</v>
       </c>
       <c r="I66" s="3">
-        <v>2332800</v>
+        <v>2511400</v>
       </c>
       <c r="J66" s="3">
+        <v>2337900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1947500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1953500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1753500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1752700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1423500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1568300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1414400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1419300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1168400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>965800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>919500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>999600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>793800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>588000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>584900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>592700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>651900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>571800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>491000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>535400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>532100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>424600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,10 +5936,13 @@
         <v>0</v>
       </c>
       <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4453600</v>
+        <v>4751300</v>
       </c>
       <c r="E72" s="3">
-        <v>4238800</v>
+        <v>4463300</v>
       </c>
       <c r="F72" s="3">
-        <v>4058900</v>
+        <v>4248000</v>
       </c>
       <c r="G72" s="3">
-        <v>3761000</v>
+        <v>4067800</v>
       </c>
       <c r="H72" s="3">
-        <v>3494400</v>
+        <v>3769200</v>
       </c>
       <c r="I72" s="3">
-        <v>3251100</v>
+        <v>3502000</v>
       </c>
       <c r="J72" s="3">
+        <v>3258200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3129900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2978700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3182700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3093800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2928600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2910500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2733500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2697900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2575600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2246600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2000300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1784800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1605100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1368400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1220100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1036800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>989800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>808400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>702000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>583600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>510400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>404700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7702500</v>
+        <v>7994200</v>
       </c>
       <c r="E76" s="3">
-        <v>7380200</v>
+        <v>7719300</v>
       </c>
       <c r="F76" s="3">
-        <v>7444100</v>
+        <v>7396200</v>
       </c>
       <c r="G76" s="3">
-        <v>7152800</v>
+        <v>7460300</v>
       </c>
       <c r="H76" s="3">
-        <v>6932900</v>
+        <v>7168400</v>
       </c>
       <c r="I76" s="3">
-        <v>6670700</v>
+        <v>6948000</v>
       </c>
       <c r="J76" s="3">
+        <v>6685300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6701200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6669700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7045800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6880500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6817900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7111600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5729500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5909100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5897800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5661800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5272900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5105500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4969400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4631700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4215500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2968500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3181200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3060200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3040800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2931800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2871500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1082100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>350100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>230100</v>
+        <v>350900</v>
       </c>
       <c r="F81" s="3">
-        <v>298000</v>
+        <v>230600</v>
       </c>
       <c r="G81" s="3">
-        <v>266600</v>
+        <v>298600</v>
       </c>
       <c r="H81" s="3">
-        <v>248700</v>
+        <v>267200</v>
       </c>
       <c r="I81" s="3">
-        <v>124900</v>
+        <v>249300</v>
       </c>
       <c r="J81" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K81" s="3">
         <v>242800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>165800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>177000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>213400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>358200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>204000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>207700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>103600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>185200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>148300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>208700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>79900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>181400</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>106400</v>
       </c>
       <c r="AB81" s="3">
         <v>106400</v>
       </c>
       <c r="AC81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="AD81" s="3">
         <v>73200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>105700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>518300</v>
+        <v>405700</v>
       </c>
       <c r="E89" s="3">
-        <v>377200</v>
+        <v>519400</v>
       </c>
       <c r="F89" s="3">
-        <v>519400</v>
+        <v>378100</v>
       </c>
       <c r="G89" s="3">
-        <v>389000</v>
+        <v>520500</v>
       </c>
       <c r="H89" s="3">
-        <v>520900</v>
+        <v>389800</v>
       </c>
       <c r="I89" s="3">
-        <v>152300</v>
+        <v>522000</v>
       </c>
       <c r="J89" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K89" s="3">
         <v>416600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>254000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>277500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>284000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>218200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>184500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>348100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>221200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>304500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>96300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>261800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>127600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>206600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>30700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>203600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>152000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>134100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>48200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>166300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-488000</v>
+        <v>-555900</v>
       </c>
       <c r="E94" s="3">
-        <v>-808300</v>
+        <v>-489000</v>
       </c>
       <c r="F94" s="3">
-        <v>-603600</v>
+        <v>-810100</v>
       </c>
       <c r="G94" s="3">
-        <v>-652600</v>
+        <v>-604900</v>
       </c>
       <c r="H94" s="3">
-        <v>-497300</v>
+        <v>-654000</v>
       </c>
       <c r="I94" s="3">
-        <v>-456700</v>
+        <v>-498400</v>
       </c>
       <c r="J94" s="3">
+        <v>-457700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-387700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-627900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-406000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>173900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-161800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-112800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-314600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-626500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>229000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>136200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-483600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-321300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-790700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-229200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-107200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-167600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-168800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-771600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-158200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-129200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-272000</v>
+        <v>349300</v>
       </c>
       <c r="E100" s="3">
-        <v>115800</v>
+        <v>-272600</v>
       </c>
       <c r="F100" s="3">
-        <v>-235200</v>
+        <v>116100</v>
       </c>
       <c r="G100" s="3">
-        <v>873800</v>
+        <v>-235700</v>
       </c>
       <c r="H100" s="3">
-        <v>-21600</v>
+        <v>875700</v>
       </c>
       <c r="I100" s="3">
-        <v>355600</v>
+        <v>-21700</v>
       </c>
       <c r="J100" s="3">
+        <v>356300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-108500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-308000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>142800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-87400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1267700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>47000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>79800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-380900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>193200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>926600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-115500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-104800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>36400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1358900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14400</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8200</v>
       </c>
-      <c r="G101" s="3">
-        <v>30900</v>
-      </c>
       <c r="H101" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I101" s="3">
         <v>26700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-19200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>14200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>32400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-18100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>40700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-227300</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-316500</v>
+        <v>-227700</v>
       </c>
       <c r="F102" s="3">
-        <v>-327500</v>
+        <v>-317200</v>
       </c>
       <c r="G102" s="3">
-        <v>641100</v>
+        <v>-328300</v>
       </c>
       <c r="H102" s="3">
-        <v>28600</v>
+        <v>642500</v>
       </c>
       <c r="I102" s="3">
-        <v>48300</v>
+        <v>28700</v>
       </c>
       <c r="J102" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-86200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-251300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-411900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-288300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1643600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-35000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>33500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-320300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>155900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>223500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-239400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>374800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-326900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>49800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-92900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-150000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-705100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1407600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-11700</v>
       </c>
     </row>
